--- a/src/attributions/attributions_saliency_traj_305.xlsx
+++ b/src/attributions/attributions_saliency_traj_305.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.758081490445875e-08</v>
+        <v>5.347492788132513e-06</v>
       </c>
       <c r="B4" t="n">
-        <v>9.070209472383794e-09</v>
+        <v>2.407346801192034e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.389743715662917e-07</v>
+        <v>3.753085820790147e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>1.085791012656045e-07</v>
+        <v>1.055329903465463e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>2.421181477529899e-09</v>
+        <v>5.037562459619949e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>1.650997205615568e-07</v>
+        <v>2.431836219329853e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.055035880881405e-07</v>
+        <v>2.360447979299352e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>5.438009864633386e-08</v>
+        <v>4.597080533130793e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.084443965737591e-07</v>
+        <v>4.853696964346454e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>7.516697309029041e-08</v>
+        <v>1.014619920169935e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.021614082219457e-07</v>
+        <v>1.804707608243916e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.813143910567305e-07</v>
+        <v>2.474063421686878e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.239636718419206e-08</v>
+        <v>3.063123131141765e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.429457796575662e-07</v>
+        <v>4.465445272217039e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.040606617015328e-08</v>
+        <v>1.447623708372703e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>6.690503084882948e-08</v>
+        <v>3.094939984293887e-07</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.611810063195662e-08</v>
+        <v>7.040595846774522e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.445150417112018e-07</v>
+        <v>5.306995262799319e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>4.171849354861479e-08</v>
+        <v>3.950373184125056e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.292078266601493e-08</v>
+        <v>2.323488388356054e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>3.600004916393118e-08</v>
+        <v>1.155421074372498e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>1.364772295175953e-08</v>
+        <v>1.374933162878733e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>9.843149939570139e-08</v>
+        <v>6.627416041737888e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>3.852862917597122e-08</v>
+        <v>3.451678139754222e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.502179879433243e-09</v>
+        <v>1.713212554932397e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.193245585146997e-08</v>
+        <v>1.077218598766194e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.06060999374813e-08</v>
+        <v>6.338470939226681e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.995836905801298e-08</v>
+        <v>2.57073224929627e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.585464097317526e-08</v>
+        <v>3.257376306464721e-07</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.477485600531736e-08</v>
+        <v>1.871104586825822e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.897204833464457e-09</v>
+        <v>5.617769602395128e-06</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.974140459054979e-08</v>
+        <v>7.321636985579971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.536481578223174e-08</v>
+        <v>2.899808350775857e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.731758736411848e-08</v>
+        <v>2.491827217454556e-06</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.534923654844533e-08</v>
+        <v>3.316426955279894e-08</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.774641849612181e-09</v>
+        <v>6.566364163518301e-08</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.160380769249514e-08</v>
+        <v>5.602967689810612e-08</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.488478839130948e-08</v>
+        <v>9.308697599408333e-07</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.62909798165856e-08</v>
+        <v>2.944505922641838e-06</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.369441069547065e-08</v>
+        <v>1.850148237281246e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.453401120623312e-08</v>
+        <v>1.740002630867821e-07</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.987594692806852e-08</v>
+        <v>4.771186468133237e-06</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.854209135705332e-08</v>
+        <v>3.862309313262813e-06</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.754615830407147e-08</v>
+        <v>3.688467131723883e-06</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.717828889193697e-08</v>
+        <v>5.66160542803118e-06</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.361131544783348e-08</v>
+        <v>1.077458477993787e-07</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.039572694594426e-07</v>
+        <v>8.55672169564059e-06</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.400618015485634e-08</v>
+        <v>6.569979632331524e-06</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.205164820334176e-08</v>
+        <v>1.966354830074124e-06</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.447290784057259e-08</v>
+        <v>3.414525053813122e-06</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.672880785008601e-07</v>
+        <v>5.769101335317828e-06</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.033272915648922e-08</v>
+        <v>9.078415132535156e-06</v>
       </c>
       <c r="BA4" t="n">
-        <v>6.560956933299167e-08</v>
+        <v>6.7378687163e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.551456563220199e-08</v>
+        <v>1.033795706462115e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.991574904991467e-08</v>
+        <v>9.614025657356251e-06</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.280203841882212e-08</v>
+        <v>6.639771982008824e-06</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.339787882505334e-08</v>
+        <v>1.716529254736088e-06</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.741147042684133e-08</v>
+        <v>1.937755769176874e-07</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.31228039335474e-08</v>
+        <v>5.982946731819538e-06</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.430587819901575e-08</v>
+        <v>1.162244552688207e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.57141251122539e-08</v>
+        <v>6.943434982531471e-06</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4.15177758839036e-09</v>
+        <v>6.764338991160912e-07</v>
       </c>
       <c r="BK4" t="n">
-        <v>7.258228862383476e-08</v>
+        <v>5.674177373293787e-06</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.818543703459909e-08</v>
+        <v>4.895867959930911e-07</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.27909957573047e-08</v>
+        <v>5.982532798043394e-07</v>
       </c>
       <c r="BN4" t="n">
-        <v>9.165287906398589e-08</v>
+        <v>4.193981339994934e-07</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.491827271773218e-08</v>
+        <v>3.056605237361509e-06</v>
       </c>
       <c r="BP4" t="n">
-        <v>7.045545658002084e-08</v>
+        <v>6.698436209262582e-06</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.775399027792446e-08</v>
+        <v>6.262318947847234e-07</v>
       </c>
       <c r="BR4" t="n">
-        <v>5.058284457959417e-09</v>
+        <v>3.1084896363609e-06</v>
       </c>
       <c r="BS4" t="n">
-        <v>7.823599545986326e-09</v>
+        <v>1.78010122908745e-06</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.076387665781112e-08</v>
+        <v>4.634304332284955e-06</v>
       </c>
       <c r="BU4" t="n">
-        <v>3.037254003857015e-08</v>
+        <v>1.459926238567277e-06</v>
       </c>
       <c r="BV4" t="n">
-        <v>9.374835130415704e-09</v>
+        <v>5.840432550030528e-06</v>
       </c>
       <c r="BW4" t="n">
-        <v>5.043942863380835e-08</v>
+        <v>3.014603862538934e-06</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.378013495123014e-08</v>
+        <v>1.443475639462122e-06</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.16816680165266e-08</v>
+        <v>5.097826033306774e-06</v>
       </c>
       <c r="BZ4" t="n">
-        <v>9.63159081379672e-08</v>
+        <v>3.176533709847718e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>3.680555238361194e-08</v>
+        <v>2.680844090718892e-06</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.116781638861198e-09</v>
+        <v>1.545778786748997e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>6.019977405458121e-08</v>
+        <v>3.171461230522254e-06</v>
       </c>
       <c r="CD4" t="n">
-        <v>4.345611870348876e-09</v>
+        <v>9.472024657952716e-07</v>
       </c>
       <c r="CE4" t="n">
-        <v>3.843722851115672e-08</v>
+        <v>2.789574409689521e-06</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.32292300950121e-08</v>
+        <v>1.503936573499232e-06</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.872112148111228e-08</v>
+        <v>5.866473884452716e-08</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.396039284173867e-09</v>
+        <v>1.650902390792908e-06</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.160874679191238e-08</v>
+        <v>4.475617515709018e-06</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.057182963393188e-08</v>
+        <v>1.413289737683954e-06</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.025749333891326e-08</v>
+        <v>5.719950308957777e-07</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.557320660263485e-09</v>
+        <v>2.936510782092228e-06</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.062110310812159e-08</v>
+        <v>3.86550891562365e-06</v>
       </c>
       <c r="CN4" t="n">
-        <v>6.675404762290782e-08</v>
+        <v>3.511105433062767e-06</v>
       </c>
       <c r="CO4" t="n">
-        <v>3.097665057794075e-08</v>
+        <v>3.742843546206132e-06</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.176958784933959e-08</v>
+        <v>2.17459592022351e-06</v>
       </c>
       <c r="CQ4" t="n">
-        <v>7.867085827228948e-08</v>
+        <v>2.099397079291521e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>3.944471416161832e-08</v>
+        <v>7.350224677793449e-07</v>
       </c>
       <c r="CS4" t="n">
-        <v>4.017008592427374e-08</v>
+        <v>1.686088126007235e-06</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.199226400989573e-08</v>
+        <v>5.659402404489811e-07</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.121658854685847e-08</v>
+        <v>4.702181740867672e-06</v>
       </c>
       <c r="CV4" t="n">
-        <v>2.803272280971214e-09</v>
+        <v>4.720079971320956e-07</v>
       </c>
       <c r="CW4" t="n">
-        <v>3.564171180414633e-08</v>
+        <v>3.909387032763334e-06</v>
       </c>
       <c r="CX4" t="n">
-        <v>3.729705611021927e-08</v>
+        <v>8.22092601993063e-07</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.922685122224266e-08</v>
+        <v>1.659852841839893e-07</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.554332662578872e-08</v>
+        <v>2.026001766353147e-06</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.657418063378714e-09</v>
+        <v>4.338499820732977e-06</v>
       </c>
       <c r="DB4" t="n">
-        <v>8.28009394382434e-09</v>
+        <v>7.239322030727635e-08</v>
       </c>
       <c r="DC4" t="n">
-        <v>4.183998569828873e-08</v>
+        <v>5.831959128954622e-07</v>
       </c>
       <c r="DD4" t="n">
-        <v>9.906255371561201e-09</v>
+        <v>3.191781161149265e-06</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.027127621317959e-08</v>
+        <v>2.217993596786982e-06</v>
       </c>
       <c r="DF4" t="n">
-        <v>6.994547163685638e-10</v>
+        <v>3.092628048761981e-06</v>
       </c>
       <c r="DG4" t="n">
-        <v>7.157005654789828e-09</v>
+        <v>3.115318122581812e-06</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.147387962419089e-07</v>
+        <v>3.560710410965839e-06</v>
       </c>
       <c r="DI4" t="n">
-        <v>5.609003750350894e-08</v>
+        <v>4.437132702150848e-06</v>
       </c>
       <c r="DJ4" t="n">
-        <v>7.565012793975256e-08</v>
+        <v>1.455872279620962e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>4.982148027465882e-08</v>
+        <v>5.239813617663458e-06</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.161529183946186e-07</v>
+        <v>3.719295591508853e-07</v>
       </c>
       <c r="DM4" t="n">
-        <v>9.286091895432946e-09</v>
+        <v>1.15436632768251e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.94115390428351e-09</v>
+        <v>3.374291736690793e-06</v>
       </c>
       <c r="DO4" t="n">
-        <v>2.413753108498895e-08</v>
+        <v>1.745650479278993e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.823394057964833e-08</v>
+        <v>2.856914989024517e-07</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.425610296479363e-08</v>
+        <v>1.917886493174592e-06</v>
       </c>
       <c r="DR4" t="n">
-        <v>6.116423634239254e-08</v>
+        <v>3.064892325710389e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>4.700583478012277e-09</v>
+        <v>5.575662953560823e-07</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.075630962077412e-08</v>
+        <v>4.320337211538572e-06</v>
       </c>
       <c r="DU4" t="n">
-        <v>5.952190562652504e-08</v>
+        <v>2.390982444921974e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>4.978765844043664e-08</v>
+        <v>2.970481318698148e-06</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.523241621725901e-08</v>
+        <v>2.366556145716459e-06</v>
       </c>
       <c r="DX4" t="n">
-        <v>9.016359214797376e-09</v>
+        <v>2.007328930631047e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.214433164089314e-10</v>
+        <v>1.25980011489446e-06</v>
       </c>
       <c r="DZ4" t="n">
-        <v>5.670971603422004e-08</v>
+        <v>4.724872724182205e-06</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.956495492867361e-08</v>
+        <v>2.480134753568564e-06</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.694852424018791e-08</v>
+        <v>4.567802136534738e-07</v>
       </c>
       <c r="EC4" t="n">
-        <v>7.519745715001136e-09</v>
+        <v>1.972092150026583e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>2.087354289415089e-08</v>
+        <v>2.875098743970739e-06</v>
       </c>
       <c r="EE4" t="n">
-        <v>3.229703438023535e-08</v>
+        <v>2.980156295961933e-06</v>
       </c>
       <c r="EF4" t="n">
-        <v>2.780661034762488e-08</v>
+        <v>1.814753545659187e-06</v>
       </c>
       <c r="EG4" t="n">
-        <v>2.622524064577192e-08</v>
+        <v>2.248794999104575e-06</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.007603848776853e-08</v>
+        <v>2.153542197902425e-07</v>
       </c>
       <c r="EI4" t="n">
-        <v>6.546585495925683e-11</v>
+        <v>3.995303814008366e-06</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.042036228999677e-08</v>
+        <v>3.212519459339092e-06</v>
       </c>
       <c r="EK4" t="n">
-        <v>2.324402004205695e-08</v>
+        <v>1.328162511526898e-06</v>
       </c>
       <c r="EL4" t="n">
-        <v>5.058963381543435e-08</v>
+        <v>2.70134432867053e-06</v>
       </c>
       <c r="EM4" t="n">
-        <v>6.275294062163539e-09</v>
+        <v>4.736126868465362e-07</v>
       </c>
       <c r="EN4" t="n">
-        <v>3.204672793799546e-08</v>
+        <v>7.385992830677424e-07</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.529839011027434e-08</v>
+        <v>1.973819962586276e-06</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.559438350147047e-08</v>
+        <v>2.364818556088721e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>9.162228309378406e-09</v>
+        <v>1.313650500378571e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.267715260018122e-08</v>
+        <v>1.96381870409823e-06</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.244403691202933e-08</v>
+        <v>6.345583642541897e-06</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.040722796830096e-08</v>
+        <v>9.805786248762161e-06</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.976513968633299e-08</v>
+        <v>3.845628270937596e-06</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.196970877970216e-08</v>
+        <v>1.645672341510362e-06</v>
       </c>
       <c r="EW4" t="n">
-        <v>3.464970177446958e-08</v>
+        <v>6.30592603556579e-06</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.335309463001977e-08</v>
+        <v>4.474198362913739e-07</v>
       </c>
       <c r="EY4" t="n">
-        <v>3.63860266361371e-08</v>
+        <v>4.039026407554047e-06</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3.347655308516551e-08</v>
+        <v>3.043081449050078e-07</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.860131959574574e-08</v>
+        <v>6.770397931177285e-07</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.281410000331107e-08</v>
+        <v>2.868706815206679e-06</v>
       </c>
       <c r="FC4" t="n">
-        <v>8.851828159350816e-10</v>
+        <v>3.53420205101429e-06</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.251217973674557e-08</v>
+        <v>2.233376108051743e-06</v>
       </c>
       <c r="FE4" t="n">
-        <v>3.011139781960992e-08</v>
+        <v>2.167958541576809e-07</v>
       </c>
       <c r="FF4" t="n">
-        <v>2.079833905099804e-08</v>
+        <v>4.275147603038931e-06</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.666826048880466e-08</v>
+        <v>2.876668077078648e-06</v>
       </c>
       <c r="FH4" t="n">
-        <v>7.184637240698066e-08</v>
+        <v>1.346449153061258e-06</v>
       </c>
       <c r="FI4" t="n">
-        <v>2.953901478974785e-08</v>
+        <v>3.84451232093852e-06</v>
       </c>
       <c r="FJ4" t="n">
-        <v>4.39646967720364e-08</v>
+        <v>4.696725682151737e-06</v>
       </c>
       <c r="FK4" t="n">
-        <v>8.788646965740554e-08</v>
+        <v>2.277120529470267e-06</v>
       </c>
       <c r="FL4" t="n">
-        <v>5.542712244732684e-08</v>
+        <v>3.146396238662419e-06</v>
       </c>
       <c r="FM4" t="n">
-        <v>9.243180443263554e-09</v>
+        <v>8.157546744769206e-07</v>
       </c>
       <c r="FN4" t="n">
-        <v>7.812746360968958e-08</v>
+        <v>1.089871261683584e-06</v>
       </c>
       <c r="FO4" t="n">
-        <v>1.115890579939105e-08</v>
+        <v>3.543332695699064e-06</v>
       </c>
       <c r="FP4" t="n">
-        <v>2.974910096043004e-09</v>
+        <v>2.070429161449283e-07</v>
       </c>
       <c r="FQ4" t="n">
-        <v>5.778450429261284e-08</v>
+        <v>5.72213320992887e-06</v>
       </c>
       <c r="FR4" t="n">
-        <v>2.252990327633597e-08</v>
+        <v>4.856002760789124e-06</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.451973830057796e-08</v>
+        <v>1.580657226440962e-06</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.365672197550793e-08</v>
+        <v>4.995783456251957e-06</v>
       </c>
       <c r="FU4" t="n">
-        <v>3.228499068086421e-08</v>
+        <v>8.814369721221738e-06</v>
       </c>
       <c r="FV4" t="n">
-        <v>2.440265767233996e-09</v>
+        <v>2.007662715186598e-06</v>
       </c>
       <c r="FW4" t="n">
-        <v>5.786671763985396e-08</v>
+        <v>3.698115961014992e-06</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.72819854987938e-08</v>
+        <v>3.549893563103979e-06</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.200296839698467e-08</v>
+        <v>3.15142642648425e-06</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2.906239160438417e-08</v>
+        <v>3.588223535189172e-06</v>
       </c>
       <c r="GA4" t="n">
-        <v>7.849797611925169e-08</v>
+        <v>2.262284795051528e-07</v>
       </c>
       <c r="GB4" t="n">
-        <v>5.220809384809399e-08</v>
+        <v>3.554169325070689e-06</v>
       </c>
       <c r="GC4" t="n">
-        <v>4.082994831122733e-09</v>
+        <v>5.072758995083859e-06</v>
       </c>
       <c r="GD4" t="n">
-        <v>1.988767905913846e-08</v>
+        <v>1.270862640012638e-06</v>
       </c>
       <c r="GE4" t="n">
-        <v>4.189091740158801e-09</v>
+        <v>3.496575345707242e-06</v>
       </c>
       <c r="GF4" t="n">
-        <v>5.252159596125239e-09</v>
+        <v>2.116409177688183e-06</v>
       </c>
       <c r="GG4" t="n">
-        <v>3.910307810883751e-08</v>
+        <v>4.396838903630851e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.371501667790653e-07</v>
+        <v>1.34622969198972e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>2.396047591446404e-07</v>
+        <v>2.19707017095061e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.357686727487817e-07</v>
+        <v>4.716219336842187e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>9.806783509702655e-07</v>
+        <v>5.93899449086166e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>1.527487469843436e-08</v>
+        <v>1.553435140522197e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>2.700812729017343e-08</v>
+        <v>2.405205123068299e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1.218611771491851e-07</v>
+        <v>1.066747927325196e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>2.338904181442558e-09</v>
+        <v>4.609169081959408e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.837080614881415e-07</v>
+        <v>1.142327073466731e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>8.651458927033673e-08</v>
+        <v>8.052543307712767e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.381424823421185e-07</v>
+        <v>1.524312938272487e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.625108438929601e-07</v>
+        <v>1.125488870457048e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.356959829645348e-07</v>
+        <v>1.513153165433323e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.050301415896683e-07</v>
+        <v>1.494217212894e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>4.121168615256465e-07</v>
+        <v>1.949063153006136e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.344117575603377e-07</v>
+        <v>4.813713530893438e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.568092831254035e-08</v>
+        <v>7.481848570023431e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.811563663522975e-07</v>
+        <v>2.08816218218999e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>9.071647610880973e-08</v>
+        <v>2.503751829863177e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>1.088073560140401e-07</v>
+        <v>3.859222488244995e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>7.397289181199085e-08</v>
+        <v>8.905266440706328e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>2.759770723059773e-07</v>
+        <v>5.876264822290977e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>6.617245276174799e-07</v>
+        <v>2.031268650171114e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>2.306688173803195e-10</v>
+        <v>8.279582289105747e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.849611615209142e-08</v>
+        <v>5.578028321906459e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.573158812107067e-07</v>
+        <v>6.516854227811564e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.600020689504163e-08</v>
+        <v>1.530650843051262e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.260931009663182e-07</v>
+        <v>1.148629507952137e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.014653605579952e-08</v>
+        <v>3.713494152179919e-07</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.560849736710225e-07</v>
+        <v>2.0290299289627e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.926237302996014e-07</v>
+        <v>9.318267757407739e-07</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.570223062685727e-08</v>
+        <v>3.870012278639479e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.307965220576079e-07</v>
+        <v>2.314342509635026e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.817800120486936e-08</v>
+        <v>4.384072326502064e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.129592502342348e-08</v>
+        <v>7.177840871008812e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.058207743653838e-07</v>
+        <v>1.030342082231073e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.124326528019083e-07</v>
+        <v>1.752165985635656e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.15025967931615e-08</v>
+        <v>3.873175046464894e-06</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.088368647600873e-08</v>
+        <v>1.334866283286829e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.193727937083167e-07</v>
+        <v>2.357874961944617e-07</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.092034420315031e-08</v>
+        <v>8.332815923495218e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.93972596207459e-07</v>
+        <v>1.184137545351405e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.763758916695224e-09</v>
+        <v>1.590132796991384e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.295670284041989e-08</v>
+        <v>1.274302121601067e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>7.660943879272963e-08</v>
+        <v>1.634046952858625e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.179098134684864e-07</v>
+        <v>9.870444955595303e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.531617368134903e-08</v>
+        <v>3.179933264618739e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.202970736358111e-07</v>
+        <v>7.338783689192496e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.019859941057803e-07</v>
+        <v>2.509469823053223e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.696945244906601e-08</v>
+        <v>2.88216815533815e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.031527384678157e-08</v>
+        <v>9.175333616440184e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.329457575138804e-07</v>
+        <v>6.718366876157233e-06</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.108757588663138e-08</v>
+        <v>1.02548256109003e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.581257293992167e-07</v>
+        <v>1.700657776382286e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.519849715554301e-07</v>
+        <v>9.306253559770994e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.341852495784224e-08</v>
+        <v>5.386325028666761e-06</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.236831164736941e-07</v>
+        <v>5.878911906620488e-06</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.901929801486403e-07</v>
+        <v>6.852486876596231e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.92811370425261e-07</v>
+        <v>1.970633547898615e-06</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.148146336367063e-07</v>
+        <v>1.000744850898627e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>4.69109640022225e-09</v>
+        <v>7.496614216506714e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>9.453775362544548e-08</v>
+        <v>1.132145916926675e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>7.173682092798117e-09</v>
+        <v>3.065479904762469e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.728548622599192e-07</v>
+        <v>3.673596893349895e-06</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.133032523943257e-07</v>
+        <v>6.100632162997499e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>4.418633636760205e-08</v>
+        <v>1.295867605222156e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>5.518587542496789e-08</v>
+        <v>7.193128112703562e-06</v>
       </c>
       <c r="BP5" t="n">
-        <v>7.52574536022621e-08</v>
+        <v>2.775740904326085e-05</v>
       </c>
       <c r="BQ5" t="n">
-        <v>4.012937537822836e-09</v>
+        <v>1.303852059209021e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>5.675143199823651e-08</v>
+        <v>3.86559622711502e-06</v>
       </c>
       <c r="BS5" t="n">
-        <v>4.15813730114678e-08</v>
+        <v>1.192765830637654e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>4.559446864504935e-08</v>
+        <v>7.866994565119967e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.389313920048153e-07</v>
+        <v>3.485005890979664e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>4.762987515505301e-08</v>
+        <v>1.662671638769098e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.539002596473438e-07</v>
+        <v>8.324313967023045e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>3.984844170190627e-07</v>
+        <v>4.518198693403974e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>7.099227872231495e-08</v>
+        <v>7.66077937441878e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>7.147873759549839e-08</v>
+        <v>1.203882334266382e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>4.066573922045791e-08</v>
+        <v>4.653090854844777e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.420267921048435e-07</v>
+        <v>5.085403245175257e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.13144062399806e-07</v>
+        <v>2.094446790579241e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.018003044668149e-07</v>
+        <v>4.377427558210911e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.247413052851698e-07</v>
+        <v>3.048270627914462e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>6.948604180934126e-08</v>
+        <v>2.90787420453853e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.691220177235664e-07</v>
+        <v>2.373057213844731e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>5.09233544221388e-08</v>
+        <v>2.908497663156595e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>5.266190328256926e-08</v>
+        <v>3.575089522200869e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>3.565452644238576e-08</v>
+        <v>3.893085249728756e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>5.314866058370171e-08</v>
+        <v>3.898428531101672e-06</v>
       </c>
       <c r="CL5" t="n">
-        <v>6.785748851712015e-09</v>
+        <v>8.258888556156307e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>9.926222332978796e-08</v>
+        <v>1.751395211613271e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>6.729416668349586e-08</v>
+        <v>7.257690413098317e-06</v>
       </c>
       <c r="CO5" t="n">
-        <v>5.667094882255697e-08</v>
+        <v>1.859381427493645e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.834222871366364e-07</v>
+        <v>8.271897968370467e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2.069249092073733e-07</v>
+        <v>1.40703978104284e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>3.44424393006193e-07</v>
+        <v>5.51961511519039e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>7.774693955298062e-08</v>
+        <v>1.102685018850025e-07</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.155401984145101e-08</v>
+        <v>7.151981208153302e-06</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.648136205290029e-08</v>
+        <v>4.11227756558219e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>2.157679546144209e-07</v>
+        <v>2.5222249178114e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.700275760185832e-07</v>
+        <v>3.632115294749383e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>3.894020750294658e-08</v>
+        <v>4.248757250024937e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.525124275758571e-07</v>
+        <v>1.69724853549269e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.684909006234193e-08</v>
+        <v>2.061574377876241e-07</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.773798885551514e-09</v>
+        <v>7.084220669639762e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.064178345444589e-08</v>
+        <v>3.880153599311598e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>5.181786377761455e-08</v>
+        <v>6.129604344096151e-07</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.974217767042319e-08</v>
+        <v>5.5309055824182e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>4.762993626172829e-07</v>
+        <v>2.462378688505851e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>2.846836082426307e-07</v>
+        <v>3.707654741447186e-06</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.416383952346223e-07</v>
+        <v>3.066645149374381e-06</v>
       </c>
       <c r="DH5" t="n">
-        <v>3.482863917270151e-07</v>
+        <v>1.506084299762733e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.837398713178118e-07</v>
+        <v>1.647208409849554e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.086103864622601e-07</v>
+        <v>8.19711021904368e-06</v>
       </c>
       <c r="DK5" t="n">
-        <v>2.470508206897648e-07</v>
+        <v>7.781587555655278e-06</v>
       </c>
       <c r="DL5" t="n">
-        <v>2.947523114471551e-07</v>
+        <v>3.827991804428166e-06</v>
       </c>
       <c r="DM5" t="n">
-        <v>2.439219315419905e-07</v>
+        <v>4.493807068683964e-07</v>
       </c>
       <c r="DN5" t="n">
-        <v>3.593321906691926e-08</v>
+        <v>1.403350665896141e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>2.72931515610253e-07</v>
+        <v>9.298958502768073e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>3.417562766117044e-08</v>
+        <v>2.318317001481773e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1.574923800262695e-07</v>
+        <v>1.56591249833582e-06</v>
       </c>
       <c r="DR5" t="n">
-        <v>2.365136566595538e-07</v>
+        <v>6.001610927341972e-06</v>
       </c>
       <c r="DS5" t="n">
-        <v>1.251275136837648e-07</v>
+        <v>8.329131560458336e-06</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.023434575448846e-08</v>
+        <v>2.240252797491848e-06</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.525701745526021e-07</v>
+        <v>4.784006705449428e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>2.60746020330771e-08</v>
+        <v>7.684596312174108e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.953416793933684e-08</v>
+        <v>1.813847802623059e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.225985014092657e-07</v>
+        <v>8.688539310242049e-07</v>
       </c>
       <c r="DY5" t="n">
-        <v>3.478402987866502e-08</v>
+        <v>5.177187176741427e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>2.243513108624029e-07</v>
+        <v>4.484477358346339e-06</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.357493033538049e-07</v>
+        <v>3.552591806510463e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>2.228826190275868e-07</v>
+        <v>1.952841193997301e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>5.101994382528119e-10</v>
+        <v>5.168234110897174e-06</v>
       </c>
       <c r="ED5" t="n">
-        <v>1.357341830043879e-07</v>
+        <v>1.219603655044921e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>7.800014856229609e-08</v>
+        <v>3.253296654293081e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>1.78461945665731e-07</v>
+        <v>6.236489753064234e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>1.765917261309369e-07</v>
+        <v>4.28144630859606e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>9.462510774937982e-09</v>
+        <v>6.558555014635203e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>9.700744385554572e-08</v>
+        <v>6.984066658333177e-08</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.638826686052198e-07</v>
+        <v>6.247062174224993e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>1.21846014167204e-07</v>
+        <v>6.53920722015755e-08</v>
       </c>
       <c r="EL5" t="n">
-        <v>1.988951225939672e-08</v>
+        <v>8.477609299006872e-06</v>
       </c>
       <c r="EM5" t="n">
-        <v>4.225631045073897e-08</v>
+        <v>1.372710585201276e-07</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.576973573946816e-07</v>
+        <v>5.676592991221696e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>3.665375061245868e-07</v>
+        <v>1.464993715671881e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>4.666593156343879e-08</v>
+        <v>1.184916345664533e-05</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5.288103821499135e-08</v>
+        <v>5.457412953546736e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.92472224824769e-08</v>
+        <v>3.068775640713284e-06</v>
       </c>
       <c r="ES5" t="n">
-        <v>2.246093373514668e-07</v>
+        <v>7.373954304057406e-06</v>
       </c>
       <c r="ET5" t="n">
-        <v>5.735927999239721e-08</v>
+        <v>5.718882789551571e-07</v>
       </c>
       <c r="EU5" t="n">
-        <v>2.837188262105883e-09</v>
+        <v>1.610258095752215e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>9.661911093417075e-08</v>
+        <v>1.905216549857869e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.88922965552274e-08</v>
+        <v>5.917862836213317e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>1.705742533886223e-07</v>
+        <v>2.199337131969514e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>9.806589673644339e-08</v>
+        <v>5.979091383778723e-06</v>
       </c>
       <c r="EZ5" t="n">
-        <v>4.894181415693311e-08</v>
+        <v>4.033439381601056e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>9.112443422054639e-08</v>
+        <v>1.934753981913673e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.159446085807758e-07</v>
+        <v>1.588516397532658e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.762796036392956e-08</v>
+        <v>7.360462745964469e-07</v>
       </c>
       <c r="FD5" t="n">
-        <v>3.664482406406933e-08</v>
+        <v>1.769441951182671e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>7.230190135487646e-08</v>
+        <v>1.63216509463382e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>3.242513813006553e-08</v>
+        <v>6.007311185385333e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>9.073018247818254e-08</v>
+        <v>3.043260676349746e-06</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.410567733728385e-07</v>
+        <v>7.969463695189916e-06</v>
       </c>
       <c r="FI5" t="n">
-        <v>6.803773544561409e-08</v>
+        <v>4.866446033702232e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>3.179387864093997e-10</v>
+        <v>6.750427928636782e-06</v>
       </c>
       <c r="FK5" t="n">
-        <v>9.463819594657252e-08</v>
+        <v>5.170802523934981e-06</v>
       </c>
       <c r="FL5" t="n">
-        <v>7.020044279215654e-08</v>
+        <v>1.1412899766583e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>2.761687944996538e-08</v>
+        <v>6.943761036382057e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>5.157555449386564e-08</v>
+        <v>7.084149729053024e-06</v>
       </c>
       <c r="FO5" t="n">
-        <v>2.447188194310002e-07</v>
+        <v>3.723217787410249e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>7.422815428981266e-08</v>
+        <v>8.572071237722412e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1.654814099083524e-07</v>
+        <v>1.537976095278282e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>2.624633452796843e-07</v>
+        <v>4.139603333896957e-06</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.913807861659734e-07</v>
+        <v>3.518968242133269e-06</v>
       </c>
       <c r="FT5" t="n">
-        <v>3.153901673158543e-07</v>
+        <v>3.486072091618553e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.040606960600599e-07</v>
+        <v>1.25410188047681e-05</v>
       </c>
       <c r="FV5" t="n">
-        <v>8.952936525474797e-08</v>
+        <v>3.638448106357828e-06</v>
       </c>
       <c r="FW5" t="n">
-        <v>2.085518531202979e-07</v>
+        <v>8.303500180772971e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>4.691301924708569e-08</v>
+        <v>7.766541330056498e-07</v>
       </c>
       <c r="FY5" t="n">
-        <v>2.492111264018604e-07</v>
+        <v>3.991469384345692e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>3.161962069953006e-08</v>
+        <v>5.195167318561289e-07</v>
       </c>
       <c r="GA5" t="n">
-        <v>6.752664205578185e-08</v>
+        <v>1.023632194119273e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.649108867241011e-07</v>
+        <v>1.790521082511987e-07</v>
       </c>
       <c r="GC5" t="n">
-        <v>2.206932663284533e-07</v>
+        <v>8.661954780109227e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>2.368099494276521e-08</v>
+        <v>5.198152848606696e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>3.511889090646036e-08</v>
+        <v>2.472386029239715e-07</v>
       </c>
       <c r="GF5" t="n">
-        <v>2.84705450326328e-08</v>
+        <v>2.527352990000509e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>5.928258417498e-08</v>
+        <v>1.53505652633612e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.462866487296325e-14</v>
+        <v>5.519476431459225e-09</v>
       </c>
       <c r="B6" t="n">
-        <v>7.557907750165016e-13</v>
+        <v>6.86586858478222e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>7.193505231588293e-13</v>
+        <v>5.016012138980841e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>3.185286236162543e-13</v>
+        <v>1.656205483868689e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>1.442679851450246e-12</v>
+        <v>6.222882831252718e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>1.125784442881569e-13</v>
+        <v>8.977639964768969e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>1.194810960239434e-12</v>
+        <v>4.554228638653512e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>4.577388408632047e-14</v>
+        <v>3.920983715488546e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>4.844969911377284e-13</v>
+        <v>1.288103135266283e-08</v>
       </c>
       <c r="J6" t="n">
-        <v>3.840790803889133e-13</v>
+        <v>3.228110045938593e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.348611109938669e-12</v>
+        <v>4.809587039744656e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>6.921927224110003e-13</v>
+        <v>5.061477459378239e-09</v>
       </c>
       <c r="M6" t="n">
-        <v>5.265580723182173e-13</v>
+        <v>7.709815719181279e-08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.670525425889052e-13</v>
+        <v>9.003458245615548e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>6.600984407516275e-13</v>
+        <v>4.019781840725045e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>7.78851646805051e-13</v>
+        <v>3.346908528101267e-08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.090373884932161e-12</v>
+        <v>4.071822701234851e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.733892109750945e-12</v>
+        <v>1.869996069103763e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>5.916315072400369e-15</v>
+        <v>3.980886020826802e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>5.084640526545683e-14</v>
+        <v>1.74509224848407e-08</v>
       </c>
       <c r="U6" t="n">
-        <v>7.723994512563725e-13</v>
+        <v>3.598865916387695e-08</v>
       </c>
       <c r="V6" t="n">
-        <v>2.499711592232612e-13</v>
+        <v>2.870700299695272e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.678498486035185e-12</v>
+        <v>3.455093633419892e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>1.488826287731823e-13</v>
+        <v>4.079751647623198e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.748921304282728e-13</v>
+        <v>1.339626631846613e-09</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.445038950974146e-13</v>
+        <v>4.855591129171444e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.58298889005068e-13</v>
+        <v>5.406625902537598e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.863295081378988e-13</v>
+        <v>1.146730266299301e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.718563307070639e-13</v>
+        <v>6.315198675110878e-08</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.742205113496655e-14</v>
+        <v>2.362712869796724e-08</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.241164811522648e-13</v>
+        <v>4.16200194308658e-08</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.178706329589552e-12</v>
+        <v>7.543562929868131e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.271211999072743e-14</v>
+        <v>1.050863147611381e-07</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.588762738526932e-13</v>
+        <v>3.308366913756799e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.472826610982475e-13</v>
+        <v>4.347404569671198e-08</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.101665484640364e-13</v>
+        <v>6.498540727761792e-08</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.585695821610528e-13</v>
+        <v>2.755189854042328e-09</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.972030987199309e-13</v>
+        <v>3.582016461223247e-08</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.103052211884949e-13</v>
+        <v>1.881220335064882e-08</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.430930007267355e-13</v>
+        <v>1.582121633703082e-08</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.730498320131617e-13</v>
+        <v>6.500197713421585e-08</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.500657337791868e-13</v>
+        <v>5.628010057989741e-08</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.119025762492178e-13</v>
+        <v>4.387412388950906e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.884412814933152e-13</v>
+        <v>2.92380750721577e-08</v>
       </c>
       <c r="AS6" t="n">
-        <v>8.64295478719343e-14</v>
+        <v>6.269111896273216e-09</v>
       </c>
       <c r="AT6" t="n">
-        <v>6.465392457521979e-13</v>
+        <v>3.867255315981311e-08</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.082862315440747e-12</v>
+        <v>1.957347706138535e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.258398104625694e-13</v>
+        <v>1.873674548846793e-10</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.231590133696225e-12</v>
+        <v>4.563220201703189e-08</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.061848955459133e-12</v>
+        <v>2.722096681395669e-08</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.98466968256689e-13</v>
+        <v>1.611161337677913e-08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8.723624849837214e-14</v>
+        <v>7.091023235261673e-08</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.628614115251284e-13</v>
+        <v>7.214535191479854e-09</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.366764179528256e-14</v>
+        <v>3.375680179829033e-08</v>
       </c>
       <c r="BC6" t="n">
-        <v>5.168142389738728e-13</v>
+        <v>2.692700284967486e-08</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.018912737385871e-13</v>
+        <v>5.391519231068287e-09</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.295355966587919e-14</v>
+        <v>8.686448182970707e-08</v>
       </c>
       <c r="BF6" t="n">
-        <v>6.025149996979895e-13</v>
+        <v>1.05552526719066e-08</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.457452373105101e-13</v>
+        <v>9.170287285087397e-08</v>
       </c>
       <c r="BH6" t="n">
-        <v>8.557740562194216e-13</v>
+        <v>1.864843284238304e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>3.895735188434724e-13</v>
+        <v>2.766095263950774e-08</v>
       </c>
       <c r="BJ6" t="n">
-        <v>7.102369907474593e-13</v>
+        <v>8.766580350538788e-08</v>
       </c>
       <c r="BK6" t="n">
-        <v>5.262164944237757e-13</v>
+        <v>2.316577152328136e-08</v>
       </c>
       <c r="BL6" t="n">
-        <v>7.568988296367818e-13</v>
+        <v>1.273290095582524e-08</v>
       </c>
       <c r="BM6" t="n">
-        <v>3.956959000912808e-13</v>
+        <v>1.288402415866585e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>4.300134467255523e-13</v>
+        <v>2.76349592098768e-08</v>
       </c>
       <c r="BO6" t="n">
-        <v>6.476326094330409e-13</v>
+        <v>2.242007113295585e-08</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.105605186736303e-13</v>
+        <v>6.509119998554524e-08</v>
       </c>
       <c r="BQ6" t="n">
-        <v>8.743282790477092e-14</v>
+        <v>3.478728771710848e-08</v>
       </c>
       <c r="BR6" t="n">
-        <v>7.606376195134351e-14</v>
+        <v>3.715069141208005e-08</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.19180652759926e-13</v>
+        <v>3.110054436206156e-08</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.16788514765566e-13</v>
+        <v>2.24312000085547e-08</v>
       </c>
       <c r="BU6" t="n">
-        <v>2.107845148424659e-13</v>
+        <v>6.678718023067631e-09</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.710869130828324e-13</v>
+        <v>3.602274745162504e-08</v>
       </c>
       <c r="BW6" t="n">
-        <v>3.730021391583349e-13</v>
+        <v>1.639533309116814e-08</v>
       </c>
       <c r="BX6" t="n">
-        <v>5.221175054803684e-13</v>
+        <v>5.051927587373939e-08</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.488208408039764e-13</v>
+        <v>1.514542447011991e-08</v>
       </c>
       <c r="BZ6" t="n">
-        <v>8.561313008352556e-13</v>
+        <v>8.799386819191568e-08</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.115950593651854e-13</v>
+        <v>6.332590452018394e-09</v>
       </c>
       <c r="CB6" t="n">
-        <v>4.124436523648273e-14</v>
+        <v>1.884995981527027e-08</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.373055636543941e-14</v>
+        <v>5.291923343975213e-08</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.685078536125054e-14</v>
+        <v>1.598705612337881e-10</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.84478115977066e-13</v>
+        <v>1.398457172285816e-08</v>
       </c>
       <c r="CF6" t="n">
-        <v>7.237054922351605e-14</v>
+        <v>1.215647138508302e-08</v>
       </c>
       <c r="CG6" t="n">
-        <v>5.410613363593386e-14</v>
+        <v>4.09031697401474e-11</v>
       </c>
       <c r="CH6" t="n">
-        <v>3.576904668723541e-13</v>
+        <v>1.671714144890757e-08</v>
       </c>
       <c r="CI6" t="n">
-        <v>7.729143795256674e-14</v>
+        <v>7.697964932162904e-09</v>
       </c>
       <c r="CJ6" t="n">
-        <v>3.011713057762821e-13</v>
+        <v>8.654655658801857e-09</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.353683654227057e-13</v>
+        <v>1.269165128547911e-08</v>
       </c>
       <c r="CL6" t="n">
-        <v>7.635171249582851e-14</v>
+        <v>2.112100361273406e-08</v>
       </c>
       <c r="CM6" t="n">
-        <v>2.997354697342053e-13</v>
+        <v>7.061746032377414e-08</v>
       </c>
       <c r="CN6" t="n">
-        <v>4.681455418632796e-13</v>
+        <v>9.232427800043297e-08</v>
       </c>
       <c r="CO6" t="n">
-        <v>9.729975072175767e-13</v>
+        <v>1.905661051182506e-08</v>
       </c>
       <c r="CP6" t="n">
-        <v>4.732542482899227e-14</v>
+        <v>6.019146781000018e-08</v>
       </c>
       <c r="CQ6" t="n">
-        <v>9.664643217666136e-13</v>
+        <v>3.931053527139738e-08</v>
       </c>
       <c r="CR6" t="n">
-        <v>3.157497050279567e-13</v>
+        <v>1.297134133437794e-08</v>
       </c>
       <c r="CS6" t="n">
-        <v>3.283835876832786e-13</v>
+        <v>3.61133842829986e-08</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.500532337272986e-12</v>
+        <v>3.99846591392361e-08</v>
       </c>
       <c r="CU6" t="n">
-        <v>2.871365797040004e-13</v>
+        <v>5.476693942796373e-08</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.116338246142824e-14</v>
+        <v>5.523007828855953e-09</v>
       </c>
       <c r="CW6" t="n">
-        <v>3.154130873584543e-13</v>
+        <v>4.85207118927633e-09</v>
       </c>
       <c r="CX6" t="n">
-        <v>2.089078286445292e-13</v>
+        <v>4.599762792878437e-10</v>
       </c>
       <c r="CY6" t="n">
-        <v>8.956919407554498e-14</v>
+        <v>6.687157050322412e-09</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.707523418449305e-13</v>
+        <v>2.696512346744839e-09</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.393659473385993e-14</v>
+        <v>5.875257613752183e-09</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.089714713120541e-13</v>
+        <v>2.748019589660089e-09</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.425412080718115e-13</v>
+        <v>1.656117731840823e-08</v>
       </c>
       <c r="DD6" t="n">
-        <v>5.951756963792562e-14</v>
+        <v>9.627916242038737e-09</v>
       </c>
       <c r="DE6" t="n">
-        <v>2.251014180826641e-13</v>
+        <v>7.997891060540496e-08</v>
       </c>
       <c r="DF6" t="n">
-        <v>3.541427676286013e-13</v>
+        <v>2.668984322440338e-08</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.648181509892113e-13</v>
+        <v>6.329541690774931e-08</v>
       </c>
       <c r="DH6" t="n">
-        <v>8.182147450894184e-13</v>
+        <v>2.319956848850779e-08</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.31465991521848e-13</v>
+        <v>5.164558558590215e-08</v>
       </c>
       <c r="DJ6" t="n">
-        <v>3.085724221713743e-13</v>
+        <v>9.354591412602531e-08</v>
       </c>
       <c r="DK6" t="n">
-        <v>5.071245073179353e-13</v>
+        <v>1.277847871961058e-07</v>
       </c>
       <c r="DL6" t="n">
-        <v>8.796748052208869e-13</v>
+        <v>2.392533104966788e-08</v>
       </c>
       <c r="DM6" t="n">
-        <v>3.76323050412658e-13</v>
+        <v>5.046398143804254e-08</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.188904931535145e-13</v>
+        <v>6.282833453497005e-08</v>
       </c>
       <c r="DO6" t="n">
-        <v>5.163539951516527e-13</v>
+        <v>6.266816399147501e-08</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.910307407734015e-13</v>
+        <v>4.445933399210844e-08</v>
       </c>
       <c r="DQ6" t="n">
-        <v>4.536765928209174e-13</v>
+        <v>2.517125707868217e-08</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.650172933350072e-13</v>
+        <v>2.600783233219772e-08</v>
       </c>
       <c r="DS6" t="n">
-        <v>8.503442633193969e-13</v>
+        <v>2.624670969453291e-08</v>
       </c>
       <c r="DT6" t="n">
-        <v>3.421308917596344e-13</v>
+        <v>6.995626478101258e-08</v>
       </c>
       <c r="DU6" t="n">
-        <v>7.696772364416959e-13</v>
+        <v>3.178491070343625e-08</v>
       </c>
       <c r="DV6" t="n">
-        <v>4.011449646849213e-13</v>
+        <v>8.546603424974819e-08</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.715834284891527e-14</v>
+        <v>2.576202362547519e-08</v>
       </c>
       <c r="DX6" t="n">
-        <v>5.158606831631718e-14</v>
+        <v>1.375635694245148e-08</v>
       </c>
       <c r="DY6" t="n">
-        <v>5.836757672236098e-14</v>
+        <v>2.267641630027128e-10</v>
       </c>
       <c r="DZ6" t="n">
-        <v>8.588851201432601e-13</v>
+        <v>8.418595598413958e-09</v>
       </c>
       <c r="EA6" t="n">
-        <v>5.831761533100013e-14</v>
+        <v>3.496210876363648e-09</v>
       </c>
       <c r="EB6" t="n">
-        <v>4.103242810631069e-13</v>
+        <v>9.918136356645846e-08</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.685535256290213e-13</v>
+        <v>3.96737398489222e-08</v>
       </c>
       <c r="ED6" t="n">
-        <v>3.654441387088841e-13</v>
+        <v>1.786493442068604e-08</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.285157012276619e-13</v>
+        <v>2.31663683791794e-08</v>
       </c>
       <c r="EF6" t="n">
-        <v>7.463946588614004e-14</v>
+        <v>2.923274511346108e-09</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.201876597377305e-13</v>
+        <v>5.03056867273699e-08</v>
       </c>
       <c r="EH6" t="n">
-        <v>6.842773960305526e-14</v>
+        <v>3.0266701145365e-08</v>
       </c>
       <c r="EI6" t="n">
-        <v>3.667079118661876e-13</v>
+        <v>4.035199907548304e-08</v>
       </c>
       <c r="EJ6" t="n">
-        <v>3.961927357368222e-13</v>
+        <v>5.02649255551546e-09</v>
       </c>
       <c r="EK6" t="n">
-        <v>4.680879571753935e-14</v>
+        <v>1.846854935649844e-08</v>
       </c>
       <c r="EL6" t="n">
-        <v>6.087623894562855e-13</v>
+        <v>4.430817313050284e-08</v>
       </c>
       <c r="EM6" t="n">
-        <v>4.53487507962036e-13</v>
+        <v>1.70339049532231e-08</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.947721006087839e-13</v>
+        <v>2.969048296108667e-08</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.867806140471497e-13</v>
+        <v>5.162831229199583e-08</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.050775321045181e-13</v>
+        <v>2.81503567123309e-08</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.059982230368657e-13</v>
+        <v>4.763730743206906e-09</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.378229449311042e-13</v>
+        <v>2.291176137703133e-08</v>
       </c>
       <c r="ES6" t="n">
-        <v>7.788379858576777e-14</v>
+        <v>2.958873679403951e-08</v>
       </c>
       <c r="ET6" t="n">
-        <v>5.116878600518182e-15</v>
+        <v>7.574269744736739e-08</v>
       </c>
       <c r="EU6" t="n">
-        <v>4.624097329000709e-13</v>
+        <v>2.475709592886233e-08</v>
       </c>
       <c r="EV6" t="n">
-        <v>5.487565696987717e-13</v>
+        <v>2.732721782194858e-08</v>
       </c>
       <c r="EW6" t="n">
-        <v>7.886956875351875e-14</v>
+        <v>5.923879697888879e-08</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.746200380953934e-14</v>
+        <v>2.378905517019803e-09</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.21029629061259e-13</v>
+        <v>1.854554732005909e-09</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.664349539264032e-13</v>
+        <v>1.748870914752843e-08</v>
       </c>
       <c r="FA6" t="n">
-        <v>9.597165862582427e-14</v>
+        <v>1.076930011834065e-08</v>
       </c>
       <c r="FB6" t="n">
-        <v>2.856243616188719e-13</v>
+        <v>1.003065541738124e-08</v>
       </c>
       <c r="FC6" t="n">
-        <v>6.003332461137698e-14</v>
+        <v>6.982987521553241e-09</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.979065918306447e-13</v>
+        <v>7.524391776314587e-09</v>
       </c>
       <c r="FE6" t="n">
-        <v>3.854880824272211e-13</v>
+        <v>1.089550583088794e-08</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.595690539337585e-13</v>
+        <v>9.758449159846805e-09</v>
       </c>
       <c r="FG6" t="n">
-        <v>2.454719912579895e-13</v>
+        <v>1.714443698119794e-08</v>
       </c>
       <c r="FH6" t="n">
-        <v>4.474663640920834e-14</v>
+        <v>4.545813681033906e-08</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.55409864664724e-13</v>
+        <v>5.917599921190231e-08</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.237198548904167e-13</v>
+        <v>2.570617851915813e-08</v>
       </c>
       <c r="FK6" t="n">
-        <v>6.209995625366949e-13</v>
+        <v>9.127675504316812e-09</v>
       </c>
       <c r="FL6" t="n">
-        <v>5.508972726782357e-13</v>
+        <v>4.323138469430887e-08</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.355326983455696e-13</v>
+        <v>2.932767095842337e-08</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.021179668603267e-12</v>
+        <v>5.929236479573774e-08</v>
       </c>
       <c r="FO6" t="n">
-        <v>3.273417236056286e-13</v>
+        <v>3.109990043270727e-09</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.680136607097593e-13</v>
+        <v>5.204881858844601e-08</v>
       </c>
       <c r="FQ6" t="n">
-        <v>7.045153306226015e-13</v>
+        <v>1.750672939948572e-10</v>
       </c>
       <c r="FR6" t="n">
-        <v>5.011211172585572e-13</v>
+        <v>8.669043438658264e-08</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.248228408655405e-13</v>
+        <v>1.299247465169628e-08</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.55858171421025e-12</v>
+        <v>6.421944931389589e-08</v>
       </c>
       <c r="FU6" t="n">
-        <v>5.404761924468482e-13</v>
+        <v>5.215334653030368e-08</v>
       </c>
       <c r="FV6" t="n">
-        <v>3.835210144256807e-13</v>
+        <v>3.30457936570383e-08</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.256643765082e-13</v>
+        <v>1.659888226868134e-08</v>
       </c>
       <c r="FX6" t="n">
-        <v>2.889644361465937e-13</v>
+        <v>1.828426832162222e-08</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.522704353015478e-13</v>
+        <v>1.14772618076131e-08</v>
       </c>
       <c r="FZ6" t="n">
-        <v>7.321200395059291e-13</v>
+        <v>1.088569234752867e-07</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.189315166532159e-13</v>
+        <v>5.895595567295686e-09</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.668302640813526e-13</v>
+        <v>5.528973900936762e-08</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.94164468032311e-13</v>
+        <v>3.09561620781551e-08</v>
       </c>
       <c r="GD6" t="n">
-        <v>2.327837900738261e-13</v>
+        <v>2.889079908641179e-08</v>
       </c>
       <c r="GE6" t="n">
-        <v>2.584955361741026e-13</v>
+        <v>9.438467429845332e-08</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.779784544568563e-13</v>
+        <v>4.089360317038881e-08</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.359765978200395e-13</v>
+        <v>7.773097365770809e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.149751806740824e-08</v>
+        <v>5.143754519543187e-11</v>
       </c>
       <c r="B7" t="n">
-        <v>2.035368140695937e-08</v>
+        <v>1.240113289835421e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>1.085965593006222e-07</v>
+        <v>4.167469494498199e-11</v>
       </c>
       <c r="D7" t="n">
-        <v>9.118209050029691e-07</v>
+        <v>3.562928077571748e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>7.12589610429859e-07</v>
+        <v>1.226037240481537e-11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.600822585601236e-08</v>
+        <v>3.849517579701534e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>1.453980047472214e-09</v>
+        <v>1.54298671062314e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>3.179660268415319e-08</v>
+        <v>3.598930875536865e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>1.004045060426506e-07</v>
+        <v>7.629677445386562e-11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.296185985211196e-07</v>
+        <v>4.789964952456316e-11</v>
       </c>
       <c r="K7" t="n">
-        <v>3.807815005529847e-07</v>
+        <v>6.688323506143234e-12</v>
       </c>
       <c r="L7" t="n">
-        <v>1.631870816254377e-07</v>
+        <v>6.007408459574037e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>6.314465963441762e-07</v>
+        <v>6.520000511711643e-11</v>
       </c>
       <c r="N7" t="n">
-        <v>1.244671125277819e-06</v>
+        <v>1.916128367085435e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>3.314173397939157e-07</v>
+        <v>1.091991688045857e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>3.142265541100642e-07</v>
+        <v>6.578781963639813e-11</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.212384089261832e-07</v>
+        <v>3.208683319044781e-13</v>
       </c>
       <c r="R7" t="n">
-        <v>4.309252688017295e-08</v>
+        <v>1.499390195336403e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>1.337763961828387e-07</v>
+        <v>2.291473781557141e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>1.554478785692481e-07</v>
+        <v>7.736675883274202e-12</v>
       </c>
       <c r="U7" t="n">
-        <v>1.723390425922844e-07</v>
+        <v>1.793145493200754e-11</v>
       </c>
       <c r="V7" t="n">
-        <v>2.081240921825156e-07</v>
+        <v>2.960524880801785e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>8.861376272761845e-07</v>
+        <v>9.480875806655575e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>2.535369958422962e-08</v>
+        <v>8.400385942408661e-11</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.746518663026109e-08</v>
+        <v>2.254419220748538e-11</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.34402000639966e-07</v>
+        <v>1.743780120300187e-11</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.640363388512924e-08</v>
+        <v>1.668933871309952e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.567171861755924e-07</v>
+        <v>1.073756621811084e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.060323171486743e-07</v>
+        <v>1.519549937267772e-11</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.835779184806597e-07</v>
+        <v>7.40459360493162e-11</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.417369060481178e-08</v>
+        <v>1.028204466013705e-10</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.355851194124625e-07</v>
+        <v>4.195181702026929e-11</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.472392755085821e-08</v>
+        <v>4.82140577462431e-11</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.906258841534509e-09</v>
+        <v>1.274037732951205e-11</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.116179646487581e-07</v>
+        <v>2.802794454859203e-11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.717443560930406e-08</v>
+        <v>4.916176146729789e-11</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.60152830833249e-07</v>
+        <v>6.240047541183902e-13</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.346375538309076e-09</v>
+        <v>1.475528553507299e-11</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.787251401377034e-08</v>
+        <v>1.232618781349393e-11</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.446304847580905e-07</v>
+        <v>2.96986706060931e-11</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.732297043119615e-08</v>
+        <v>8.994204686585405e-11</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.404041114483334e-07</v>
+        <v>9.341964701814476e-12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.017769779565469e-08</v>
+        <v>1.746887703935052e-11</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.68773838740799e-08</v>
+        <v>4.913346118851081e-11</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.460844683582764e-08</v>
+        <v>1.039560364873848e-11</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.198391678755797e-08</v>
+        <v>2.493200611242141e-11</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.882939836330479e-08</v>
+        <v>1.04821137880684e-10</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.133842317813105e-07</v>
+        <v>1.730687988754642e-11</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.956643687772157e-07</v>
+        <v>1.906950986008127e-11</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.815666146550939e-08</v>
+        <v>6.633818494528043e-12</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.077546833514134e-08</v>
+        <v>1.503963620308468e-11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.674253790109105e-08</v>
+        <v>7.793904410746677e-13</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.884587845779606e-07</v>
+        <v>6.212763636881391e-11</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.521452415749081e-07</v>
+        <v>4.558254468323142e-11</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.547775951848962e-07</v>
+        <v>2.421468928148762e-11</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.253480252927375e-08</v>
+        <v>4.114667287447027e-11</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.098862227877362e-07</v>
+        <v>4.839701556180742e-11</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.273422575806762e-07</v>
+        <v>9.104324932840413e-12</v>
       </c>
       <c r="BG7" t="n">
-        <v>5.157330065230781e-07</v>
+        <v>6.075163289098739e-11</v>
       </c>
       <c r="BH7" t="n">
-        <v>5.403277469895329e-08</v>
+        <v>4.975513057114966e-12</v>
       </c>
       <c r="BI7" t="n">
-        <v>9.564898562075541e-08</v>
+        <v>2.623060189194115e-12</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.682664839743666e-09</v>
+        <v>3.095861067503591e-11</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.230430678513585e-08</v>
+        <v>1.119941778204847e-10</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.317764824510959e-07</v>
+        <v>1.104878428331846e-11</v>
       </c>
       <c r="BM7" t="n">
-        <v>5.33357535914547e-08</v>
+        <v>2.424770106923546e-11</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.347937939044641e-07</v>
+        <v>1.541474847072122e-12</v>
       </c>
       <c r="BO7" t="n">
-        <v>9.01949235299071e-08</v>
+        <v>3.710660598232884e-11</v>
       </c>
       <c r="BP7" t="n">
-        <v>4.055519582379929e-07</v>
+        <v>1.518039999259813e-10</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.131849245439298e-07</v>
+        <v>5.686857582065663e-11</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.179835973947775e-07</v>
+        <v>4.35068300830288e-11</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.253122547950625e-07</v>
+        <v>4.641420234263727e-11</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.880217048721988e-08</v>
+        <v>4.182584834033776e-12</v>
       </c>
       <c r="BU7" t="n">
-        <v>2.561028225045447e-07</v>
+        <v>8.10480588891993e-12</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.782828604746101e-07</v>
+        <v>4.433265560210842e-11</v>
       </c>
       <c r="BW7" t="n">
-        <v>3.136832660288746e-08</v>
+        <v>1.282444289651963e-11</v>
       </c>
       <c r="BX7" t="n">
-        <v>2.915621735155582e-07</v>
+        <v>3.264618089748872e-11</v>
       </c>
       <c r="BY7" t="n">
-        <v>2.776924645786494e-08</v>
+        <v>8.473260287855666e-11</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2.993446059917915e-07</v>
+        <v>2.480865859966208e-11</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.845145902734657e-07</v>
+        <v>1.255573249536734e-11</v>
       </c>
       <c r="CB7" t="n">
-        <v>7.715611616276874e-08</v>
+        <v>2.6637211533731e-11</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.239819269471809e-08</v>
+        <v>3.441093243683468e-11</v>
       </c>
       <c r="CD7" t="n">
-        <v>9.922960941821657e-08</v>
+        <v>1.00802742888928e-11</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.129572311242555e-07</v>
+        <v>4.778281069428569e-12</v>
       </c>
       <c r="CF7" t="n">
-        <v>6.730857649017707e-09</v>
+        <v>3.436921754140787e-12</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.270952563776518e-07</v>
+        <v>1.155826215987199e-11</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.319524187692878e-07</v>
+        <v>3.616694617403216e-13</v>
       </c>
       <c r="CI7" t="n">
-        <v>5.621280330103673e-09</v>
+        <v>1.567573501559671e-11</v>
       </c>
       <c r="CJ7" t="n">
-        <v>3.403907200549838e-08</v>
+        <v>2.146173516681671e-11</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.67661057154578e-09</v>
+        <v>4.632861802522648e-12</v>
       </c>
       <c r="CL7" t="n">
-        <v>4.781337281656306e-08</v>
+        <v>3.158223682575567e-11</v>
       </c>
       <c r="CM7" t="n">
-        <v>9.464604033837531e-08</v>
+        <v>1.396699769729004e-11</v>
       </c>
       <c r="CN7" t="n">
-        <v>6.780177130849552e-08</v>
+        <v>9.756173299790838e-12</v>
       </c>
       <c r="CO7" t="n">
-        <v>2.424226508423999e-08</v>
+        <v>2.624269204720697e-11</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.633076405800239e-07</v>
+        <v>1.590525280925625e-11</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.522895729522133e-07</v>
+        <v>4.921080903885766e-11</v>
       </c>
       <c r="CR7" t="n">
-        <v>4.259058243860636e-07</v>
+        <v>2.158800568863306e-11</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.461883982756262e-07</v>
+        <v>9.435654341194422e-11</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.082087912138377e-08</v>
+        <v>6.657038115198688e-11</v>
       </c>
       <c r="CU7" t="n">
-        <v>8.750053837047744e-08</v>
+        <v>2.479042839065304e-11</v>
       </c>
       <c r="CV7" t="n">
-        <v>8.363087999896379e-08</v>
+        <v>4.685320274117055e-12</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.222601753170238e-08</v>
+        <v>1.507113878140842e-12</v>
       </c>
       <c r="CX7" t="n">
-        <v>1.05796615912368e-08</v>
+        <v>1.100155990613194e-12</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.885339031559852e-07</v>
+        <v>2.124465534047992e-12</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.605088613132466e-07</v>
+        <v>2.025558323501264e-12</v>
       </c>
       <c r="DA7" t="n">
-        <v>9.204971895826475e-09</v>
+        <v>1.270636373895684e-11</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.03937453591152e-08</v>
+        <v>2.768040657796789e-11</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.804016136475184e-08</v>
+        <v>4.8937034979879e-12</v>
       </c>
       <c r="DD7" t="n">
-        <v>3.574359297431329e-08</v>
+        <v>1.195324221547889e-11</v>
       </c>
       <c r="DE7" t="n">
-        <v>4.146288006268151e-07</v>
+        <v>1.392992665660842e-11</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.527396733536079e-07</v>
+        <v>1.479281142025002e-10</v>
       </c>
       <c r="DG7" t="n">
-        <v>9.578180737435105e-08</v>
+        <v>6.924105733219221e-11</v>
       </c>
       <c r="DH7" t="n">
-        <v>5.085170755592117e-07</v>
+        <v>1.296808632700319e-10</v>
       </c>
       <c r="DI7" t="n">
-        <v>3.990338370840618e-08</v>
+        <v>8.306394461143896e-11</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1.437591379271907e-07</v>
+        <v>5.511528733403992e-11</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.731926886350266e-07</v>
+        <v>5.756277052237913e-11</v>
       </c>
       <c r="DL7" t="n">
-        <v>2.105255347828461e-08</v>
+        <v>4.169869310954866e-11</v>
       </c>
       <c r="DM7" t="n">
-        <v>3.648666080380281e-08</v>
+        <v>7.453083289421514e-13</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.170826777752154e-07</v>
+        <v>5.433189922271486e-12</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.612201288025972e-07</v>
+        <v>2.747752025911154e-11</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.241690306130749e-08</v>
+        <v>1.868002454108453e-11</v>
       </c>
       <c r="DQ7" t="n">
-        <v>2.104962391058507e-07</v>
+        <v>3.114924637670491e-11</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.532960141048534e-07</v>
+        <v>3.149082730691255e-11</v>
       </c>
       <c r="DS7" t="n">
-        <v>8.275991092432378e-08</v>
+        <v>2.538938156937398e-11</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.454803211231592e-08</v>
+        <v>5.724039298105055e-11</v>
       </c>
       <c r="DU7" t="n">
-        <v>2.73314981313888e-07</v>
+        <v>1.806193389297661e-11</v>
       </c>
       <c r="DV7" t="n">
-        <v>8.173323351456929e-08</v>
+        <v>2.042850263950236e-12</v>
       </c>
       <c r="DW7" t="n">
-        <v>5.494835164654432e-08</v>
+        <v>1.078730854642274e-11</v>
       </c>
       <c r="DX7" t="n">
-        <v>3.281549254552374e-07</v>
+        <v>3.215196511807683e-11</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.771663704630555e-08</v>
+        <v>3.479266874606424e-11</v>
       </c>
       <c r="DZ7" t="n">
-        <v>3.334107248065266e-07</v>
+        <v>2.084052375117551e-11</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.058733989367511e-08</v>
+        <v>1.055524764814741e-11</v>
       </c>
       <c r="EB7" t="n">
-        <v>2.281459074993109e-07</v>
+        <v>1.141748154354083e-11</v>
       </c>
       <c r="EC7" t="n">
-        <v>3.265867221102781e-08</v>
+        <v>3.219503656726186e-13</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.022298986048554e-07</v>
+        <v>5.520593704400056e-11</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.305291602056059e-08</v>
+        <v>4.500158926057374e-12</v>
       </c>
       <c r="EF7" t="n">
-        <v>9.268396183870209e-08</v>
+        <v>1.508891622759023e-11</v>
       </c>
       <c r="EG7" t="n">
-        <v>9.332806882866862e-08</v>
+        <v>2.922172920305499e-11</v>
       </c>
       <c r="EH7" t="n">
-        <v>3.168064921510449e-08</v>
+        <v>2.889711560316588e-11</v>
       </c>
       <c r="EI7" t="n">
-        <v>2.076941711948166e-07</v>
+        <v>2.859068537475196e-11</v>
       </c>
       <c r="EJ7" t="n">
-        <v>7.67130785561676e-08</v>
+        <v>1.76218848541021e-12</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.873622323955715e-07</v>
+        <v>4.140346399061912e-11</v>
       </c>
       <c r="EL7" t="n">
-        <v>7.717327576983735e-08</v>
+        <v>5.769482114281743e-12</v>
       </c>
       <c r="EM7" t="n">
-        <v>4.055129565472271e-08</v>
+        <v>1.542667382725682e-11</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.718146691587208e-08</v>
+        <v>1.325798325291228e-11</v>
       </c>
       <c r="EO7" t="n">
-        <v>4.051003088534344e-07</v>
+        <v>2.016347852573652e-11</v>
       </c>
       <c r="EP7" t="n">
-        <v>1.247910006441089e-07</v>
+        <v>1.392747115552817e-11</v>
       </c>
       <c r="EQ7" t="n">
-        <v>7.7628762085169e-08</v>
+        <v>2.120806134875419e-11</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.745921451856702e-08</v>
+        <v>5.644371081636734e-11</v>
       </c>
       <c r="ES7" t="n">
-        <v>2.552274054323789e-07</v>
+        <v>5.235180344786983e-12</v>
       </c>
       <c r="ET7" t="n">
-        <v>5.731090624294666e-08</v>
+        <v>1.296297791331114e-11</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.052944611501516e-07</v>
+        <v>1.941920799511387e-12</v>
       </c>
       <c r="EV7" t="n">
-        <v>5.413750869820433e-08</v>
+        <v>4.668223273218697e-13</v>
       </c>
       <c r="EW7" t="n">
-        <v>3.44605943780607e-08</v>
+        <v>1.890234496704224e-11</v>
       </c>
       <c r="EX7" t="n">
-        <v>5.093203725436979e-08</v>
+        <v>3.957427918352407e-13</v>
       </c>
       <c r="EY7" t="n">
-        <v>7.235293963958611e-08</v>
+        <v>1.812462853412189e-11</v>
       </c>
       <c r="EZ7" t="n">
-        <v>1.340969291163674e-08</v>
+        <v>3.046734739498014e-12</v>
       </c>
       <c r="FA7" t="n">
-        <v>9.46116713862466e-08</v>
+        <v>6.02087910778204e-12</v>
       </c>
       <c r="FB7" t="n">
-        <v>2.101729563719346e-07</v>
+        <v>1.601984170318538e-12</v>
       </c>
       <c r="FC7" t="n">
-        <v>3.884572308265888e-08</v>
+        <v>3.286325725437855e-11</v>
       </c>
       <c r="FD7" t="n">
-        <v>5.246071665965246e-08</v>
+        <v>2.936193996272429e-11</v>
       </c>
       <c r="FE7" t="n">
-        <v>8.431981335377259e-09</v>
+        <v>7.287057242344464e-12</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.808979632755836e-08</v>
+        <v>8.504242449136612e-12</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.091250254603437e-07</v>
+        <v>1.665415375051715e-11</v>
       </c>
       <c r="FH7" t="n">
-        <v>2.125534024344233e-07</v>
+        <v>2.061343630510581e-11</v>
       </c>
       <c r="FI7" t="n">
-        <v>5.139095193840149e-08</v>
+        <v>2.192310569193445e-11</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.680913470636369e-07</v>
+        <v>1.251839430727042e-11</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.101690543237055e-07</v>
+        <v>6.19170860416407e-12</v>
       </c>
       <c r="FL7" t="n">
-        <v>6.563895027511535e-08</v>
+        <v>2.686514205541002e-12</v>
       </c>
       <c r="FM7" t="n">
-        <v>3.115666658004557e-08</v>
+        <v>2.576182843438968e-11</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.009146473052169e-07</v>
+        <v>3.197654988018606e-11</v>
       </c>
       <c r="FO7" t="n">
-        <v>8.416105856667855e-08</v>
+        <v>5.272379408061134e-11</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.453047957511444e-07</v>
+        <v>3.418667432475431e-11</v>
       </c>
       <c r="FQ7" t="n">
-        <v>1.733227321665254e-07</v>
+        <v>9.303358083911917e-11</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.105171776316638e-07</v>
+        <v>2.754004489735618e-11</v>
       </c>
       <c r="FS7" t="n">
-        <v>6.299466122072772e-07</v>
+        <v>2.692911865720404e-12</v>
       </c>
       <c r="FT7" t="n">
-        <v>6.999172796895436e-08</v>
+        <v>9.211996616909079e-12</v>
       </c>
       <c r="FU7" t="n">
-        <v>5.663336111183526e-08</v>
+        <v>5.442434350411141e-11</v>
       </c>
       <c r="FV7" t="n">
-        <v>5.907443068053908e-08</v>
+        <v>1.069038607637296e-11</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.271052323976619e-07</v>
+        <v>4.062943731453217e-11</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.403650458087213e-07</v>
+        <v>2.18534045026697e-12</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.472467943131051e-07</v>
+        <v>5.257046100520801e-12</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.646822340717335e-07</v>
+        <v>4.14174736174111e-11</v>
       </c>
       <c r="GA7" t="n">
-        <v>5.822967352742126e-08</v>
+        <v>7.375762500760885e-11</v>
       </c>
       <c r="GB7" t="n">
-        <v>2.418334190679161e-07</v>
+        <v>1.265478173639867e-11</v>
       </c>
       <c r="GC7" t="n">
-        <v>2.93487801172887e-07</v>
+        <v>1.597630881755574e-12</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.746497702015404e-07</v>
+        <v>7.115291689174796e-11</v>
       </c>
       <c r="GE7" t="n">
-        <v>2.792493702941101e-08</v>
+        <v>3.606406839828935e-11</v>
       </c>
       <c r="GF7" t="n">
-        <v>6.193505441842717e-08</v>
+        <v>2.707257161504995e-12</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.170326413557632e-07</v>
+        <v>2.943988108849993e-11</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.878631779727584e-07</v>
+        <v>0.000720153795555234</v>
       </c>
       <c r="B9" t="n">
-        <v>1.238010554516222e-06</v>
+        <v>0.005967602599412203</v>
       </c>
       <c r="C9" t="n">
-        <v>7.771463970129844e-07</v>
+        <v>0.0006081163883209229</v>
       </c>
       <c r="D9" t="n">
-        <v>4.684799932874739e-06</v>
+        <v>0.003519285004585981</v>
       </c>
       <c r="E9" t="n">
-        <v>9.366271456201503e-07</v>
+        <v>0.001628219848498702</v>
       </c>
       <c r="F9" t="n">
-        <v>3.211911916878307e-06</v>
+        <v>0.001285450533032417</v>
       </c>
       <c r="G9" t="n">
-        <v>1.134973217631341e-06</v>
+        <v>0.0003666733100544661</v>
       </c>
       <c r="H9" t="n">
-        <v>8.744984825170832e-07</v>
+        <v>0.0005313010769896209</v>
       </c>
       <c r="I9" t="n">
-        <v>2.47067578129645e-06</v>
+        <v>0.001240972080267966</v>
       </c>
       <c r="J9" t="n">
-        <v>1.770413973645191e-06</v>
+        <v>0.001349479076452553</v>
       </c>
       <c r="K9" t="n">
-        <v>7.556959644716699e-07</v>
+        <v>0.004327191039919853</v>
       </c>
       <c r="L9" t="n">
-        <v>8.184728699234256e-07</v>
+        <v>0.0002392859023530036</v>
       </c>
       <c r="M9" t="n">
-        <v>3.51406174559088e-06</v>
+        <v>0.003461614949628711</v>
       </c>
       <c r="N9" t="n">
-        <v>3.528007027853164e-06</v>
+        <v>0.002088498789817095</v>
       </c>
       <c r="O9" t="n">
-        <v>4.556991086701601e-07</v>
+        <v>0.002389704110100865</v>
       </c>
       <c r="P9" t="n">
-        <v>7.049192163322004e-07</v>
+        <v>7.042393554002047e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.989171884517418e-07</v>
+        <v>0.00049680529627949</v>
       </c>
       <c r="R9" t="n">
-        <v>2.965853582281852e-06</v>
+        <v>0.001151526696048677</v>
       </c>
       <c r="S9" t="n">
-        <v>7.52726975861151e-07</v>
+        <v>0.0001468209957238287</v>
       </c>
       <c r="T9" t="n">
-        <v>1.010274672808009e-07</v>
+        <v>0.0004116158233955503</v>
       </c>
       <c r="U9" t="n">
-        <v>5.804214993077039e-07</v>
+        <v>0.000514355197083205</v>
       </c>
       <c r="V9" t="n">
-        <v>4.845433636546659e-07</v>
+        <v>0.001124684233218431</v>
       </c>
       <c r="W9" t="n">
-        <v>4.076876848557731e-06</v>
+        <v>0.001508126268163323</v>
       </c>
       <c r="X9" t="n">
-        <v>5.099603868075064e-07</v>
+        <v>0.0001184739812742919</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.564302571452572e-07</v>
+        <v>0.0006065370398573577</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.573593522152805e-08</v>
+        <v>0.0004070564173161983</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.22944912215462e-07</v>
+        <v>0.0006173498695716262</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.177662718684587e-07</v>
+        <v>0.0001228738983627409</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.726033348058991e-07</v>
+        <v>0.001148910610936582</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.430228260498552e-07</v>
+        <v>0.0002920901752077043</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.084100962449156e-07</v>
+        <v>0.0003979900502599776</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.223550043505384e-06</v>
+        <v>0.00083868985529989</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.137946355811437e-06</v>
+        <v>0.0007657885435037315</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.545140654954594e-07</v>
+        <v>0.0001573225454194471</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.952866620693385e-07</v>
+        <v>6.48000423097983e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.555353699397529e-07</v>
+        <v>0.0002317680045962334</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.57599366352224e-07</v>
+        <v>0.000425622914917767</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.162416189501528e-08</v>
+        <v>0.0005080216214992106</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.376268130570679e-07</v>
+        <v>4.979044751962647e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.217776000179583e-06</v>
+        <v>0.0001190997209050693</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.135929370680969e-08</v>
+        <v>0.001026339712552726</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.002126166189555e-06</v>
+        <v>0.0006984083447605371</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.115559921861859e-07</v>
+        <v>0.0001804803614504635</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.666951980425438e-08</v>
+        <v>7.973212632350624e-07</v>
       </c>
       <c r="AS9" t="n">
-        <v>8.120352958940202e-07</v>
+        <v>0.0005290284170769155</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.19640821039502e-07</v>
+        <v>7.898686453700066e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.194191210946883e-07</v>
+        <v>0.003430608427152038</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.735969246714376e-07</v>
+        <v>0.0001864808727987111</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.902940877902438e-06</v>
+        <v>0.001093371189199388</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.070797336273245e-06</v>
+        <v>0.0008305598166771233</v>
       </c>
       <c r="AY9" t="n">
-        <v>2.356216100452002e-06</v>
+        <v>0.0009484593756496906</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9.216856824423303e-07</v>
+        <v>0.0008565964526496828</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.347697548226279e-06</v>
+        <v>0.001130484626628458</v>
       </c>
       <c r="BB9" t="n">
-        <v>7.405874669075274e-08</v>
+        <v>0.000385980645660311</v>
       </c>
       <c r="BC9" t="n">
-        <v>9.98374503069499e-07</v>
+        <v>7.891870336607099e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.617953888759075e-07</v>
+        <v>0.001578572555445135</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.358111944682605e-06</v>
+        <v>0.001262985751964152</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.346413566556294e-06</v>
+        <v>0.0009167036623694003</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.420656965630769e-07</v>
+        <v>0.001088062068447471</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.052992608194472e-08</v>
+        <v>0.0007163440459407866</v>
       </c>
       <c r="BI9" t="n">
-        <v>5.27146482909302e-07</v>
+        <v>0.0006913439137861133</v>
       </c>
       <c r="BJ9" t="n">
-        <v>3.022823946707831e-08</v>
+        <v>0.0005354387685656548</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.609895321053045e-06</v>
+        <v>0.0008654756820760667</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.627811116122757e-06</v>
+        <v>0.0002980479039251804</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.422612285750802e-07</v>
+        <v>0.0006080040475353599</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.648885472604888e-07</v>
+        <v>0.0005106953904032707</v>
       </c>
       <c r="BO9" t="n">
-        <v>5.804970442113699e-07</v>
+        <v>9.569391841068864e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.270212331102812e-07</v>
+        <v>0.0007599319214932621</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.61227484088522e-08</v>
+        <v>0.0005202039028517902</v>
       </c>
       <c r="BR9" t="n">
-        <v>4.945306386616721e-07</v>
+        <v>0.000150223495438695</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.241774836875265e-07</v>
+        <v>0.0003210061113350093</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.259827854482864e-06</v>
+        <v>0.0002286470698891208</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.170777406718116e-07</v>
+        <v>2.139361458830535e-05</v>
       </c>
       <c r="BV9" t="n">
-        <v>5.66646924937686e-08</v>
+        <v>0.001761959749273956</v>
       </c>
       <c r="BW9" t="n">
-        <v>3.099625018876395e-07</v>
+        <v>0.000449038838269189</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.352852672833251e-06</v>
+        <v>0.001096414518542588</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.47522683846546e-07</v>
+        <v>0.0006147519452497363</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.564156264066696e-06</v>
+        <v>5.763491935795173e-05</v>
       </c>
       <c r="CA9" t="n">
-        <v>7.03053899542283e-07</v>
+        <v>0.0003223344101570547</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.2029086582952e-07</v>
+        <v>0.0007957089110277593</v>
       </c>
       <c r="CC9" t="n">
-        <v>2.322417458344717e-06</v>
+        <v>0.0007142072427086532</v>
       </c>
       <c r="CD9" t="n">
-        <v>8.682500265422277e-07</v>
+        <v>0.0001333238324150443</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.367226580370698e-08</v>
+        <v>0.001023966236971319</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.378015828696789e-08</v>
+        <v>0.0003892853565048426</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.345006239716895e-06</v>
+        <v>0.0004038851766381413</v>
       </c>
       <c r="CH9" t="n">
-        <v>6.680812134618463e-07</v>
+        <v>0.0001523377723060548</v>
       </c>
       <c r="CI9" t="n">
-        <v>5.660935471496487e-07</v>
+        <v>0.0002247800584882498</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.121143580779972e-07</v>
+        <v>0.0001133278201450594</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.9836524946586e-07</v>
+        <v>6.761711119906977e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.886265152961641e-07</v>
+        <v>8.250848622992635e-06</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.177201340851752e-07</v>
+        <v>0.0007134558400139213</v>
       </c>
       <c r="CN9" t="n">
-        <v>4.896157292932912e-07</v>
+        <v>0.0001832290145102888</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.765322537039538e-07</v>
+        <v>0.0004768571525346488</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.122252564935479e-06</v>
+        <v>0.0004402694758027792</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.18916840771999e-07</v>
+        <v>0.0001259816926904023</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.701593532743573e-06</v>
+        <v>6.02900399826467e-05</v>
       </c>
       <c r="CS9" t="n">
-        <v>9.174601700578933e-08</v>
+        <v>0.0008573734667152166</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.3792047443294e-07</v>
+        <v>0.001074027852155268</v>
       </c>
       <c r="CU9" t="n">
-        <v>8.459826972284645e-07</v>
+        <v>1.617521047592163e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>9.766253015186521e-07</v>
+        <v>0.0001397885498590767</v>
       </c>
       <c r="CW9" t="n">
-        <v>2.600846187306161e-07</v>
+        <v>0.0008430577581748366</v>
       </c>
       <c r="CX9" t="n">
-        <v>5.236152489374035e-08</v>
+        <v>0.000493786355946213</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.248595481229131e-06</v>
+        <v>0.0005277452291920781</v>
       </c>
       <c r="CZ9" t="n">
-        <v>8.805992024463194e-07</v>
+        <v>0.0001640947884880006</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.762379267551296e-07</v>
+        <v>0.0001410793192917481</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.237632858419602e-07</v>
+        <v>0.0001440020569134504</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.612702918573632e-07</v>
+        <v>0.0001069629652192816</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.967313778550306e-07</v>
+        <v>5.586229963228106e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.437132937098795e-06</v>
+        <v>0.0006803485448472202</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.287887471335125e-06</v>
+        <v>0.000391695648431778</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.340421590612095e-06</v>
+        <v>0.0006193696171976626</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.643237283133203e-06</v>
+        <v>0.002400002209469676</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.155046106759983e-06</v>
+        <v>0.001530177658423781</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.481827439420158e-06</v>
+        <v>0.0003661207447294146</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.31018168758601e-06</v>
+        <v>0.0004695452516898513</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.920948190876516e-06</v>
+        <v>0.0007322327001020312</v>
       </c>
       <c r="DM9" t="n">
-        <v>4.476937647268642e-07</v>
+        <v>0.0001234073715750128</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.848933888799365e-07</v>
+        <v>0.0004426580562721938</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.693756303211558e-06</v>
+        <v>0.0005142081645317376</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.010356148218762e-08</v>
+        <v>0.0004983214312233031</v>
       </c>
       <c r="DQ9" t="n">
-        <v>8.510775160175399e-07</v>
+        <v>0.0003468527283985168</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.963239810720552e-06</v>
+        <v>0.0003866208135150373</v>
       </c>
       <c r="DS9" t="n">
-        <v>5.88016121128021e-07</v>
+        <v>0.0004535752232186496</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.846240813094482e-07</v>
+        <v>0.0002602988388389349</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.741573896651971e-06</v>
+        <v>4.588951560435817e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>3.895081022164959e-07</v>
+        <v>0.0004316422273404896</v>
       </c>
       <c r="DW9" t="n">
-        <v>4.713839274472775e-08</v>
+        <v>0.0001250653876923025</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.099170845009212e-06</v>
+        <v>0.0001252419460797682</v>
       </c>
       <c r="DY9" t="n">
-        <v>5.291216211844585e-07</v>
+        <v>0.0005246478831395507</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.176248815681902e-06</v>
+        <v>0.0001136041537392884</v>
       </c>
       <c r="EA9" t="n">
-        <v>8.036986400838941e-07</v>
+        <v>3.689847653731704e-05</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.585366817380418e-06</v>
+        <v>3.226832632208243e-06</v>
       </c>
       <c r="EC9" t="n">
-        <v>3.407406836686278e-07</v>
+        <v>0.0001674677769187838</v>
       </c>
       <c r="ED9" t="n">
-        <v>6.485571475423058e-07</v>
+        <v>0.0004672522481996566</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.087057512449974e-06</v>
+        <v>6.755047797923908e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>5.85527459406876e-07</v>
+        <v>7.475299207726493e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.263441049559333e-07</v>
+        <v>0.0006945519708096981</v>
       </c>
       <c r="EH9" t="n">
-        <v>5.119230763739324e-07</v>
+        <v>0.0001743049506330863</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.106993295252323e-06</v>
+        <v>0.0002828636497724801</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.334931110681282e-07</v>
+        <v>0.0005202096072025597</v>
       </c>
       <c r="EK9" t="n">
-        <v>4.912731697004347e-07</v>
+        <v>5.24500101164449e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>9.884470273391344e-07</v>
+        <v>0.0001771906681824476</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.782129513434484e-07</v>
+        <v>1.862375938799232e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>3.978021538841858e-07</v>
+        <v>2.348454290768132e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.639733454794623e-06</v>
+        <v>0.0003079655580222607</v>
       </c>
       <c r="EP9" t="n">
-        <v>7.576168172818143e-07</v>
+        <v>0.0006996202282607555</v>
       </c>
       <c r="EQ9" t="n">
-        <v>7.254271849888028e-08</v>
+        <v>0.0002991393557749689</v>
       </c>
       <c r="ER9" t="n">
-        <v>7.835920996512868e-07</v>
+        <v>0.0004446767561603338</v>
       </c>
       <c r="ES9" t="n">
-        <v>7.37137838768831e-07</v>
+        <v>8.128178888000548e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>5.918990950704028e-07</v>
+        <v>0.00113807967863977</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.215450424751907e-07</v>
+        <v>0.0005837329663336277</v>
       </c>
       <c r="EV9" t="n">
-        <v>7.890788822351169e-08</v>
+        <v>0.0006984682404436171</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.497569712682889e-07</v>
+        <v>5.166017217561603e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>7.98944313373795e-07</v>
+        <v>4.824158531846479e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>4.744553905311477e-08</v>
+        <v>0.0007860242039896548</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.043408843770521e-07</v>
+        <v>0.0002766039106063545</v>
       </c>
       <c r="FA9" t="n">
-        <v>7.920874622868723e-07</v>
+        <v>0.0005200305604375899</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.08776623619633e-06</v>
+        <v>0.0002141291624866426</v>
       </c>
       <c r="FC9" t="n">
-        <v>4.186878470591182e-07</v>
+        <v>0.0003146051894873381</v>
       </c>
       <c r="FD9" t="n">
-        <v>2.762809003797884e-07</v>
+        <v>0.0002216182474512607</v>
       </c>
       <c r="FE9" t="n">
-        <v>4.330216256676067e-07</v>
+        <v>0.000136611022753641</v>
       </c>
       <c r="FF9" t="n">
-        <v>5.389998136706708e-07</v>
+        <v>0.0001918934722198173</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.853463965697301e-07</v>
+        <v>0.0001346517383353785</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.400654182110884e-07</v>
+        <v>0.0001613219355931506</v>
       </c>
       <c r="FI9" t="n">
-        <v>6.001802717037208e-07</v>
+        <v>0.0001388563687214628</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.383002086186025e-07</v>
+        <v>0.0002695866860449314</v>
       </c>
       <c r="FK9" t="n">
-        <v>8.303920822072541e-07</v>
+        <v>0.0002949594345409423</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.367468144053419e-06</v>
+        <v>6.971507536945865e-05</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.516045066793595e-07</v>
+        <v>4.304325557313859e-06</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.260289877791365e-06</v>
+        <v>0.0001912268053274602</v>
       </c>
       <c r="FO9" t="n">
-        <v>6.401083396667673e-08</v>
+        <v>0.0001727698690956458</v>
       </c>
       <c r="FP9" t="n">
-        <v>3.670493526897189e-07</v>
+        <v>0.0008409761940129101</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.917295691100662e-07</v>
+        <v>0.0002025901630986482</v>
       </c>
       <c r="FR9" t="n">
-        <v>7.938798489703913e-07</v>
+        <v>0.0004486346733756363</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.673549604674918e-06</v>
+        <v>0.0002481775300111622</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.690333078840922e-06</v>
+        <v>0.0002149187203031033</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.854282451560721e-07</v>
+        <v>6.163394573377445e-05</v>
       </c>
       <c r="FV9" t="n">
-        <v>3.037757778656669e-08</v>
+        <v>0.0004221955314278603</v>
       </c>
       <c r="FW9" t="n">
-        <v>9.913161420627148e-07</v>
+        <v>7.757919956929982e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>5.52428161881835e-07</v>
+        <v>0.0001450665877200663</v>
       </c>
       <c r="FY9" t="n">
-        <v>7.441891511916765e-07</v>
+        <v>0.0005478187813423574</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.581258572969091e-07</v>
+        <v>0.0002147386112483218</v>
       </c>
       <c r="GA9" t="n">
-        <v>8.300062859234458e-08</v>
+        <v>0.0003806080785579979</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.338780973332177e-07</v>
+        <v>0.0001000713746179827</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.934704212975703e-08</v>
+        <v>0.0002564387395977974</v>
       </c>
       <c r="GD9" t="n">
-        <v>4.153082215907489e-07</v>
+        <v>0.0004258131375536323</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.095369152106286e-07</v>
+        <v>0.001405735034495592</v>
       </c>
       <c r="GF9" t="n">
-        <v>3.294317991731077e-07</v>
+        <v>0.0003728396259248257</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.703357725091337e-06</v>
+        <v>0.0002630202216096222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.960256774211302e-07</v>
+        <v>0.001992031466215849</v>
       </c>
       <c r="B10" t="n">
-        <v>1.24991186112311e-06</v>
+        <v>0.02910743467509747</v>
       </c>
       <c r="C10" t="n">
-        <v>4.165659106547537e-07</v>
+        <v>0.00438915379345417</v>
       </c>
       <c r="D10" t="n">
-        <v>1.40145812110859e-06</v>
+        <v>0.01366453804075718</v>
       </c>
       <c r="E10" t="n">
-        <v>3.729238073901797e-07</v>
+        <v>0.003885743673890829</v>
       </c>
       <c r="F10" t="n">
-        <v>4.436409426489263e-07</v>
+        <v>0.01260694861412048</v>
       </c>
       <c r="G10" t="n">
-        <v>2.428302536827687e-08</v>
+        <v>0.001200519385747612</v>
       </c>
       <c r="H10" t="n">
-        <v>2.532194969262491e-07</v>
+        <v>0.0002100105339195579</v>
       </c>
       <c r="I10" t="n">
-        <v>4.849209744861582e-07</v>
+        <v>0.0003763956483453512</v>
       </c>
       <c r="J10" t="n">
-        <v>1.816564321188707e-07</v>
+        <v>0.002112552989274263</v>
       </c>
       <c r="K10" t="n">
-        <v>8.393353141400439e-07</v>
+        <v>0.01222636271268129</v>
       </c>
       <c r="L10" t="n">
-        <v>5.525392907657078e-07</v>
+        <v>0.008404625579714775</v>
       </c>
       <c r="M10" t="n">
-        <v>1.714162181087886e-06</v>
+        <v>0.02545670978724957</v>
       </c>
       <c r="N10" t="n">
-        <v>7.234245913423365e-07</v>
+        <v>0.01502394955605268</v>
       </c>
       <c r="O10" t="n">
-        <v>5.024406846132479e-07</v>
+        <v>0.01832805946469307</v>
       </c>
       <c r="P10" t="n">
-        <v>6.439559285809082e-08</v>
+        <v>0.003855411894619465</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93301218587294e-07</v>
+        <v>0.001381043344736099</v>
       </c>
       <c r="R10" t="n">
-        <v>5.866795618203469e-07</v>
+        <v>0.002987319603562355</v>
       </c>
       <c r="S10" t="n">
-        <v>4.989712465430785e-07</v>
+        <v>0.00149411940947175</v>
       </c>
       <c r="T10" t="n">
-        <v>9.06560160274239e-09</v>
+        <v>0.005053594708442688</v>
       </c>
       <c r="U10" t="n">
-        <v>7.617509112378684e-08</v>
+        <v>0.006866209208965302</v>
       </c>
       <c r="V10" t="n">
-        <v>6.477115732650418e-09</v>
+        <v>0.006744084414094687</v>
       </c>
       <c r="W10" t="n">
-        <v>9.255986128664517e-07</v>
+        <v>0.005921815522015095</v>
       </c>
       <c r="X10" t="n">
-        <v>8.793580974497672e-08</v>
+        <v>0.006736921612173319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.268505513962737e-07</v>
+        <v>0.002430144464597106</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.325593584373564e-08</v>
+        <v>0.002626699628308415</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.112162971774524e-08</v>
+        <v>0.00292715011164546</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.597092247924593e-07</v>
+        <v>0.003655892796814442</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.899101900766254e-07</v>
+        <v>0.002012253040447831</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.778464190418163e-07</v>
+        <v>0.0003939988673664629</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.812885663341149e-07</v>
+        <v>0.006585525348782539</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.367355578935531e-07</v>
+        <v>0.00117994996253401</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.558790689974558e-07</v>
+        <v>0.001411315519362688</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.12259759943845e-07</v>
+        <v>0.0002481164410710335</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.787685898259952e-08</v>
+        <v>0.001934007974341512</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.538302781995299e-08</v>
+        <v>0.0001216596574522555</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.291199631888958e-08</v>
+        <v>0.004899816587567329</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.25699828510551e-08</v>
+        <v>0.0007761388551443815</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.84026674787674e-07</v>
+        <v>0.004368934314697981</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.023889689757198e-07</v>
+        <v>0.004958355333656073</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.865710844294881e-08</v>
+        <v>0.005423039197921753</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.863516274624999e-07</v>
+        <v>0.004784338641911745</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.165912390722951e-09</v>
+        <v>0.001381781650707126</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.025664673193205e-07</v>
+        <v>0.001462827436625957</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.045275794808731e-07</v>
+        <v>0.0004077846533618867</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.181844761002139e-07</v>
+        <v>0.0001084749892470427</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.561175958566309e-07</v>
+        <v>0.02982348762452602</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.003520537778968e-07</v>
+        <v>0.01114013604819775</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.60838567353494e-07</v>
+        <v>0.0009163813083432615</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.121367543850283e-07</v>
+        <v>0.01284377463161945</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.658895361193572e-07</v>
+        <v>0.006536275614053011</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4.52106803550123e-07</v>
+        <v>0.003068318124860525</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.532342537302611e-07</v>
+        <v>0.0056079369969666</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.224366030783131e-07</v>
+        <v>0.004068076144903898</v>
       </c>
       <c r="BC10" t="n">
-        <v>8.298795961536598e-08</v>
+        <v>0.004852218087762594</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.826697880209394e-07</v>
+        <v>0.00235804496333003</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.311882489422715e-08</v>
+        <v>0.005379712209105492</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.005870899462025e-06</v>
+        <v>0.00650096544995904</v>
       </c>
       <c r="BG10" t="n">
-        <v>8.848209063216927e-07</v>
+        <v>0.01073310896754265</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.950125607663722e-07</v>
+        <v>0.0125017873942852</v>
       </c>
       <c r="BI10" t="n">
-        <v>5.156731504030176e-07</v>
+        <v>0.004849746357649565</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.043073431603261e-07</v>
+        <v>1.294538378715515e-06</v>
       </c>
       <c r="BK10" t="n">
-        <v>4.548287506622728e-07</v>
+        <v>0.0009689130820333958</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.179640918280711e-08</v>
+        <v>0.01118450425565243</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.900065621564863e-07</v>
+        <v>0.007908341474831104</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.547351840576084e-08</v>
+        <v>0.000893077056389302</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.059369705875724e-07</v>
+        <v>0.008817269466817379</v>
       </c>
       <c r="BP10" t="n">
-        <v>5.588412932411302e-07</v>
+        <v>0.01269435603171587</v>
       </c>
       <c r="BQ10" t="n">
-        <v>5.023376914436994e-08</v>
+        <v>0.001398043124936521</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.934314125013771e-08</v>
+        <v>0.001301726792007685</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.174481383259263e-07</v>
+        <v>0.00394404074177146</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.564529412689808e-07</v>
+        <v>0.003238663310185075</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.462879535869433e-07</v>
+        <v>0.001327684614807367</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.940765770314101e-07</v>
+        <v>0.01508849207311869</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.289275530780287e-07</v>
+        <v>0.006964758038520813</v>
       </c>
       <c r="BX10" t="n">
-        <v>7.601842639815004e-07</v>
+        <v>0.00109746481757611</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.078543760968387e-07</v>
+        <v>0.004018350038677454</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.268190743530795e-07</v>
+        <v>0.01277175080031157</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.072448950229955e-07</v>
+        <v>0.001372813363559544</v>
       </c>
       <c r="CB10" t="n">
-        <v>8.092030157058616e-09</v>
+        <v>0.003980413544923067</v>
       </c>
       <c r="CC10" t="n">
-        <v>4.241909437041613e-07</v>
+        <v>0.004833958111703396</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.278806678328692e-07</v>
+        <v>0.002239796100184321</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.884921800865413e-07</v>
+        <v>0.004294165875762701</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.646550913392275e-07</v>
+        <v>0.0008602266316302121</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.465846762333967e-07</v>
+        <v>0.00136234296951443</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.963314986141995e-07</v>
+        <v>0.002156897913664579</v>
       </c>
       <c r="CI10" t="n">
-        <v>7.442083216346873e-08</v>
+        <v>0.002947729313746095</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.077702607854008e-08</v>
+        <v>0.001958217937499285</v>
       </c>
       <c r="CK10" t="n">
-        <v>6.661720419742778e-08</v>
+        <v>9.17186844162643e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.303485674952753e-07</v>
+        <v>0.00190925772767514</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.494392958851677e-07</v>
+        <v>0.004630417097359896</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.661309963514213e-07</v>
+        <v>0.006297130137681961</v>
       </c>
       <c r="CO10" t="n">
-        <v>2.312108193791573e-07</v>
+        <v>0.006857686676084995</v>
       </c>
       <c r="CP10" t="n">
-        <v>6.197520860951045e-07</v>
+        <v>0.003471959847956896</v>
       </c>
       <c r="CQ10" t="n">
-        <v>6.887066206218151e-07</v>
+        <v>0.003482752945274115</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.943872061678121e-07</v>
+        <v>0.009609379805624485</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.397916520318176e-07</v>
+        <v>0.0002936772652901709</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.630234459706116e-07</v>
+        <v>0.0007358378497883677</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.898667048611969e-07</v>
+        <v>0.001501044491305947</v>
       </c>
       <c r="CV10" t="n">
-        <v>9.654553423388279e-08</v>
+        <v>0.00229521794244647</v>
       </c>
       <c r="CW10" t="n">
-        <v>3.212460342183476e-07</v>
+        <v>0.003022783435881138</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.260233517541565e-07</v>
+        <v>0.0002408449072390795</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.041828679466562e-07</v>
+        <v>0.002871170174330473</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.624480034934095e-07</v>
+        <v>0.001767715904861689</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.60314256606398e-08</v>
+        <v>0.004066659137606621</v>
       </c>
       <c r="DB10" t="n">
-        <v>7.310750049782655e-08</v>
+        <v>0.001070242607966065</v>
       </c>
       <c r="DC10" t="n">
-        <v>6.497586468867667e-09</v>
+        <v>0.000134092231746763</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.651335423957789e-07</v>
+        <v>0.001992057776078582</v>
       </c>
       <c r="DE10" t="n">
-        <v>4.538457574199128e-07</v>
+        <v>0.001688028918579221</v>
       </c>
       <c r="DF10" t="n">
-        <v>5.120005539538397e-07</v>
+        <v>0.001803456107154489</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.58206546529982e-07</v>
+        <v>0.001869479543529451</v>
       </c>
       <c r="DH10" t="n">
-        <v>3.994976225385471e-07</v>
+        <v>0.003336417721584439</v>
       </c>
       <c r="DI10" t="n">
-        <v>5.037956043452141e-07</v>
+        <v>0.005171297118067741</v>
       </c>
       <c r="DJ10" t="n">
-        <v>5.688344231202791e-07</v>
+        <v>0.0003540424513630569</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.378199835424311e-07</v>
+        <v>0.003898811293765903</v>
       </c>
       <c r="DL10" t="n">
-        <v>8.36137644455448e-07</v>
+        <v>0.003882561810314655</v>
       </c>
       <c r="DM10" t="n">
-        <v>3.095109946116281e-07</v>
+        <v>0.000172249972820282</v>
       </c>
       <c r="DN10" t="n">
-        <v>4.065164205258043e-09</v>
+        <v>0.009238787926733494</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.598754917926271e-07</v>
+        <v>0.002084168139845133</v>
       </c>
       <c r="DP10" t="n">
-        <v>7.53378941453775e-08</v>
+        <v>0.003888152772560716</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.801497345217285e-08</v>
+        <v>0.00273997476324439</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.887783298570866e-07</v>
+        <v>0.003082477953284979</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.652149078130606e-07</v>
+        <v>0.00815208163112402</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.235850390912674e-07</v>
+        <v>0.003234637202695012</v>
       </c>
       <c r="DU10" t="n">
-        <v>8.418686192612768e-09</v>
+        <v>0.003575927345082164</v>
       </c>
       <c r="DV10" t="n">
-        <v>3.895982558788091e-08</v>
+        <v>0.002504867734387517</v>
       </c>
       <c r="DW10" t="n">
-        <v>3.277077453844868e-08</v>
+        <v>0.002169675659388304</v>
       </c>
       <c r="DX10" t="n">
-        <v>2.151463149857591e-07</v>
+        <v>0.004069625865668058</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.049968017558967e-08</v>
+        <v>0.007905174046754837</v>
       </c>
       <c r="DZ10" t="n">
-        <v>3.380074247161247e-07</v>
+        <v>0.002715876558795571</v>
       </c>
       <c r="EA10" t="n">
-        <v>3.911702322056954e-07</v>
+        <v>0.003479269100353122</v>
       </c>
       <c r="EB10" t="n">
-        <v>3.305426048427762e-07</v>
+        <v>0.003021880984306335</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.355786545484079e-08</v>
+        <v>0.001957162516191602</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.052877820484355e-07</v>
+        <v>0.002124236896634102</v>
       </c>
       <c r="EE10" t="n">
-        <v>2.033455075434176e-07</v>
+        <v>0.005094774998724461</v>
       </c>
       <c r="EF10" t="n">
-        <v>3.389960312460971e-08</v>
+        <v>0.002020783256739378</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.318255098998634e-07</v>
+        <v>0.002228942234069109</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.49208290167735e-07</v>
+        <v>0.003604991361498833</v>
       </c>
       <c r="EI10" t="n">
-        <v>5.323025789039093e-07</v>
+        <v>0.0007208880269899964</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.120944403965041e-08</v>
+        <v>0.0003067301586270332</v>
       </c>
       <c r="EK10" t="n">
-        <v>6.80716354395372e-08</v>
+        <v>0.001245163031853735</v>
       </c>
       <c r="EL10" t="n">
-        <v>6.70135733571442e-08</v>
+        <v>0.002883517649024725</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.136227822939873e-07</v>
+        <v>0.001880485331639647</v>
       </c>
       <c r="EN10" t="n">
-        <v>4.096206680515024e-07</v>
+        <v>0.003239486133679748</v>
       </c>
       <c r="EO10" t="n">
-        <v>3.134302417606705e-08</v>
+        <v>0.00401024054735899</v>
       </c>
       <c r="EP10" t="n">
-        <v>3.594051918298646e-07</v>
+        <v>0.005687786731868982</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.151592184418405e-07</v>
+        <v>0.006280234083533287</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.120783821306759e-08</v>
+        <v>0.004698367323726416</v>
       </c>
       <c r="ES10" t="n">
-        <v>2.002282570856551e-07</v>
+        <v>0.005336232949048281</v>
       </c>
       <c r="ET10" t="n">
-        <v>2.448167322199879e-07</v>
+        <v>0.01433302648365498</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.024206497390878e-09</v>
+        <v>0.001118237618356943</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.20601521050412e-07</v>
+        <v>0.006319453008472919</v>
       </c>
       <c r="EW10" t="n">
-        <v>8.14588787534376e-08</v>
+        <v>0.003578354138880968</v>
       </c>
       <c r="EX10" t="n">
-        <v>8.277103802356578e-08</v>
+        <v>0.002229838632047176</v>
       </c>
       <c r="EY10" t="n">
-        <v>2.554115781094879e-07</v>
+        <v>0.003184443339705467</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.369742363976911e-07</v>
+        <v>0.0004518387140706182</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.854078703900086e-07</v>
+        <v>0.001406087772920728</v>
       </c>
       <c r="FB10" t="n">
-        <v>2.594163959201978e-07</v>
+        <v>0.0008836593478918076</v>
       </c>
       <c r="FC10" t="n">
-        <v>7.03651181765963e-08</v>
+        <v>0.004741175100207329</v>
       </c>
       <c r="FD10" t="n">
-        <v>4.250377827474949e-08</v>
+        <v>0.0006657963385805488</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.4460951304236e-08</v>
+        <v>0.001235917909070849</v>
       </c>
       <c r="FF10" t="n">
-        <v>2.265986864813385e-08</v>
+        <v>0.003091038204729557</v>
       </c>
       <c r="FG10" t="n">
-        <v>3.919747086911229e-07</v>
+        <v>0.001767744077369571</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.775298983375251e-07</v>
+        <v>0.0008866094285622239</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.049570409530133e-07</v>
+        <v>0.003417149418964982</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.423384219378931e-07</v>
+        <v>0.0003423350281082094</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.240764362364644e-07</v>
+        <v>0.001307948492467403</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.518267763207405e-07</v>
+        <v>0.002857031300663948</v>
       </c>
       <c r="FM10" t="n">
-        <v>3.19560911066219e-07</v>
+        <v>0.0001615820219740272</v>
       </c>
       <c r="FN10" t="n">
-        <v>2.046051434945184e-07</v>
+        <v>0.002582551445811987</v>
       </c>
       <c r="FO10" t="n">
-        <v>5.475241096064565e-07</v>
+        <v>0.001911950763314962</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.180136166567536e-07</v>
+        <v>0.004908388946205378</v>
       </c>
       <c r="FQ10" t="n">
-        <v>4.211109683183167e-08</v>
+        <v>0.01953811943531036</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.032629199926305e-07</v>
+        <v>0.01150115113705397</v>
       </c>
       <c r="FS10" t="n">
-        <v>4.119975756111671e-07</v>
+        <v>0.00767588010057807</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.405120286790407e-07</v>
+        <v>0.02326302602887154</v>
       </c>
       <c r="FU10" t="n">
-        <v>5.733868988500035e-07</v>
+        <v>0.003168832510709763</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.207593243179872e-07</v>
+        <v>0.00146413326729089</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.200418182634166e-07</v>
+        <v>0.00143547379411757</v>
       </c>
       <c r="FX10" t="n">
-        <v>6.37188918517495e-07</v>
+        <v>0.0005625935737043619</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.771338358797948e-08</v>
+        <v>0.0003960371541325003</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2.784877040085121e-08</v>
+        <v>0.007449793629348278</v>
       </c>
       <c r="GA10" t="n">
-        <v>2.888190522298828e-07</v>
+        <v>0.004022168461233377</v>
       </c>
       <c r="GB10" t="n">
-        <v>4.252806036220136e-07</v>
+        <v>0.002085913438349962</v>
       </c>
       <c r="GC10" t="n">
-        <v>8.092476946330862e-07</v>
+        <v>0.01165261771529913</v>
       </c>
       <c r="GD10" t="n">
-        <v>4.227513983323661e-08</v>
+        <v>0.002454246859997511</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.124148241160583e-08</v>
+        <v>0.0001760537852533162</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.866912609533756e-07</v>
+        <v>0.00174212281126529</v>
       </c>
       <c r="GG10" t="n">
-        <v>3.959682999266079e-07</v>
+        <v>0.002668054774403572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.890924908656057e-12</v>
+        <v>7.878166798036546e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>2.174738340798843e-11</v>
+        <v>0.001805145293474197</v>
       </c>
       <c r="C11" t="n">
-        <v>1.292714719991483e-11</v>
+        <v>0.0001945844123838469</v>
       </c>
       <c r="D11" t="n">
-        <v>8.929494296761042e-12</v>
+        <v>0.000671743880957365</v>
       </c>
       <c r="E11" t="n">
-        <v>6.913727403079495e-13</v>
+        <v>0.001753499731421471</v>
       </c>
       <c r="F11" t="n">
-        <v>1.931111694164489e-11</v>
+        <v>0.001150388037785888</v>
       </c>
       <c r="G11" t="n">
-        <v>6.006731570473711e-13</v>
+        <v>0.0004329930525273085</v>
       </c>
       <c r="H11" t="n">
-        <v>1.882303687916753e-11</v>
+        <v>0.0005294604343362153</v>
       </c>
       <c r="I11" t="n">
-        <v>2.040977629957919e-11</v>
+        <v>0.0002557558764237911</v>
       </c>
       <c r="J11" t="n">
-        <v>5.79967887950894e-12</v>
+        <v>0.0001874669105745852</v>
       </c>
       <c r="K11" t="n">
-        <v>2.86391205889247e-11</v>
+        <v>0.0009690099395811558</v>
       </c>
       <c r="L11" t="n">
-        <v>3.322576588860038e-12</v>
+        <v>0.000120192657050211</v>
       </c>
       <c r="M11" t="n">
-        <v>5.729732660553211e-12</v>
+        <v>0.0008201501332223415</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3353316636342e-11</v>
+        <v>0.002398792421445251</v>
       </c>
       <c r="O11" t="n">
-        <v>2.253830802545487e-13</v>
+        <v>0.001567579107359052</v>
       </c>
       <c r="P11" t="n">
-        <v>5.492332717099702e-12</v>
+        <v>0.0003784652217291296</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.968370688138933e-11</v>
+        <v>0.0007064576493576169</v>
       </c>
       <c r="R11" t="n">
-        <v>1.020643465576843e-11</v>
+        <v>0.0001883750228444114</v>
       </c>
       <c r="S11" t="n">
-        <v>1.236152673278479e-12</v>
+        <v>5.349614730221219e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>5.188826798785406e-12</v>
+        <v>0.0005866239662282169</v>
       </c>
       <c r="U11" t="n">
-        <v>1.120027334766682e-11</v>
+        <v>7.553651084890589e-05</v>
       </c>
       <c r="V11" t="n">
-        <v>6.238076027953454e-12</v>
+        <v>8.351907308679074e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.336415262649272e-11</v>
+        <v>0.000285644899122417</v>
       </c>
       <c r="X11" t="n">
-        <v>3.784803633694045e-12</v>
+        <v>0.0007855066796764731</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.012400650789006e-12</v>
+        <v>0.0003164318040944636</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.061464631468834e-11</v>
+        <v>5.314100417308509e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.165902857735439e-12</v>
+        <v>0.00014441717939917</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.509801181645565e-12</v>
+        <v>5.263503408059478e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.581383867389825e-12</v>
+        <v>0.0005139902932569385</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.032508689969186e-12</v>
+        <v>3.333490167278796e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.253933147234767e-12</v>
+        <v>0.0007072151638567448</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.17406266600495e-11</v>
+        <v>0.0004851168778259307</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.496202889170409e-12</v>
+        <v>0.000662748992908746</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.740801915070207e-12</v>
+        <v>0.0001993559417314827</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.647263043139338e-12</v>
+        <v>4.164921119809151e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.130339291754439e-13</v>
+        <v>0.0005343067459762096</v>
       </c>
       <c r="AK11" t="n">
-        <v>6.35384540120798e-12</v>
+        <v>0.0002879611274693161</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.855515709089602e-12</v>
+        <v>7.818992889951915e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.957895643169618e-12</v>
+        <v>4.09805761591997e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.044283145541392e-11</v>
+        <v>8.239203452831134e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.688632740581841e-12</v>
+        <v>0.0003725019341800362</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.188102126044923e-12</v>
+        <v>0.0001525210245745257</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.649107054194301e-12</v>
+        <v>0.0002517020329833031</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.557470073731195e-12</v>
+        <v>2.867475268431008e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.173062077504007e-13</v>
+        <v>0.0003008053754456341</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.578037700511459e-11</v>
+        <v>0.0007893992005847394</v>
       </c>
       <c r="AU11" t="n">
-        <v>4.050761115426127e-11</v>
+        <v>0.00227368320338428</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.007037741175616e-12</v>
+        <v>0.0001356014981865883</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.415860914095624e-11</v>
+        <v>0.0004555420018732548</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.907136163743385e-11</v>
+        <v>0.0003564134531188756</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.26875358777523e-11</v>
+        <v>0.000871170952450484</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.081946511549692e-11</v>
+        <v>6.361769919749349e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.889142271435662e-12</v>
+        <v>0.0008449852466583252</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.148476188623683e-11</v>
+        <v>4.203792195767164e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.12464768001297e-12</v>
+        <v>0.0002489075413905084</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.504641881204364e-13</v>
+        <v>9.70207474892959e-06</v>
       </c>
       <c r="BE11" t="n">
-        <v>6.980813063023339e-12</v>
+        <v>0.0006675744662061334</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.465720773918822e-12</v>
+        <v>0.0002388344146311283</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.442695875958355e-11</v>
+        <v>0.002292382065206766</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.91017063277954e-11</v>
+        <v>0.0009852191433310509</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.524412714115631e-11</v>
+        <v>0.0001309954677708447</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.541047229743688e-12</v>
+        <v>0.001109138829633594</v>
       </c>
       <c r="BK11" t="n">
-        <v>2.692223180500442e-12</v>
+        <v>0.0002057792735286057</v>
       </c>
       <c r="BL11" t="n">
-        <v>7.833354624675604e-12</v>
+        <v>0.0001187007219414227</v>
       </c>
       <c r="BM11" t="n">
-        <v>7.64948781400987e-12</v>
+        <v>0.001365535892546177</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.954570880147166e-11</v>
+        <v>0.0003003160527441651</v>
       </c>
       <c r="BO11" t="n">
-        <v>8.202066630047522e-12</v>
+        <v>0.001178018283098936</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.692313650325517e-11</v>
+        <v>0.0006877395790070295</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.522221411420777e-11</v>
+        <v>0.0004004293587058783</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.09494670275101e-11</v>
+        <v>0.0004758474824484438</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.487326754812113e-11</v>
+        <v>0.0006310899625532329</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.897079707548823e-12</v>
+        <v>0.0001087415148504078</v>
       </c>
       <c r="BU11" t="n">
-        <v>3.282903246124014e-12</v>
+        <v>0.0002972908550873399</v>
       </c>
       <c r="BV11" t="n">
-        <v>5.587581612676029e-12</v>
+        <v>0.0007166618015617132</v>
       </c>
       <c r="BW11" t="n">
-        <v>3.009085168537151e-12</v>
+        <v>0.0004215546068735421</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.489999269799203e-11</v>
+        <v>0.0001210862246807665</v>
       </c>
       <c r="BY11" t="n">
-        <v>6.450747054576045e-12</v>
+        <v>0.0001532274909550324</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.392060512001025e-11</v>
+        <v>7.353271212195978e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.301550534016371e-11</v>
+        <v>0.0005437090876512229</v>
       </c>
       <c r="CB11" t="n">
-        <v>9.470388882826253e-12</v>
+        <v>0.0004190223990008235</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.702632479450017e-11</v>
+        <v>0.0001464971574023366</v>
       </c>
       <c r="CD11" t="n">
-        <v>4.791296699668823e-12</v>
+        <v>0.0001520859805168584</v>
       </c>
       <c r="CE11" t="n">
-        <v>5.400545462219686e-12</v>
+        <v>0.0004085386754013598</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.91504429501721e-12</v>
+        <v>0.0002438167866785079</v>
       </c>
       <c r="CG11" t="n">
-        <v>4.298273542646669e-12</v>
+        <v>0.0003475492703728378</v>
       </c>
       <c r="CH11" t="n">
-        <v>3.106961031767302e-13</v>
+        <v>2.734253939706832e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>4.948264888116061e-12</v>
+        <v>0.0002153954119421542</v>
       </c>
       <c r="CJ11" t="n">
-        <v>8.729398497456242e-13</v>
+        <v>0.000187095909495838</v>
       </c>
       <c r="CK11" t="n">
-        <v>3.678270361906488e-12</v>
+        <v>0.0002131073561031371</v>
       </c>
       <c r="CL11" t="n">
-        <v>4.296927668279854e-14</v>
+        <v>9.813821816351265e-05</v>
       </c>
       <c r="CM11" t="n">
-        <v>1.211569039538674e-11</v>
+        <v>0.0008489257306791842</v>
       </c>
       <c r="CN11" t="n">
-        <v>8.83288494429868e-12</v>
+        <v>0.0004959686193615198</v>
       </c>
       <c r="CO11" t="n">
-        <v>2.806836794239098e-12</v>
+        <v>7.102805830072612e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>6.753639314460713e-12</v>
+        <v>0.0003138568717986345</v>
       </c>
       <c r="CQ11" t="n">
-        <v>3.330069943754954e-12</v>
+        <v>0.000225466545089148</v>
       </c>
       <c r="CR11" t="n">
-        <v>6.756191092693875e-12</v>
+        <v>0.0005627702339552343</v>
       </c>
       <c r="CS11" t="n">
-        <v>5.350013834726219e-12</v>
+        <v>0.0004569589800667018</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.235326771431566e-11</v>
+        <v>0.0001410520053468645</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.021691325292506e-11</v>
+        <v>0.0001924499520100653</v>
       </c>
       <c r="CV11" t="n">
-        <v>7.055054457305587e-12</v>
+        <v>0.000156581198098138</v>
       </c>
       <c r="CW11" t="n">
-        <v>4.139743235709314e-12</v>
+        <v>0.0002034433273365721</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.178104705804039e-12</v>
+        <v>0.0002756131289061159</v>
       </c>
       <c r="CY11" t="n">
-        <v>3.939232186972452e-12</v>
+        <v>0.0005095559172332287</v>
       </c>
       <c r="CZ11" t="n">
-        <v>2.740435482706527e-12</v>
+        <v>3.327307786094025e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>4.504729055054835e-12</v>
+        <v>0.0001684062299318612</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.559728691688522e-12</v>
+        <v>0.0002093883522320539</v>
       </c>
       <c r="DC11" t="n">
-        <v>2.327512531666298e-12</v>
+        <v>0.0001392964622937143</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.049908044618159e-13</v>
+        <v>0.0001091900703613646</v>
       </c>
       <c r="DE11" t="n">
-        <v>3.586181698822521e-12</v>
+        <v>0.0005377393099479377</v>
       </c>
       <c r="DF11" t="n">
-        <v>2.186512776392036e-11</v>
+        <v>0.001123619033023715</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.259083982907416e-12</v>
+        <v>0.0001096989872166887</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.570926110889715e-11</v>
+        <v>0.001067237695679069</v>
       </c>
       <c r="DI11" t="n">
-        <v>2.537338048003157e-11</v>
+        <v>0.0001071087172022089</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.034971153918152e-11</v>
+        <v>0.0001416455197613686</v>
       </c>
       <c r="DK11" t="n">
-        <v>6.002249045011787e-12</v>
+        <v>0.0007825532811693847</v>
       </c>
       <c r="DL11" t="n">
-        <v>7.76178860767418e-12</v>
+        <v>0.0001484191161580384</v>
       </c>
       <c r="DM11" t="n">
-        <v>6.551186242792495e-12</v>
+        <v>7.930559513624758e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>7.797542993237538e-12</v>
+        <v>0.000270653807092458</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.049813664819044e-12</v>
+        <v>0.0002145040343748406</v>
       </c>
       <c r="DP11" t="n">
-        <v>4.020121475295513e-12</v>
+        <v>0.0005846998537890613</v>
       </c>
       <c r="DQ11" t="n">
-        <v>2.742863661892025e-12</v>
+        <v>0.0001256207906408235</v>
       </c>
       <c r="DR11" t="n">
-        <v>2.880269633909194e-11</v>
+        <v>7.286464824574068e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>1.841803619340165e-11</v>
+        <v>0.0001464284723624587</v>
       </c>
       <c r="DT11" t="n">
-        <v>2.555644498108967e-12</v>
+        <v>2.374576069996692e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>3.660488253655336e-13</v>
+        <v>0.0002846034767571837</v>
       </c>
       <c r="DV11" t="n">
-        <v>2.949120548462192e-12</v>
+        <v>0.0001806376385502517</v>
       </c>
       <c r="DW11" t="n">
-        <v>3.647597848766004e-12</v>
+        <v>0.0002787842822726816</v>
       </c>
       <c r="DX11" t="n">
-        <v>6.762361504097925e-12</v>
+        <v>0.0001785887870937586</v>
       </c>
       <c r="DY11" t="n">
-        <v>8.604192011651968e-12</v>
+        <v>0.0002812620950862765</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.180808055500915e-11</v>
+        <v>0.000525103707332164</v>
       </c>
       <c r="EA11" t="n">
-        <v>6.455599076138352e-12</v>
+        <v>0.0004660268896259367</v>
       </c>
       <c r="EB11" t="n">
-        <v>3.887386940126802e-12</v>
+        <v>0.0001113761536544189</v>
       </c>
       <c r="EC11" t="n">
-        <v>2.717518484546266e-12</v>
+        <v>0.0002787245030049235</v>
       </c>
       <c r="ED11" t="n">
-        <v>8.071990341765312e-13</v>
+        <v>0.00014313924475573</v>
       </c>
       <c r="EE11" t="n">
-        <v>2.003986820237058e-12</v>
+        <v>0.0002523290168028325</v>
       </c>
       <c r="EF11" t="n">
-        <v>2.861985388263877e-12</v>
+        <v>0.0002766488178167492</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.466812782346949e-12</v>
+        <v>0.0002097520482493564</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.455934331429098e-12</v>
+        <v>3.866566839860752e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>7.805841910346611e-12</v>
+        <v>0.0005872136680409312</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.229495064786201e-11</v>
+        <v>0.0002457955270074308</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.161907289132236e-11</v>
+        <v>3.730927710421383e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>6.240202582094567e-13</v>
+        <v>0.0004120004596188664</v>
       </c>
       <c r="EM11" t="n">
-        <v>1.945775788755877e-12</v>
+        <v>0.0002324019442312419</v>
       </c>
       <c r="EN11" t="n">
-        <v>1.084979155130394e-11</v>
+        <v>0.0001475188764743507</v>
       </c>
       <c r="EO11" t="n">
-        <v>6.810824473846289e-12</v>
+        <v>0.0005455153295770288</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.984166303481416e-11</v>
+        <v>1.216752298205392e-05</v>
       </c>
       <c r="EQ11" t="n">
-        <v>1.877214312814846e-12</v>
+        <v>0.0001156206199084409</v>
       </c>
       <c r="ER11" t="n">
-        <v>2.328073931551211e-12</v>
+        <v>0.0002126262115780264</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.441966598209055e-11</v>
+        <v>0.0004208161844871938</v>
       </c>
       <c r="ET11" t="n">
-        <v>1.286366672903494e-11</v>
+        <v>0.0002453620254527777</v>
       </c>
       <c r="EU11" t="n">
-        <v>1.07141873498251e-11</v>
+        <v>0.0001431268465239555</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.630159202070658e-11</v>
+        <v>0.0002039542741840705</v>
       </c>
       <c r="EW11" t="n">
-        <v>2.15451332989669e-12</v>
+        <v>1.850324042607099e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>5.644753761635535e-12</v>
+        <v>0.0001741471642162651</v>
       </c>
       <c r="EY11" t="n">
-        <v>5.476433976442374e-12</v>
+        <v>0.00015739091031719</v>
       </c>
       <c r="EZ11" t="n">
-        <v>4.412065331138582e-13</v>
+        <v>0.000130815344164148</v>
       </c>
       <c r="FA11" t="n">
-        <v>2.865726102599386e-12</v>
+        <v>0.0003676201158668846</v>
       </c>
       <c r="FB11" t="n">
-        <v>2.825514995585809e-12</v>
+        <v>5.338263872545213e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>2.385698843337947e-12</v>
+        <v>0.0003271753084845841</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.166527595006239e-12</v>
+        <v>0.0002064879226963967</v>
       </c>
       <c r="FE11" t="n">
-        <v>4.135646686220795e-12</v>
+        <v>0.0001656899985391647</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.991771981721402e-12</v>
+        <v>5.057507951278239e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.6764069299402e-11</v>
+        <v>0.0003733386110980064</v>
       </c>
       <c r="FH11" t="n">
-        <v>2.263373082705966e-12</v>
+        <v>2.476129884598777e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>9.570595184416053e-13</v>
+        <v>0.0002496991364751011</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.264706481901579e-11</v>
+        <v>0.000109120926936157</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.914415457757168e-12</v>
+        <v>0.00036407116567716</v>
       </c>
       <c r="FL11" t="n">
-        <v>2.544541400500977e-12</v>
+        <v>0.0003066901699639857</v>
       </c>
       <c r="FM11" t="n">
-        <v>5.277390937447057e-12</v>
+        <v>2.074757503578439e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>2.172049692883427e-11</v>
+        <v>0.0001728127099340782</v>
       </c>
       <c r="FO11" t="n">
-        <v>7.098892654266997e-12</v>
+        <v>0.0004321744199842215</v>
       </c>
       <c r="FP11" t="n">
-        <v>4.793684112852636e-12</v>
+        <v>0.0005068458267487586</v>
       </c>
       <c r="FQ11" t="n">
-        <v>3.941584038325008e-12</v>
+        <v>1.673492079135031e-06</v>
       </c>
       <c r="FR11" t="n">
-        <v>8.020978846390303e-12</v>
+        <v>0.0001355560525553301</v>
       </c>
       <c r="FS11" t="n">
-        <v>6.285448723997167e-12</v>
+        <v>0.0009725781856104732</v>
       </c>
       <c r="FT11" t="n">
-        <v>2.140938121231173e-11</v>
+        <v>0.0009882443118840456</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.863573011184894e-11</v>
+        <v>2.63826223090291e-07</v>
       </c>
       <c r="FV11" t="n">
-        <v>8.373157202312687e-12</v>
+        <v>0.0007507055997848511</v>
       </c>
       <c r="FW11" t="n">
-        <v>5.886567275292798e-12</v>
+        <v>0.0001600425457581878</v>
       </c>
       <c r="FX11" t="n">
-        <v>1.095144157650663e-12</v>
+        <v>0.0002782559313345701</v>
       </c>
       <c r="FY11" t="n">
-        <v>3.429725253800697e-12</v>
+        <v>0.0006444682367146015</v>
       </c>
       <c r="FZ11" t="n">
-        <v>4.5330813755462e-12</v>
+        <v>0.0006833037477917969</v>
       </c>
       <c r="GA11" t="n">
-        <v>5.105360578738782e-12</v>
+        <v>0.0002762364165391773</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.42695039812013e-11</v>
+        <v>0.0007015374139882624</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.424842188679776e-11</v>
+        <v>0.0003934543929062784</v>
       </c>
       <c r="GD11" t="n">
-        <v>1.325320278869335e-12</v>
+        <v>9.133033745456487e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>2.409863324517869e-12</v>
+        <v>0.0002861190005205572</v>
       </c>
       <c r="GF11" t="n">
-        <v>2.68018311537499e-12</v>
+        <v>0.0007254097727127373</v>
       </c>
       <c r="GG11" t="n">
-        <v>5.060915879082084e-13</v>
+        <v>0.0003799241676460952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.835672094330221e-07</v>
+        <v>2.157431663363241e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>2.428283778499463e-07</v>
+        <v>0.0001468023692723364</v>
       </c>
       <c r="C12" t="n">
-        <v>3.19019164862766e-07</v>
+        <v>1.05480521597201e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>2.406518206043984e-06</v>
+        <v>0.0001053658343153074</v>
       </c>
       <c r="E12" t="n">
-        <v>5.161189164937241e-07</v>
+        <v>4.803393676411361e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>6.848586053820327e-07</v>
+        <v>3.765665314858779e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14844035895112e-08</v>
+        <v>1.135353159043007e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>7.927648084660177e-07</v>
+        <v>9.59411590883974e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>5.420046704784909e-07</v>
+        <v>1.614358188817278e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>5.75130059132789e-07</v>
+        <v>2.945557025668677e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>4.169448004631704e-07</v>
+        <v>9.529879753245041e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.79106081077407e-08</v>
+        <v>2.963068936878699e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>2.04809748538537e-06</v>
+        <v>0.0001125559938373044</v>
       </c>
       <c r="N12" t="n">
-        <v>3.943920887650165e-07</v>
+        <v>7.103286043275148e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>4.655415182241995e-07</v>
+        <v>6.456531264120713e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>5.699576277606866e-08</v>
+        <v>6.877326086396351e-06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.417458634023205e-06</v>
+        <v>3.063165422645397e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>5.441883672574477e-07</v>
+        <v>2.437033253954723e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.439344856635216e-07</v>
+        <v>2.153483364963904e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>7.158467951740022e-07</v>
+        <v>2.286471863044426e-05</v>
       </c>
       <c r="U12" t="n">
-        <v>4.194961604753189e-07</v>
+        <v>4.786329554917756e-07</v>
       </c>
       <c r="V12" t="n">
-        <v>5.183318307899754e-08</v>
+        <v>1.030270141200162e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>1.577236616867594e-06</v>
+        <v>1.163220986200031e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>1.882410174403049e-07</v>
+        <v>2.571389995864592e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.680616617567466e-08</v>
+        <v>2.392957685515285e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.127259162738483e-07</v>
+        <v>1.69966951943934e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.976539607539962e-07</v>
+        <v>1.252706169907469e-06</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.988565140389255e-07</v>
+        <v>1.565900129207876e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.50198689602621e-07</v>
+        <v>2.947820030385628e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.69108988707012e-07</v>
+        <v>5.114088708069175e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.452425119121472e-07</v>
+        <v>2.229434176115319e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.861565537974457e-09</v>
+        <v>3.973620187025517e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.081497996186954e-07</v>
+        <v>9.412810868525412e-06</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.026827665233213e-08</v>
+        <v>1.233299099112628e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.918967171832264e-07</v>
+        <v>8.111345778161194e-06</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.383627529274236e-07</v>
+        <v>8.033501899262774e-07</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.332022231461451e-07</v>
+        <v>7.579858902317937e-06</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.321775755513954e-07</v>
+        <v>1.236283696925966e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.448412648296653e-08</v>
+        <v>4.693877599493135e-06</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.738361323892605e-07</v>
+        <v>8.535456572644762e-07</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.677016368579643e-07</v>
+        <v>2.057500205410179e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.865565301770403e-07</v>
+        <v>7.5461875894689e-06</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.667412329377839e-08</v>
+        <v>5.738479558203835e-07</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.017676585339359e-08</v>
+        <v>7.894380360085052e-06</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.851177700018525e-07</v>
+        <v>4.730464752356056e-06</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.828827578265191e-08</v>
+        <v>1.249294837180059e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.806732931683655e-07</v>
+        <v>0.0001010774067253806</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.154020310423221e-07</v>
+        <v>5.828826033393852e-06</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.037806669046404e-06</v>
+        <v>1.221404363604961e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.120923028314792e-07</v>
+        <v>6.751411092409398e-06</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.444793605922314e-07</v>
+        <v>8.6730215116404e-06</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.11765118049334e-07</v>
+        <v>1.731977317831479e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.76832070717137e-07</v>
+        <v>3.78916593035683e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.820286392259732e-08</v>
+        <v>1.024658558890224e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.030911213703803e-07</v>
+        <v>1.00351153378142e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.162883561140916e-07</v>
+        <v>2.401146412012167e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.810626811988186e-08</v>
+        <v>2.53544840234099e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.167432742477104e-06</v>
+        <v>3.166519672959112e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.606346521995874e-07</v>
+        <v>6.31193834124133e-05</v>
       </c>
       <c r="BH12" t="n">
-        <v>4.115230183288077e-07</v>
+        <v>2.15457421290921e-05</v>
       </c>
       <c r="BI12" t="n">
-        <v>2.520751820611622e-07</v>
+        <v>2.884277637349442e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.977501540295634e-07</v>
+        <v>3.333465429022908e-06</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.079010184592335e-07</v>
+        <v>1.88651119970018e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>4.491257925565151e-07</v>
+        <v>1.350502134300768e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.950765948777189e-08</v>
+        <v>1.310413244937081e-05</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.688284439500421e-08</v>
+        <v>1.139545202022418e-05</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.674997633926978e-07</v>
+        <v>4.521236405707896e-06</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.489138270471813e-07</v>
+        <v>8.118629011732992e-06</v>
       </c>
       <c r="BQ12" t="n">
-        <v>8.577389820629833e-08</v>
+        <v>6.888888492539991e-06</v>
       </c>
       <c r="BR12" t="n">
-        <v>8.916730109831406e-08</v>
+        <v>3.018004281329922e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.652521035566679e-07</v>
+        <v>1.532946771476418e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.586902780876699e-07</v>
+        <v>1.651364073040895e-06</v>
       </c>
       <c r="BU12" t="n">
-        <v>2.431371797229076e-07</v>
+        <v>5.550987680180697e-06</v>
       </c>
       <c r="BV12" t="n">
-        <v>5.999918784027614e-08</v>
+        <v>4.944619286106899e-05</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.359392030053641e-07</v>
+        <v>1.027773487294326e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.068844994733809e-06</v>
+        <v>2.263765418319963e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.677815302831732e-09</v>
+        <v>7.427375294355443e-06</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.498514106719085e-07</v>
+        <v>2.443850644340273e-05</v>
       </c>
       <c r="CA12" t="n">
-        <v>9.935374123415386e-08</v>
+        <v>3.567261046555359e-06</v>
       </c>
       <c r="CB12" t="n">
-        <v>4.247730771567149e-07</v>
+        <v>3.32537138092448e-06</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.625888152531843e-07</v>
+        <v>1.583589892106829e-06</v>
       </c>
       <c r="CD12" t="n">
-        <v>5.083704763819696e-07</v>
+        <v>4.813343821297167e-06</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.900040823623385e-08</v>
+        <v>2.630275776027702e-05</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.043034529857323e-07</v>
+        <v>7.587737854919396e-06</v>
       </c>
       <c r="CG12" t="n">
-        <v>5.313596602718462e-07</v>
+        <v>4.605557933246018e-06</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.231221631314838e-07</v>
+        <v>4.675060608860804e-06</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.819279162873499e-07</v>
+        <v>1.117483225243632e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>8.809913509821854e-08</v>
+        <v>1.136084483732702e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>9.547260049203032e-08</v>
+        <v>5.12929091200931e-06</v>
       </c>
       <c r="CL12" t="n">
-        <v>3.828489525403711e-09</v>
+        <v>4.943267413182184e-07</v>
       </c>
       <c r="CM12" t="n">
-        <v>2.721507428304903e-07</v>
+        <v>1.779045487637632e-05</v>
       </c>
       <c r="CN12" t="n">
-        <v>4.64704555724893e-07</v>
+        <v>2.985613036798895e-06</v>
       </c>
       <c r="CO12" t="n">
-        <v>3.445862830631086e-07</v>
+        <v>1.173771215690067e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>9.602742920833407e-07</v>
+        <v>2.829207005561329e-05</v>
       </c>
       <c r="CQ12" t="n">
-        <v>6.633873681494151e-07</v>
+        <v>3.155349986627698e-06</v>
       </c>
       <c r="CR12" t="n">
-        <v>8.928445254241524e-07</v>
+        <v>2.270647928526159e-05</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.629831558602746e-07</v>
+        <v>1.057901681633666e-05</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.477267801419657e-07</v>
+        <v>3.127660238533281e-05</v>
       </c>
       <c r="CU12" t="n">
-        <v>3.382467994583749e-08</v>
+        <v>2.039730588876409e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>5.516274654837616e-07</v>
+        <v>4.15014665122726e-06</v>
       </c>
       <c r="CW12" t="n">
-        <v>5.316579887448825e-08</v>
+        <v>1.935951513587497e-05</v>
       </c>
       <c r="CX12" t="n">
-        <v>7.911022237294674e-08</v>
+        <v>9.17292527446989e-06</v>
       </c>
       <c r="CY12" t="n">
-        <v>4.938543725074851e-07</v>
+        <v>1.05392300611129e-05</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.504254782958014e-07</v>
+        <v>1.04753848972905e-06</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.737367369969434e-07</v>
+        <v>9.89416366792284e-06</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.259332004290627e-08</v>
+        <v>1.127514042309485e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.153436315348699e-07</v>
+        <v>8.068518582149409e-06</v>
       </c>
       <c r="DD12" t="n">
-        <v>4.638619088837004e-08</v>
+        <v>2.409310127404751e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>5.031855607739999e-07</v>
+        <v>1.650287049415056e-05</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.106816054947558e-09</v>
+        <v>2.464633143972605e-05</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.907154623699171e-07</v>
+        <v>4.129810804442968e-06</v>
       </c>
       <c r="DH12" t="n">
-        <v>3.561409585017827e-07</v>
+        <v>3.423739326535724e-05</v>
       </c>
       <c r="DI12" t="n">
-        <v>4.796232246917498e-07</v>
+        <v>9.78991920419503e-07</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2.270315917485277e-07</v>
+        <v>1.027453345159302e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>3.881322356846795e-07</v>
+        <v>9.831575880525634e-06</v>
       </c>
       <c r="DL12" t="n">
-        <v>7.220205020530557e-07</v>
+        <v>6.880824912514072e-06</v>
       </c>
       <c r="DM12" t="n">
-        <v>6.368157556835286e-08</v>
+        <v>6.26411747361999e-06</v>
       </c>
       <c r="DN12" t="n">
-        <v>3.003048618666071e-07</v>
+        <v>1.939480898727197e-05</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.543160064760741e-07</v>
+        <v>9.279388905270025e-06</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.586221856086922e-07</v>
+        <v>1.732923010422383e-05</v>
       </c>
       <c r="DQ12" t="n">
-        <v>2.077111105336371e-08</v>
+        <v>2.447073711664416e-05</v>
       </c>
       <c r="DR12" t="n">
-        <v>5.603336603599018e-07</v>
+        <v>2.081715138047002e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.806677119020605e-07</v>
+        <v>5.55875612917589e-06</v>
       </c>
       <c r="DT12" t="n">
-        <v>2.240648626639086e-07</v>
+        <v>4.900812655250775e-06</v>
       </c>
       <c r="DU12" t="n">
-        <v>2.077149900969744e-07</v>
+        <v>1.39360463435878e-06</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.268726859711023e-07</v>
+        <v>3.621050609581289e-06</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.399642002297696e-07</v>
+        <v>4.683682846007287e-07</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.79474954570469e-07</v>
+        <v>9.86963277682662e-06</v>
       </c>
       <c r="DY12" t="n">
-        <v>5.2988099241702e-08</v>
+        <v>1.437745959265158e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>4.718690149729809e-07</v>
+        <v>2.358905476285145e-05</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.303630980942216e-09</v>
+        <v>1.876518945209682e-05</v>
       </c>
       <c r="EB12" t="n">
-        <v>5.109216090204427e-07</v>
+        <v>5.743704605265521e-07</v>
       </c>
       <c r="EC12" t="n">
-        <v>4.707658263214398e-09</v>
+        <v>1.069209065462928e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.306283934354724e-07</v>
+        <v>8.572485057811718e-06</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.621878536501754e-07</v>
+        <v>9.937039976648521e-06</v>
       </c>
       <c r="EF12" t="n">
-        <v>2.637603984112502e-07</v>
+        <v>2.860270797100384e-06</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.959325312052897e-09</v>
+        <v>1.070454163709655e-05</v>
       </c>
       <c r="EH12" t="n">
-        <v>9.79114318511165e-08</v>
+        <v>9.000049772112106e-07</v>
       </c>
       <c r="EI12" t="n">
-        <v>7.027983883745037e-07</v>
+        <v>3.703236416185973e-06</v>
       </c>
       <c r="EJ12" t="n">
-        <v>3.945192759147176e-07</v>
+        <v>2.050401963060722e-05</v>
       </c>
       <c r="EK12" t="n">
-        <v>4.88714533730672e-07</v>
+        <v>3.84315808332758e-06</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.18227681866756e-07</v>
+        <v>2.291613418492489e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>3.921707616427739e-07</v>
+        <v>1.516147131042089e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>5.254099733065232e-08</v>
+        <v>4.20602646045154e-06</v>
       </c>
       <c r="EO12" t="n">
-        <v>6.037863045094127e-07</v>
+        <v>1.65046385518508e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>1.096791208965442e-07</v>
+        <v>1.725158654153347e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>2.352417283191244e-07</v>
+        <v>7.074442009979975e-07</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.697393798849589e-07</v>
+        <v>1.760479972290341e-05</v>
       </c>
       <c r="ES12" t="n">
-        <v>4.069211456680932e-08</v>
+        <v>1.370939799016924e-06</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.720500648616508e-07</v>
+        <v>4.119612640351988e-05</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.504527489259999e-07</v>
+        <v>2.160104850190692e-05</v>
       </c>
       <c r="EV12" t="n">
-        <v>9.439284553991456e-08</v>
+        <v>3.689100594783667e-06</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.715009858571648e-07</v>
+        <v>7.832504707039334e-07</v>
       </c>
       <c r="EX12" t="n">
-        <v>4.484618898459303e-07</v>
+        <v>5.307249466568464e-07</v>
       </c>
       <c r="EY12" t="n">
-        <v>7.243591504391134e-09</v>
+        <v>2.060432416328695e-05</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.267529654569444e-07</v>
+        <v>3.92601123166969e-06</v>
       </c>
       <c r="FA12" t="n">
-        <v>4.054298017308611e-07</v>
+        <v>1.08402527985163e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.0036497971887e-07</v>
+        <v>3.239319426029397e-07</v>
       </c>
       <c r="FC12" t="n">
-        <v>2.341687093121436e-07</v>
+        <v>1.731639531499241e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>5.892571408594449e-08</v>
+        <v>1.339841219305526e-05</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.302281731341282e-07</v>
+        <v>4.785109013027977e-06</v>
       </c>
       <c r="FF12" t="n">
-        <v>4.468278902436396e-08</v>
+        <v>9.389605111209676e-07</v>
       </c>
       <c r="FG12" t="n">
-        <v>2.118969746334187e-07</v>
+        <v>1.374188514091657e-07</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.02259158754714e-07</v>
+        <v>3.632554580690339e-06</v>
       </c>
       <c r="FI12" t="n">
-        <v>2.41851239479729e-07</v>
+        <v>3.784647105931072e-06</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.742802027138168e-07</v>
+        <v>2.116626819770318e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>1.814097032593054e-07</v>
+        <v>7.229413768072845e-06</v>
       </c>
       <c r="FL12" t="n">
-        <v>3.93129397480152e-07</v>
+        <v>6.069327355362475e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.223332048994052e-07</v>
+        <v>1.619212707737461e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>8.363376480247098e-08</v>
+        <v>2.133653651981149e-06</v>
       </c>
       <c r="FO12" t="n">
-        <v>3.115428981459445e-08</v>
+        <v>1.168226481240708e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.81508568175559e-07</v>
+        <v>1.177197009383235e-05</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.987518487567286e-07</v>
+        <v>5.851739388162969e-06</v>
       </c>
       <c r="FR12" t="n">
-        <v>3.591243284972734e-07</v>
+        <v>7.965732947923243e-06</v>
       </c>
       <c r="FS12" t="n">
-        <v>4.59741102076805e-07</v>
+        <v>1.015384168567834e-05</v>
       </c>
       <c r="FT12" t="n">
-        <v>1.427217739546904e-07</v>
+        <v>5.104117735754699e-05</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.197575241780214e-07</v>
+        <v>9.571531336405315e-06</v>
       </c>
       <c r="FV12" t="n">
-        <v>4.351241145172935e-08</v>
+        <v>1.967617572518066e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>6.133777219474723e-08</v>
+        <v>2.34299532166915e-05</v>
       </c>
       <c r="FX12" t="n">
-        <v>4.525259669208026e-07</v>
+        <v>1.500977032264927e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>5.083306859887671e-07</v>
+        <v>1.569244886923116e-05</v>
       </c>
       <c r="FZ12" t="n">
-        <v>4.255113310591696e-07</v>
+        <v>1.056667770171771e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>7.033858651084302e-08</v>
+        <v>4.507678568188567e-07</v>
       </c>
       <c r="GB12" t="n">
-        <v>2.370226894754524e-07</v>
+        <v>4.539419933280442e-06</v>
       </c>
       <c r="GC12" t="n">
-        <v>3.21404343139875e-07</v>
+        <v>1.564051126479171e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>5.304920591697737e-07</v>
+        <v>4.46331159764668e-06</v>
       </c>
       <c r="GE12" t="n">
-        <v>1.673268457125232e-07</v>
+        <v>1.524313574918779e-05</v>
       </c>
       <c r="GF12" t="n">
-        <v>5.138181080610593e-08</v>
+        <v>8.563858500565402e-06</v>
       </c>
       <c r="GG12" t="n">
-        <v>4.421998198722576e-07</v>
+        <v>7.695975000387989e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.406724312706501e-07</v>
+        <v>0.006840693764388561</v>
       </c>
       <c r="B13" t="n">
-        <v>1.629845428396948e-05</v>
+        <v>0.07561153173446655</v>
       </c>
       <c r="C13" t="n">
-        <v>1.072955910785822e-06</v>
+        <v>0.007363454438745975</v>
       </c>
       <c r="D13" t="n">
-        <v>1.378478918923065e-05</v>
+        <v>0.04497835785150528</v>
       </c>
       <c r="E13" t="n">
-        <v>2.327474248886574e-06</v>
+        <v>0.03457587212324142</v>
       </c>
       <c r="F13" t="n">
-        <v>2.665777287802484e-08</v>
+        <v>0.05753908306360245</v>
       </c>
       <c r="G13" t="n">
-        <v>1.224391326104524e-07</v>
+        <v>0.01627708040177822</v>
       </c>
       <c r="H13" t="n">
-        <v>1.347430725218146e-06</v>
+        <v>0.006845265626907349</v>
       </c>
       <c r="I13" t="n">
-        <v>8.037222869461402e-07</v>
+        <v>0.006551308557391167</v>
       </c>
       <c r="J13" t="n">
-        <v>9.73727082964615e-07</v>
+        <v>0.01541309617459774</v>
       </c>
       <c r="K13" t="n">
-        <v>1.666190109972376e-05</v>
+        <v>0.05757366493344307</v>
       </c>
       <c r="L13" t="n">
-        <v>8.046197876865335e-07</v>
+        <v>0.0005820505321025848</v>
       </c>
       <c r="M13" t="n">
-        <v>1.125410199165344e-05</v>
+        <v>0.05448300391435623</v>
       </c>
       <c r="N13" t="n">
-        <v>2.805365966196405e-07</v>
+        <v>0.04234687238931656</v>
       </c>
       <c r="O13" t="n">
-        <v>4.222992515678925e-07</v>
+        <v>0.07327611744403839</v>
       </c>
       <c r="P13" t="n">
-        <v>1.534652028567507e-06</v>
+        <v>0.02386248111724854</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.109117642452475e-06</v>
+        <v>0.02001672051846981</v>
       </c>
       <c r="R13" t="n">
-        <v>2.397722255409462e-06</v>
+        <v>0.01206421665847301</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197018264065264e-06</v>
+        <v>0.007509475573897362</v>
       </c>
       <c r="T13" t="n">
-        <v>1.601241933713027e-06</v>
+        <v>0.01957343704998493</v>
       </c>
       <c r="U13" t="n">
-        <v>3.707448854584072e-07</v>
+        <v>0.006380942184478045</v>
       </c>
       <c r="V13" t="n">
-        <v>2.218684130639303e-06</v>
+        <v>0.001301518524996936</v>
       </c>
       <c r="W13" t="n">
-        <v>7.555291631433647e-06</v>
+        <v>0.01632793992757797</v>
       </c>
       <c r="X13" t="n">
-        <v>1.04875550732686e-06</v>
+        <v>0.01243989355862141</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.588378265500069e-06</v>
+        <v>0.01227307226508856</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.64942542571589e-07</v>
+        <v>0.002762132324278355</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.244201198209339e-07</v>
+        <v>0.007307193242013454</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.375450096929853e-06</v>
+        <v>0.005325254518538713</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.749912826198852e-06</v>
+        <v>0.01383186131715775</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.196693458245136e-07</v>
+        <v>0.0045210518874228</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.137022865004838e-06</v>
+        <v>0.02128816023468971</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.410889289374609e-07</v>
+        <v>0.01585446111857891</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.988966459975927e-06</v>
+        <v>0.01086830534040928</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.213527411891846e-08</v>
+        <v>0.009439953602850437</v>
       </c>
       <c r="AI13" t="n">
-        <v>5.949874548605294e-07</v>
+        <v>0.001874156296253204</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.617647608843981e-07</v>
+        <v>0.000931993592530489</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.510020294721471e-06</v>
+        <v>0.008997601456940174</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.95473876374308e-06</v>
+        <v>0.01410304754972458</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.682139554759488e-06</v>
+        <v>0.004223557189106941</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.612642108739237e-06</v>
+        <v>0.001543270424008369</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.738813110336196e-07</v>
+        <v>0.0007053795270621777</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.509749495198776e-06</v>
+        <v>0.008230340667068958</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.604733140287863e-07</v>
+        <v>0.00709515018388629</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.431001793316682e-07</v>
+        <v>0.004476224072277546</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.312167000833142e-06</v>
+        <v>0.00855591893196106</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.479082240824937e-06</v>
+        <v>0.02161115407943726</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.136228911491344e-05</v>
+        <v>0.07176642119884491</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.179691472927516e-07</v>
+        <v>0.000417503877542913</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.6617776711646e-06</v>
+        <v>0.003333150874823332</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.189085866026289e-07</v>
+        <v>0.004960359539836645</v>
       </c>
       <c r="AY13" t="n">
-        <v>2.199607934016967e-06</v>
+        <v>0.02193224616348743</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.940637957886793e-06</v>
+        <v>0.007260031066834927</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.263717308574996e-07</v>
+        <v>0.01576702296733856</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.923258651004289e-06</v>
+        <v>0.007705107796937227</v>
       </c>
       <c r="BC13" t="n">
-        <v>6.230631584003277e-07</v>
+        <v>0.009392676874995232</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.751072997853043e-06</v>
+        <v>0.01102482061833143</v>
       </c>
       <c r="BE13" t="n">
-        <v>5.190415777178714e-07</v>
+        <v>0.02672976069152355</v>
       </c>
       <c r="BF13" t="n">
-        <v>7.556192485935753e-06</v>
+        <v>0.00732797384262085</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.552030077320524e-07</v>
+        <v>0.03908924013376236</v>
       </c>
       <c r="BH13" t="n">
-        <v>3.285602588221082e-06</v>
+        <v>0.02966242842376232</v>
       </c>
       <c r="BI13" t="n">
-        <v>2.486345010765945e-06</v>
+        <v>0.0003358359099365771</v>
       </c>
       <c r="BJ13" t="n">
-        <v>4.402146771553817e-07</v>
+        <v>0.02733435481786728</v>
       </c>
       <c r="BK13" t="n">
-        <v>3.818713139480678e-06</v>
+        <v>0.007627734914422035</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.511446271251771e-06</v>
+        <v>0.003490924835205078</v>
       </c>
       <c r="BM13" t="n">
-        <v>4.084663942194311e-06</v>
+        <v>0.02383003756403923</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.386885628562595e-06</v>
+        <v>0.008249667473137379</v>
       </c>
       <c r="BO13" t="n">
-        <v>6.415253892555484e-07</v>
+        <v>0.02480542659759521</v>
       </c>
       <c r="BP13" t="n">
-        <v>7.587826189592306e-07</v>
+        <v>0.01315290667116642</v>
       </c>
       <c r="BQ13" t="n">
-        <v>2.552063961047679e-06</v>
+        <v>0.005291723180562258</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.587398514857341e-06</v>
+        <v>0.0135458717122674</v>
       </c>
       <c r="BS13" t="n">
-        <v>3.292373946806038e-07</v>
+        <v>0.006077842321246862</v>
       </c>
       <c r="BT13" t="n">
-        <v>9.383535370943719e-07</v>
+        <v>0.00525317806750536</v>
       </c>
       <c r="BU13" t="n">
-        <v>2.619869746922632e-06</v>
+        <v>0.01092126406729221</v>
       </c>
       <c r="BV13" t="n">
-        <v>3.73409648091183e-06</v>
+        <v>0.02829988114535809</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.728698634906323e-06</v>
+        <v>0.0110804196447134</v>
       </c>
       <c r="BX13" t="n">
-        <v>3.724708221852779e-06</v>
+        <v>0.01127655059099197</v>
       </c>
       <c r="BY13" t="n">
-        <v>4.211703412693169e-07</v>
+        <v>0.004682182334363461</v>
       </c>
       <c r="BZ13" t="n">
-        <v>3.040916851659858e-07</v>
+        <v>0.008189598098397255</v>
       </c>
       <c r="CA13" t="n">
-        <v>8.95504058462393e-07</v>
+        <v>0.007705180440098047</v>
       </c>
       <c r="CB13" t="n">
-        <v>2.341256504223566e-07</v>
+        <v>0.0127729494124651</v>
       </c>
       <c r="CC13" t="n">
-        <v>2.354029220441589e-06</v>
+        <v>0.008081654086709023</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.094413503073156e-06</v>
+        <v>0.0005331957945600152</v>
       </c>
       <c r="CE13" t="n">
-        <v>3.659702997538261e-06</v>
+        <v>0.01428490597754717</v>
       </c>
       <c r="CF13" t="n">
-        <v>1.151763058260258e-06</v>
+        <v>0.009741424582898617</v>
       </c>
       <c r="CG13" t="n">
-        <v>2.189273345720721e-06</v>
+        <v>0.01214780937880278</v>
       </c>
       <c r="CH13" t="n">
-        <v>5.066558514954522e-07</v>
+        <v>0.003852382767945528</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.305037926613295e-06</v>
+        <v>0.00936247780919075</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.785989181575133e-07</v>
+        <v>0.006147716660052538</v>
       </c>
       <c r="CK13" t="n">
-        <v>8.786526706217046e-08</v>
+        <v>1.779472950147465e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.962903522529814e-07</v>
+        <v>0.003947996068745852</v>
       </c>
       <c r="CM13" t="n">
-        <v>4.301333547118702e-07</v>
+        <v>0.02173675037920475</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.576292447680316e-06</v>
+        <v>0.01483159326016903</v>
       </c>
       <c r="CO13" t="n">
-        <v>8.834398954604694e-07</v>
+        <v>0.002163065131753683</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.239105469925562e-06</v>
+        <v>0.008470400236546993</v>
       </c>
       <c r="CQ13" t="n">
-        <v>3.394208079043892e-06</v>
+        <v>0.01442612614482641</v>
       </c>
       <c r="CR13" t="n">
-        <v>4.401520982355578e-06</v>
+        <v>0.00195824564434588</v>
       </c>
       <c r="CS13" t="n">
-        <v>7.539086368524295e-07</v>
+        <v>0.003067611716687679</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.76775858765177e-06</v>
+        <v>0.01117746718227863</v>
       </c>
       <c r="CU13" t="n">
-        <v>3.496400893254759e-07</v>
+        <v>0.002888021059334278</v>
       </c>
       <c r="CV13" t="n">
-        <v>1.994412286876468e-06</v>
+        <v>0.002305783331394196</v>
       </c>
       <c r="CW13" t="n">
-        <v>3.368739271536469e-06</v>
+        <v>0.009824237786233425</v>
       </c>
       <c r="CX13" t="n">
-        <v>1.204602313009673e-06</v>
+        <v>0.01012586709111929</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.62479079538025e-06</v>
+        <v>0.01686756685376167</v>
       </c>
       <c r="CZ13" t="n">
-        <v>4.501380317378789e-07</v>
+        <v>0.001898245769552886</v>
       </c>
       <c r="DA13" t="n">
-        <v>4.162038464983198e-07</v>
+        <v>0.008782337419688702</v>
       </c>
       <c r="DB13" t="n">
-        <v>4.125720920455933e-08</v>
+        <v>0.006903538480401039</v>
       </c>
       <c r="DC13" t="n">
-        <v>5.53972654415702e-07</v>
+        <v>0.005088504403829575</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.414198607108119e-07</v>
+        <v>0.0007483700755983591</v>
       </c>
       <c r="DE13" t="n">
-        <v>3.167713657603599e-06</v>
+        <v>0.01330390945076942</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.88972865089454e-06</v>
+        <v>0.02708088234066963</v>
       </c>
       <c r="DG13" t="n">
-        <v>2.978266820719e-06</v>
+        <v>0.003450805554166436</v>
       </c>
       <c r="DH13" t="n">
-        <v>1.284179916183348e-06</v>
+        <v>0.02454096451401711</v>
       </c>
       <c r="DI13" t="n">
-        <v>2.501300969015574e-06</v>
+        <v>0.001717235893011093</v>
       </c>
       <c r="DJ13" t="n">
-        <v>7.551012686235481e-07</v>
+        <v>0.003651427570730448</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.649480509513523e-06</v>
+        <v>0.02562710829079151</v>
       </c>
       <c r="DL13" t="n">
-        <v>2.145222197214025e-06</v>
+        <v>0.01047715172171593</v>
       </c>
       <c r="DM13" t="n">
-        <v>7.03603177498735e-07</v>
+        <v>0.008856476284563541</v>
       </c>
       <c r="DN13" t="n">
-        <v>1.922186356750899e-06</v>
+        <v>0.006008030381053686</v>
       </c>
       <c r="DO13" t="n">
-        <v>6.918570534253377e-07</v>
+        <v>0.009803357534110546</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.116579142035334e-06</v>
+        <v>0.005361157469451427</v>
       </c>
       <c r="DQ13" t="n">
-        <v>2.370695142417389e-07</v>
+        <v>0.0069876778870821</v>
       </c>
       <c r="DR13" t="n">
-        <v>2.690031806196203e-06</v>
+        <v>0.008978813886642456</v>
       </c>
       <c r="DS13" t="n">
-        <v>2.058917289105011e-06</v>
+        <v>0.001619962975382805</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.207781619745219e-07</v>
+        <v>0.002801337046548724</v>
       </c>
       <c r="DU13" t="n">
-        <v>8.890710887499154e-07</v>
+        <v>0.005539322271943092</v>
       </c>
       <c r="DV13" t="n">
-        <v>1.155719473899808e-06</v>
+        <v>0.002907906658947468</v>
       </c>
       <c r="DW13" t="n">
-        <v>8.179542874131585e-07</v>
+        <v>0.002056007506325841</v>
       </c>
       <c r="DX13" t="n">
-        <v>1.44674754665175e-06</v>
+        <v>0.003996568266302347</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.040629285853356e-06</v>
+        <v>0.0107903890311718</v>
       </c>
       <c r="DZ13" t="n">
-        <v>1.228337282555003e-06</v>
+        <v>0.008874624967575073</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.656677909522841e-06</v>
+        <v>0.004671034868806601</v>
       </c>
       <c r="EB13" t="n">
-        <v>2.288830046381918e-06</v>
+        <v>0.007771031465381384</v>
       </c>
       <c r="EC13" t="n">
-        <v>6.66770461066335e-08</v>
+        <v>0.008800309151411057</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.012280108625419e-06</v>
+        <v>0.002539656590670347</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.653424646974599e-06</v>
+        <v>0.009574936702847481</v>
       </c>
       <c r="EF13" t="n">
-        <v>1.815292193896312e-06</v>
+        <v>0.008998310193419456</v>
       </c>
       <c r="EG13" t="n">
-        <v>4.397116754262242e-06</v>
+        <v>0.0004333041433710605</v>
       </c>
       <c r="EH13" t="n">
-        <v>5.194290793042455e-07</v>
+        <v>0.004247348755598068</v>
       </c>
       <c r="EI13" t="n">
-        <v>4.22784432885237e-06</v>
+        <v>0.01551265548914671</v>
       </c>
       <c r="EJ13" t="n">
-        <v>2.612138359836536e-06</v>
+        <v>0.004645213950425386</v>
       </c>
       <c r="EK13" t="n">
-        <v>2.928462663476239e-07</v>
+        <v>0.01140690222382545</v>
       </c>
       <c r="EL13" t="n">
-        <v>2.675062091839209e-07</v>
+        <v>0.01095106825232506</v>
       </c>
       <c r="EM13" t="n">
-        <v>1.106836180042592e-06</v>
+        <v>0.004324789624661207</v>
       </c>
       <c r="EN13" t="n">
-        <v>1.324794880019908e-06</v>
+        <v>0.0006949154194444418</v>
       </c>
       <c r="EO13" t="n">
-        <v>2.017797442022129e-06</v>
+        <v>0.00919595081359148</v>
       </c>
       <c r="EP13" t="n">
-        <v>1.951635795194306e-06</v>
+        <v>0.001500035519711673</v>
       </c>
       <c r="EQ13" t="n">
-        <v>4.095988970220787e-07</v>
+        <v>0.01498556137084961</v>
       </c>
       <c r="ER13" t="n">
-        <v>2.975996835630212e-07</v>
+        <v>0.01144422776997089</v>
       </c>
       <c r="ES13" t="n">
-        <v>3.151250439259456e-06</v>
+        <v>0.004881515167653561</v>
       </c>
       <c r="ET13" t="n">
-        <v>2.079732013271496e-07</v>
+        <v>0.01329176500439644</v>
       </c>
       <c r="EU13" t="n">
-        <v>6.032237251929473e-07</v>
+        <v>0.01040077302604914</v>
       </c>
       <c r="EV13" t="n">
-        <v>7.959486083564116e-07</v>
+        <v>0.01076499465852976</v>
       </c>
       <c r="EW13" t="n">
-        <v>4.396940482820355e-07</v>
+        <v>0.005954495631158352</v>
       </c>
       <c r="EX13" t="n">
-        <v>1.735668433866522e-06</v>
+        <v>0.001865665894001722</v>
       </c>
       <c r="EY13" t="n">
-        <v>3.450425538176205e-06</v>
+        <v>0.009113134816288948</v>
       </c>
       <c r="EZ13" t="n">
-        <v>9.981138191506034e-07</v>
+        <v>0.007715746760368347</v>
       </c>
       <c r="FA13" t="n">
-        <v>2.660179006852559e-06</v>
+        <v>0.01413063984364271</v>
       </c>
       <c r="FB13" t="n">
-        <v>7.346000074903714e-07</v>
+        <v>0.003529679728671908</v>
       </c>
       <c r="FC13" t="n">
-        <v>7.158813559726696e-07</v>
+        <v>0.009867582470178604</v>
       </c>
       <c r="FD13" t="n">
-        <v>1.168598942058452e-07</v>
+        <v>0.009001683443784714</v>
       </c>
       <c r="FE13" t="n">
-        <v>2.003148580342895e-07</v>
+        <v>0.002048670081421733</v>
       </c>
       <c r="FF13" t="n">
-        <v>7.808510531503998e-07</v>
+        <v>0.004177865572273731</v>
       </c>
       <c r="FG13" t="n">
-        <v>6.953197271286626e-07</v>
+        <v>0.009555774740874767</v>
       </c>
       <c r="FH13" t="n">
-        <v>3.163680503348587e-06</v>
+        <v>0.007446452043950558</v>
       </c>
       <c r="FI13" t="n">
-        <v>3.916177888640959e-07</v>
+        <v>0.007811675779521465</v>
       </c>
       <c r="FJ13" t="n">
-        <v>2.869200670829741e-06</v>
+        <v>0.001585801132023335</v>
       </c>
       <c r="FK13" t="n">
-        <v>9.026926477417874e-07</v>
+        <v>0.001263578538782895</v>
       </c>
       <c r="FL13" t="n">
-        <v>2.48269520852773e-06</v>
+        <v>0.01156407222151756</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.87481327632122e-07</v>
+        <v>0.002768268808722496</v>
       </c>
       <c r="FN13" t="n">
-        <v>4.782278892889735e-07</v>
+        <v>0.0002810268197208643</v>
       </c>
       <c r="FO13" t="n">
-        <v>1.098247594200075e-06</v>
+        <v>0.01008627843111753</v>
       </c>
       <c r="FP13" t="n">
-        <v>1.59169678681792e-06</v>
+        <v>0.008123445324599743</v>
       </c>
       <c r="FQ13" t="n">
-        <v>1.813310518627986e-06</v>
+        <v>0.0130779817700386</v>
       </c>
       <c r="FR13" t="n">
-        <v>9.093136554838566e-07</v>
+        <v>0.003855067770928144</v>
       </c>
       <c r="FS13" t="n">
-        <v>1.877873046396417e-06</v>
+        <v>0.03207819908857346</v>
       </c>
       <c r="FT13" t="n">
-        <v>2.62624780589249e-06</v>
+        <v>0.01595617271959782</v>
       </c>
       <c r="FU13" t="n">
-        <v>1.306619765273354e-06</v>
+        <v>0.007242346648126841</v>
       </c>
       <c r="FV13" t="n">
-        <v>1.086154611584789e-06</v>
+        <v>0.0009454558603465557</v>
       </c>
       <c r="FW13" t="n">
-        <v>4.069861461175606e-07</v>
+        <v>0.009455127641558647</v>
       </c>
       <c r="FX13" t="n">
-        <v>4.18183390138438e-06</v>
+        <v>0.00322451489046216</v>
       </c>
       <c r="FY13" t="n">
-        <v>1.587525503055076e-06</v>
+        <v>0.01180213131010532</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.471727841817483e-06</v>
+        <v>0.01680423505604267</v>
       </c>
       <c r="GA13" t="n">
-        <v>9.756811323313741e-07</v>
+        <v>0.0004695536335930228</v>
       </c>
       <c r="GB13" t="n">
-        <v>2.396392801529146e-06</v>
+        <v>0.01528344955295324</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.874780816204293e-07</v>
+        <v>0.003357333596795797</v>
       </c>
       <c r="GD13" t="n">
-        <v>1.068599317477492e-06</v>
+        <v>0.006931996438652277</v>
       </c>
       <c r="GE13" t="n">
-        <v>5.105445097797201e-07</v>
+        <v>0.02782107144594193</v>
       </c>
       <c r="GF13" t="n">
-        <v>1.820392071749666e-06</v>
+        <v>0.02115885354578495</v>
       </c>
       <c r="GG13" t="n">
-        <v>1.117008196160896e-06</v>
+        <v>0.003212625626474619</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.908682323303879e-09</v>
+        <v>9.381811651110183e-06</v>
       </c>
       <c r="B14" t="n">
-        <v>4.866744784948196e-09</v>
+        <v>0.001011632848531008</v>
       </c>
       <c r="C14" t="n">
-        <v>1.456150311440751e-09</v>
+        <v>0.0001213608629768714</v>
       </c>
       <c r="D14" t="n">
-        <v>7.530495338414767e-09</v>
+        <v>0.0004561938112601638</v>
       </c>
       <c r="E14" t="n">
-        <v>6.785101813733263e-09</v>
+        <v>0.0003320030518807471</v>
       </c>
       <c r="F14" t="n">
-        <v>7.841074456393926e-10</v>
+        <v>7.076014298945665e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.644283208537047e-10</v>
+        <v>4.89318190375343e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>1.035311392172389e-09</v>
+        <v>1.391336263623089e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>6.473011016083774e-11</v>
+        <v>8.147809421643615e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>6.79384049018239e-10</v>
+        <v>3.139830369036645e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>5.101699507292778e-09</v>
+        <v>0.0007297155680134892</v>
       </c>
       <c r="L14" t="n">
-        <v>8.424944630824882e-10</v>
+        <v>1.123236597777577e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>8.495596226509861e-09</v>
+        <v>0.0004003154172096401</v>
       </c>
       <c r="N14" t="n">
-        <v>7.107084698532162e-09</v>
+        <v>0.0004108361317776144</v>
       </c>
       <c r="O14" t="n">
-        <v>4.633203543047415e-10</v>
+        <v>1.679656998021528e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>8.397901818391063e-10</v>
+        <v>4.281147630535997e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.484990796996044e-09</v>
+        <v>0.0001698864507488906</v>
       </c>
       <c r="R14" t="n">
-        <v>2.067599425004119e-09</v>
+        <v>1.665582385612652e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.112103409361964e-09</v>
+        <v>5.020343814976513e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>6.999817392383534e-10</v>
+        <v>0.0001728955248836428</v>
       </c>
       <c r="U14" t="n">
-        <v>2.572799751021648e-10</v>
+        <v>7.098953938111663e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.492192591712183e-09</v>
+        <v>0.0001218235556734726</v>
       </c>
       <c r="W14" t="n">
-        <v>4.467527681129013e-09</v>
+        <v>7.777735299896449e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>2.152355238482784e-10</v>
+        <v>0.0001287593913730234</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.511290537159482e-09</v>
+        <v>4.33494133176282e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.209067734819769e-09</v>
+        <v>1.842821802711114e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.533764781846969e-11</v>
+        <v>6.460264216912037e-07</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.034566515263236e-09</v>
+        <v>8.063334098551422e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.034369032763664e-10</v>
+        <v>9.824167500482872e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.59297727523267e-10</v>
+        <v>4.427906787896063e-07</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.908955076819097e-09</v>
+        <v>1.185432120109908e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.205121862886017e-09</v>
+        <v>8.815251931082457e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.908085404429439e-11</v>
+        <v>0.0001551750756334513</v>
       </c>
       <c r="AH14" t="n">
-        <v>4.779951434663587e-10</v>
+        <v>1.062860337697202e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.405013741606069e-10</v>
+        <v>8.394011092605069e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.525483014525491e-11</v>
+        <v>4.017708488390781e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.194333381666524e-09</v>
+        <v>0.0001516473712399602</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.124201311687784e-10</v>
+        <v>4.122345671930816e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>3.03113034672009e-10</v>
+        <v>3.437984923948534e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.792389570098862e-10</v>
+        <v>0.0001124027330661193</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.607846300544225e-09</v>
+        <v>0.00017898905207403</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.274572780651795e-09</v>
+        <v>0.0001673153456067666</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.661002777657131e-10</v>
+        <v>2.687875621631974e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>6.149764586460549e-10</v>
+        <v>7.12801847839728e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.949784305705805e-10</v>
+        <v>2.704596408875659e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.533239700814761e-09</v>
+        <v>7.730173820164055e-06</v>
       </c>
       <c r="AU14" t="n">
-        <v>3.429586614700497e-09</v>
+        <v>0.0006727034342475235</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.804665749118641e-10</v>
+        <v>1.202337170980172e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.16465015409517e-09</v>
+        <v>5.161163790035062e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>3.051683350463463e-09</v>
+        <v>4.951156734023243e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>8.762239267490202e-10</v>
+        <v>3.62877426596242e-06</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.43078471082481e-10</v>
+        <v>7.750021904939786e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.047005009941927e-09</v>
+        <v>0.0001197385645355098</v>
       </c>
       <c r="BB14" t="n">
-        <v>7.692458892094578e-10</v>
+        <v>9.750324534252286e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>8.492103548141117e-11</v>
+        <v>2.819203655235469e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.270949234744023e-09</v>
+        <v>0.0001326245110249147</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.488747736200224e-10</v>
+        <v>0.0002063229621853679</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.638656569966315e-09</v>
+        <v>0.0001689183554844931</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.808311361235383e-09</v>
+        <v>0.0004628202295862138</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.64184643658416e-09</v>
+        <v>1.737577622407116e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>3.792859359919021e-10</v>
+        <v>8.653386612422764e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>6.691305842743134e-10</v>
+        <v>0.0001265232422156259</v>
       </c>
       <c r="BK14" t="n">
-        <v>3.633279233028475e-10</v>
+        <v>1.37385932248435e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>3.67320757144185e-10</v>
+        <v>7.755251863272861e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>3.133727499715633e-09</v>
+        <v>0.0002101731224684045</v>
       </c>
       <c r="BN14" t="n">
-        <v>2.26288071614178e-10</v>
+        <v>6.723123806295916e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.927815684865664e-09</v>
+        <v>8.038926353037823e-06</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.074516808863279e-09</v>
+        <v>0.0002200141607318074</v>
       </c>
       <c r="BQ14" t="n">
-        <v>3.349161226129382e-10</v>
+        <v>0.0001397028972860426</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.889702838653307e-10</v>
+        <v>6.992526323301718e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.237369207096606e-09</v>
+        <v>8.767715189605951e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.609970850553367e-10</v>
+        <v>8.55045800562948e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>3.114557944883245e-09</v>
+        <v>6.930201197974384e-05</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.423781925691259e-10</v>
+        <v>0.0003399972047191113</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.585430897677043e-09</v>
+        <v>9.070202941074967e-05</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.726033176969622e-09</v>
+        <v>2.659593974385643e-06</v>
       </c>
       <c r="BY14" t="n">
-        <v>3.033484796688413e-09</v>
+        <v>2.036259502347093e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.163237062229427e-09</v>
+        <v>0.0001521305384812877</v>
       </c>
       <c r="CA14" t="n">
-        <v>4.921228979881676e-10</v>
+        <v>1.080163565347902e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.923701753447915e-10</v>
+        <v>1.378838715027086e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.557392713737784e-10</v>
+        <v>7.203984569059685e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>8.961817399288918e-10</v>
+        <v>4.417897434905171e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.441894603715355e-09</v>
+        <v>0.0001845294609665871</v>
       </c>
       <c r="CF14" t="n">
-        <v>7.065904805703127e-11</v>
+        <v>3.697557258419693e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.455275788764254e-09</v>
+        <v>5.680439426214434e-05</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.202593218925131e-09</v>
+        <v>3.197944897692651e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.982259911770257e-10</v>
+        <v>1.225106643687468e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>4.835533085056909e-10</v>
+        <v>7.170384924393147e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>6.053423318164164e-10</v>
+        <v>3.639694477897137e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>3.383188451611119e-10</v>
+        <v>1.019792762235738e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>4.021807331611171e-10</v>
+        <v>0.0003153658180963248</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.221321710431766e-09</v>
+        <v>8.689900278113782e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>5.903725286415806e-10</v>
+        <v>9.15778218768537e-06</v>
       </c>
       <c r="CP14" t="n">
-        <v>2.725676573334113e-09</v>
+        <v>7.634705252712592e-05</v>
       </c>
       <c r="CQ14" t="n">
-        <v>2.427125611603742e-09</v>
+        <v>0.0001208064059028402</v>
       </c>
       <c r="CR14" t="n">
-        <v>2.634871654194626e-09</v>
+        <v>0.0003466129710432142</v>
       </c>
       <c r="CS14" t="n">
-        <v>7.584516348302373e-10</v>
+        <v>2.748315455392003e-05</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.180857633897858e-09</v>
+        <v>3.048131475225091e-06</v>
       </c>
       <c r="CU14" t="n">
-        <v>4.651105056652227e-10</v>
+        <v>0.0001536732888780534</v>
       </c>
       <c r="CV14" t="n">
-        <v>9.367979725283249e-10</v>
+        <v>2.894110002671368e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.604704924496048e-09</v>
+        <v>0.0001710164797259495</v>
       </c>
       <c r="CX14" t="n">
-        <v>1.495389506667166e-10</v>
+        <v>7.212222408270463e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.070084243437464e-09</v>
+        <v>7.44346107239835e-05</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1.916070413443549e-09</v>
+        <v>2.691596455406398e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>3.077818555574652e-11</v>
+        <v>3.128502839899738e-06</v>
       </c>
       <c r="DB14" t="n">
-        <v>2.414728417221568e-10</v>
+        <v>6.645327084697783e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>6.004454711217022e-10</v>
+        <v>4.815568900085054e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>2.156561873523088e-10</v>
+        <v>4.091769369551912e-06</v>
       </c>
       <c r="DE14" t="n">
-        <v>3.577723228787022e-09</v>
+        <v>0.0001444954832550138</v>
       </c>
       <c r="DF14" t="n">
-        <v>2.806520127407452e-09</v>
+        <v>0.0002828470023814589</v>
       </c>
       <c r="DG14" t="n">
-        <v>2.078434091501435e-10</v>
+        <v>0.0001508230925537646</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.634587548122624e-10</v>
+        <v>0.0002075350203085691</v>
       </c>
       <c r="DI14" t="n">
-        <v>6.265924445969517e-10</v>
+        <v>6.815810047555715e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>9.355543006961398e-10</v>
+        <v>1.846638042479753e-06</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.52697321453843e-09</v>
+        <v>6.772542838007212e-05</v>
       </c>
       <c r="DL14" t="n">
-        <v>2.538073085034398e-09</v>
+        <v>0.0001280529249925166</v>
       </c>
       <c r="DM14" t="n">
-        <v>2.571772517168114e-10</v>
+        <v>8.869892917573452e-05</v>
       </c>
       <c r="DN14" t="n">
-        <v>4.364256733779825e-10</v>
+        <v>0.000119241900392808</v>
       </c>
       <c r="DO14" t="n">
-        <v>2.02771535673385e-10</v>
+        <v>3.154645673930645e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>5.317664086845753e-10</v>
+        <v>7.99930148787098e-07</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.905659186007824e-09</v>
+        <v>0.0001655595988268033</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.782724412535686e-09</v>
+        <v>5.543796578422189e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>7.944060409492693e-10</v>
+        <v>1.068970959750004e-06</v>
       </c>
       <c r="DT14" t="n">
-        <v>4.555383847915095e-11</v>
+        <v>5.191741365706548e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>9.657727950695971e-10</v>
+        <v>0.000121939112432301</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.014505035534796e-09</v>
+        <v>8.56267215567641e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.791350401347813e-10</v>
+        <v>7.282239675987512e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.383558601020241e-09</v>
+        <v>8.222371980082244e-05</v>
       </c>
       <c r="DY14" t="n">
-        <v>5.403024694317082e-10</v>
+        <v>2.83771805698052e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>8.702498721646634e-10</v>
+        <v>2.232111364719458e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.150309014708029e-10</v>
+        <v>0.0001646111631998792</v>
       </c>
       <c r="EB14" t="n">
-        <v>2.887276528973359e-10</v>
+        <v>0.0001693712547421455</v>
       </c>
       <c r="EC14" t="n">
-        <v>2.899904483211202e-10</v>
+        <v>9.38815574045293e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>5.915162248903982e-10</v>
+        <v>2.555761057010386e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>1.207537070335718e-09</v>
+        <v>5.277954915072769e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>1.439340424624902e-09</v>
+        <v>0.0001561410317663103</v>
       </c>
       <c r="EG14" t="n">
-        <v>7.926996281604204e-10</v>
+        <v>0.0001886515674414113</v>
       </c>
       <c r="EH14" t="n">
-        <v>3.107452073436434e-10</v>
+        <v>0.0001417663443135098</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.833511231730256e-09</v>
+        <v>8.702911873115227e-05</v>
       </c>
       <c r="EJ14" t="n">
-        <v>4.740130510327845e-11</v>
+        <v>0.0001051227009156719</v>
       </c>
       <c r="EK14" t="n">
-        <v>4.706481870897505e-10</v>
+        <v>5.422971298685297e-07</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.143181938001447e-10</v>
+        <v>9.588961984263733e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>2.45962722411619e-10</v>
+        <v>4.726199404103681e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>8.807275742039877e-11</v>
+        <v>2.143922574759927e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>4.364714145665971e-10</v>
+        <v>6.033899626345374e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.386577963558011e-09</v>
+        <v>0.0001875004963949323</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.173925179287494e-09</v>
+        <v>1.265498576685786e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>6.433724664134388e-10</v>
+        <v>0.0001046877296175808</v>
       </c>
       <c r="ES14" t="n">
-        <v>2.244391339445428e-09</v>
+        <v>5.284714279696345e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>3.872726583864505e-10</v>
+        <v>8.144706953316927e-08</v>
       </c>
       <c r="EU14" t="n">
-        <v>7.797562595612817e-11</v>
+        <v>0.0001092955862986855</v>
       </c>
       <c r="EV14" t="n">
-        <v>4.23649892944411e-10</v>
+        <v>6.497359572676942e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>4.168123624026521e-10</v>
+        <v>3.579671101761051e-06</v>
       </c>
       <c r="EX14" t="n">
-        <v>7.864172646421252e-10</v>
+        <v>7.365956844296306e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.474920630073484e-09</v>
+        <v>0.0001786749780876562</v>
       </c>
       <c r="EZ14" t="n">
-        <v>9.556672120325516e-11</v>
+        <v>4.208664176985621e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>1.013478412303925e-09</v>
+        <v>7.707376789767295e-05</v>
       </c>
       <c r="FB14" t="n">
-        <v>2.00228633673305e-09</v>
+        <v>1.918120688060299e-06</v>
       </c>
       <c r="FC14" t="n">
-        <v>2.600055171164684e-10</v>
+        <v>1.207051445817342e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>2.859519010467437e-10</v>
+        <v>5.943933138041757e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>2.381999042455618e-10</v>
+        <v>5.777146725449711e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>7.37717456567033e-11</v>
+        <v>1.543371035950258e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>7.246007127648113e-10</v>
+        <v>2.242327536805533e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>1.050209585962136e-09</v>
+        <v>1.557250288897194e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>1.361315782322237e-10</v>
+        <v>2.89672716462519e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>5.51807044502084e-10</v>
+        <v>0.000162012453074567</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.484858902500719e-09</v>
+        <v>0.0001535160699859262</v>
       </c>
       <c r="FL14" t="n">
-        <v>1.897504819936557e-09</v>
+        <v>0.0001273469824809581</v>
       </c>
       <c r="FM14" t="n">
-        <v>6.180285172519007e-10</v>
+        <v>4.674494994105771e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>1.290003104337245e-09</v>
+        <v>1.04149839899037e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.00022501392516e-09</v>
+        <v>4.254397936165333e-07</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.492910794986813e-09</v>
+        <v>0.0001757171412464231</v>
       </c>
       <c r="FQ14" t="n">
-        <v>1.609101962785076e-09</v>
+        <v>1.186536519526271e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.565498397582132e-09</v>
+        <v>0.0002222200710093603</v>
       </c>
       <c r="FS14" t="n">
-        <v>2.573927071480853e-09</v>
+        <v>9.411603059561457e-06</v>
       </c>
       <c r="FT14" t="n">
-        <v>2.783504982062368e-09</v>
+        <v>0.0001030476560117677</v>
       </c>
       <c r="FU14" t="n">
-        <v>6.816592845737546e-10</v>
+        <v>3.067001671297476e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>5.016733695129005e-10</v>
+        <v>0.0001139184605563059</v>
       </c>
       <c r="FW14" t="n">
-        <v>5.603201791437584e-10</v>
+        <v>0.0001410499098710716</v>
       </c>
       <c r="FX14" t="n">
-        <v>2.965050149850157e-10</v>
+        <v>0.0001520759687991813</v>
       </c>
       <c r="FY14" t="n">
-        <v>9.107588572199177e-10</v>
+        <v>8.505659207003191e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>1.966018459143015e-09</v>
+        <v>5.230376336839981e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>3.821270522230691e-10</v>
+        <v>1.071631777449511e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>3.920021807157781e-10</v>
+        <v>1.940535184985492e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>2.594523040855279e-09</v>
+        <v>0.0001164276181953028</v>
       </c>
       <c r="GD14" t="n">
-        <v>2.941039078940832e-10</v>
+        <v>4.731757508125156e-05</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.347591926936786e-09</v>
+        <v>6.782184937037528e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>9.306558301780399e-10</v>
+        <v>4.605271897162311e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>8.61738180812921e-10</v>
+        <v>5.44840149814263e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.002781651448458433</v>
+        <v>0.0008848531870171428</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002830391982570291</v>
+        <v>0.02114017121493816</v>
       </c>
       <c r="C15" t="n">
-        <v>2.719002077355981e-05</v>
+        <v>0.004075835458934307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01485209725797176</v>
+        <v>0.008379168808460236</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004273883067071438</v>
+        <v>0.0073583098128438</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003002210054546595</v>
+        <v>0.002848426345735788</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004303127061575651</v>
+        <v>0.003730226308107376</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003877921961247921</v>
+        <v>0.001516175805591047</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006215319037437439</v>
+        <v>0.0007184736896306276</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004811063408851624</v>
+        <v>0.0009921867167577147</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003372749080881476</v>
+        <v>0.01693116128444672</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007501696236431599</v>
+        <v>0.001651783823035657</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01409225910902023</v>
+        <v>0.007486594375222921</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01054398342967033</v>
+        <v>0.00592773174867034</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002110700588673353</v>
+        <v>0.002502877498045564</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001661501126363873</v>
+        <v>0.00356090534478426</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.007204032968729734</v>
+        <v>0.001415685517713428</v>
       </c>
       <c r="R15" t="n">
-        <v>0.006067994050681591</v>
+        <v>0.0001909344573505223</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001175510231405497</v>
+        <v>0.0002248647506348789</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001260390388779342</v>
+        <v>0.003438295098021626</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001303681987337768</v>
+        <v>0.0008532245410606265</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0009103448828682303</v>
+        <v>0.00209560408256948</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0109684569761157</v>
+        <v>0.0001528851862531155</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001970006618648767</v>
+        <v>0.002416815375909209</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001873904373496771</v>
+        <v>0.002148485742509365</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.004514026921242476</v>
+        <v>0.001584930112585425</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0006148639949969947</v>
+        <v>0.001743692788295448</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002481341129168868</v>
+        <v>0.002150720916688442</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.00129683455452323</v>
+        <v>0.003284008707851171</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002679734257981181</v>
+        <v>0.0002605664194561541</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.003242501057684422</v>
+        <v>0.0009575084550306201</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.003167006419971585</v>
+        <v>0.001533919596113265</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001507618697360158</v>
+        <v>0.0004947695997543633</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001121841138228774</v>
+        <v>0.00136927398853004</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.001383927999995649</v>
+        <v>0.001095514744520187</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001004899968393147</v>
+        <v>0.0007737184059806168</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.003711180295795202</v>
+        <v>0.0004884451045654714</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.002934002783149481</v>
+        <v>0.003264190629124641</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0007355738780461252</v>
+        <v>0.0004177770169917494</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003741340711712837</v>
+        <v>0.0004905764362774789</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.001330505940131843</v>
+        <v>0.00118668470531702</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.003258927026763558</v>
+        <v>0.001969434786587954</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0001575934729771689</v>
+        <v>0.0009309074375778437</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.002532196464017034</v>
+        <v>0.001054767519235611</v>
       </c>
       <c r="AS15" t="n">
-        <v>5.606338527286425e-05</v>
+        <v>0.0008218532311730087</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.001421871595084667</v>
+        <v>0.002786356490105391</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.098168574273586e-06</v>
+        <v>0.0141438664868474</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.001439616433344781</v>
+        <v>0.000893855991307646</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.007940007373690605</v>
+        <v>0.002403111895546317</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.001406780909746885</v>
+        <v>0.003089352045208216</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.003818425582721829</v>
+        <v>0.0002236757427453995</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.001248866552487016</v>
+        <v>0.0002147553750546649</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0003043320612050593</v>
+        <v>0.0003436730476096272</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.001762755447998643</v>
+        <v>0.0003209541027899832</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0009318832890130579</v>
+        <v>0.0002068612957373261</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.002265343442559242</v>
+        <v>0.003670824691653252</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.003178659128025174</v>
+        <v>0.003322336124256253</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.006810505874454975</v>
+        <v>0.001379677560180426</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.003792531089857221</v>
+        <v>0.006738872732967138</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0006750277243554592</v>
+        <v>2.363177191000432e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001883974648080766</v>
+        <v>0.002925967797636986</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.001715344376862049</v>
+        <v>0.001611581188626587</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.004037747159600258</v>
+        <v>0.0008027476724237204</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.002200455171987414</v>
+        <v>0.002743163146078587</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001989217009395361</v>
+        <v>0.0007667192840017378</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.000927958230022341</v>
+        <v>0.0005206003552302718</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.001612604013644159</v>
+        <v>0.0002232910192105919</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.001383043010719121</v>
+        <v>0.0004096205811947584</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.002108752029016614</v>
+        <v>0.002515375381335616</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.001165734487585723</v>
+        <v>0.0003139987238682806</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003906226251274347</v>
+        <v>0.000115518516395241</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0001542947138659656</v>
+        <v>0.0002331909781787544</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.002639375161379576</v>
+        <v>0.00217730738222599</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.00141614768654108</v>
+        <v>0.007990839891135693</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.002555792685598135</v>
+        <v>0.002815145067870617</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.005142995156347752</v>
+        <v>0.002138188807293773</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.002484671538695693</v>
+        <v>0.0007418901659548283</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.002843724330887198</v>
+        <v>0.002505480078980327</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.001187474466860294</v>
+        <v>0.0009576519951224327</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0004388865199871361</v>
+        <v>0.0002817802305798978</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.004047904163599014</v>
+        <v>0.00135930092073977</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.002841247478500009</v>
+        <v>0.0002288599062012509</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0009446257026866078</v>
+        <v>0.003235168289393187</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0004537448694463819</v>
+        <v>0.0005188375944271684</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.003339545568451285</v>
+        <v>0.001308097038418055</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001197361038066447</v>
+        <v>0.0003754661302082241</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001773686497472227</v>
+        <v>0.001073971390724182</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0001478604099247605</v>
+        <v>0.0002955578966066241</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.001289414009079337</v>
+        <v>0.0002713039284572005</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0004663519212044775</v>
+        <v>0.00119308358989656</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0006642447551712394</v>
+        <v>0.002717230934649706</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.00114308123011142</v>
+        <v>0.001140923239290714</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0003567473031580448</v>
+        <v>0.0003313540364615619</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.004357676487416029</v>
+        <v>0.00111323525197804</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.002515330212190747</v>
+        <v>0.00207892875187099</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.00606052577495575</v>
+        <v>0.001859105308540165</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.000569607422221452</v>
+        <v>0.001940263668075204</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.001777946366928518</v>
+        <v>0.002967201871797442</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.002145552542060614</v>
+        <v>0.0005083513678982854</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.002476751105859876</v>
+        <v>0.0001322335447184741</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.001769289840012789</v>
+        <v>0.002839767374098301</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0002101385034620762</v>
+        <v>0.0008542397990822792</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.003154873382300138</v>
+        <v>0.001794107840396464</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.001760713872499764</v>
+        <v>0.0002784065436571836</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.001100730034522712</v>
+        <v>0.001655154279433191</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0004155119531787932</v>
+        <v>0.0001391354744555429</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.001109402626752853</v>
+        <v>0.0001395094150211662</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0002383656683377922</v>
+        <v>0.0007336845737881958</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.003693845123052597</v>
+        <v>0.001081051770597696</v>
       </c>
       <c r="DF15" t="n">
-        <v>2.59577645920217e-05</v>
+        <v>0.003889430779963732</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.004608115181326866</v>
+        <v>6.319313251879066e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.00188040581997484</v>
+        <v>0.006283474620431662</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.00489161117002368</v>
+        <v>0.0001866557286120951</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.0005395234329625964</v>
+        <v>0.001650672173127532</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.001620819908566773</v>
+        <v>0.002699763048440218</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.002132196677848697</v>
+        <v>0.00112432730384171</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001265555387362838</v>
+        <v>0.001012359745800495</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0004954083706252277</v>
+        <v>0.00132802885491401</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0005609265645034611</v>
+        <v>0.0008994811796583235</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0005314098089002073</v>
+        <v>0.002394750015810132</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.001985733862966299</v>
+        <v>3.710207965923473e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.00211247568950057</v>
+        <v>0.003005545819178224</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.003810605499893427</v>
+        <v>0.001027116784825921</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0008982687722891569</v>
+        <v>0.001029228093102574</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.000704785343259573</v>
+        <v>0.001296888571232557</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0009288083529099822</v>
+        <v>0.001093037542887032</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0006491998792625964</v>
+        <v>0.0003206711262464523</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.003019614610821009</v>
+        <v>0.0006403340958058834</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0001729442737996578</v>
+        <v>0.002385349245741963</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.002793886000290513</v>
+        <v>0.002206029137596488</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0001282772573176771</v>
+        <v>0.002200064714998007</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.003627217374742031</v>
+        <v>0.0009781577391549945</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0004572189936880022</v>
+        <v>0.000533978221938014</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0005619272124022245</v>
+        <v>0.0008971410570666194</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.003179664025083184</v>
+        <v>0.0002106415049638599</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.002615343546494842</v>
+        <v>0.0003225448890589178</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001424458925612271</v>
+        <v>0.003035681787878275</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.000348442728864029</v>
+        <v>0.0006912720273248851</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.001504668733105063</v>
+        <v>0.001387799740768969</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.001015217509120703</v>
+        <v>0.002088993787765503</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002156045055016875</v>
+        <v>0.002138220937922597</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0006765631260350347</v>
+        <v>0.000488641788251698</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.002495338208973408</v>
+        <v>3.945051139453426e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.0003396967658773065</v>
+        <v>0.0006255348562262952</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.003865880891680717</v>
+        <v>0.0008532617357559502</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0006237999768927693</v>
+        <v>0.001519335433840752</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.002878425177186728</v>
+        <v>0.00241614761762321</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0002966056345030665</v>
+        <v>0.0008604215690866113</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.002983768470585346</v>
+        <v>0.0003690695157274604</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0009750674944370985</v>
+        <v>0.003268575295805931</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.001398771768435836</v>
+        <v>0.000450761232059449</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0006766791339032352</v>
+        <v>0.0009459221037104726</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.001206866232678294</v>
+        <v>0.0003950465470552444</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001995841739699244</v>
+        <v>0.0002922171261161566</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.00159756769426167</v>
+        <v>0.003071574959903955</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.000568340765312314</v>
+        <v>0.0001264122984139249</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.002322096843272448</v>
+        <v>0.001923387288115919</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.002184488577768207</v>
+        <v>0.0003083005722146481</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.001750111347064376</v>
+        <v>0.001525341183878481</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0002325917885173112</v>
+        <v>0.0004126274725422263</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001749303424730897</v>
+        <v>0.0001197671808768064</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0005920695839449763</v>
+        <v>0.001198499114252627</v>
       </c>
       <c r="FG15" t="n">
-        <v>7.327087223529816e-05</v>
+        <v>0.0001545578415971249</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.001119354972615838</v>
+        <v>0.001855229260399938</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.001357529545202851</v>
+        <v>0.0006940005696378648</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.00359930214472115</v>
+        <v>0.001306340796872973</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0002445407735649496</v>
+        <v>0.001583499368280172</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.002970647532492876</v>
+        <v>0.001289154170081019</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0008348840055987239</v>
+        <v>0.0004408745444379747</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0006335920188575983</v>
+        <v>0.0003656661137938499</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.001803262042813003</v>
+        <v>0.000970998196862638</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.001363539486192167</v>
+        <v>0.0008940745610743761</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.004943098407238722</v>
+        <v>0.003880875883623958</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.001664026873186231</v>
+        <v>0.002185221528634429</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.001573882182128727</v>
+        <v>0.003927616402506828</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0009485749760642648</v>
+        <v>0.002308555645868182</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.003332940163090825</v>
+        <v>0.0002274135185871273</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.001400562701746821</v>
+        <v>0.0003438285202719271</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.003455645637586713</v>
+        <v>0.001344465301372111</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.003648965852335095</v>
+        <v>0.000752344960346818</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.003270851448178291</v>
+        <v>0.002792974933981895</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.002180869458243251</v>
+        <v>0.000679398828651756</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0004928035195916891</v>
+        <v>0.0002763630182016641</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.000523984432220459</v>
+        <v>0.001454296871088445</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.002606607507914305</v>
+        <v>0.001501016900874674</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0003195879398845136</v>
+        <v>0.001550004701130092</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0008572052465751767</v>
+        <v>0.0045077302493155</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.0007984681869857013</v>
+        <v>0.0005537302931770682</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.002403047634288669</v>
+        <v>0.0005979466950520873</v>
       </c>
     </row>
     <row r="16">
@@ -9539,1140 +9539,1140 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.002173349494114518</v>
+        <v>5.988532211631536e-05</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0002203914045821875</v>
+        <v>0.03268299251794815</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003251951187849045</v>
+        <v>0.003818913828581572</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001272163935936987</v>
+        <v>0.01870683953166008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00175192509777844</v>
+        <v>0.01964791491627693</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004970974987372756</v>
+        <v>0.01821006834506989</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004721575533039868</v>
+        <v>0.005201333668082952</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0006387998000718653</v>
+        <v>0.01230450719594955</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0008430060115642846</v>
+        <v>0.003014979651197791</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002073177834972739</v>
+        <v>0.001740600680932403</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001547373249195516</v>
+        <v>0.0248603243380785</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003350327722728252</v>
+        <v>0.00148867757525295</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0007460821070708334</v>
+        <v>0.01097076572477818</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0007382719777524471</v>
+        <v>0.01596936397254467</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0005544223822653294</v>
+        <v>0.02043700218200684</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0003401829744689167</v>
+        <v>0.004100301768630743</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0009452247177250683</v>
+        <v>0.00346746388822794</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0009695981279946864</v>
+        <v>0.002699162112548947</v>
       </c>
       <c r="S17" t="n">
-        <v>2.755756577244028e-05</v>
+        <v>0.001593612949363887</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001024505821987987</v>
+        <v>0.005681770853698254</v>
       </c>
       <c r="U17" t="n">
-        <v>6.689958536298946e-05</v>
+        <v>0.001544113270938396</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0002153183741029352</v>
+        <v>0.005107109900563955</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0001184579232358374</v>
+        <v>0.003630452789366245</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0001093034661607817</v>
+        <v>0.003695289604365826</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0002413535403320566</v>
+        <v>0.003094506682828069</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0006185447564348578</v>
+        <v>0.002168329898267984</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0002267546369694173</v>
+        <v>0.002404320053756237</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.045155583298765e-05</v>
+        <v>0.0001293562818318605</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.387548976112157e-05</v>
+        <v>0.00379354483447969</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0002448141167405993</v>
+        <v>0.0005654734559357166</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0003749087045434862</v>
+        <v>0.0008575802785344422</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0002390234876656905</v>
+        <v>0.0002476898953318596</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0002211527462350205</v>
+        <v>0.002347167115658522</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0001662615686655045</v>
+        <v>0.006346859037876129</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0008960591512732208</v>
+        <v>0.003795115742832422</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0007996317581273615</v>
+        <v>0.0009311676258221269</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.00045908207539469</v>
+        <v>0.002788262907415628</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.001062749768607318</v>
+        <v>0.00716632092371583</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0004136365023441613</v>
+        <v>0.0003522602200973779</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0005778090562671423</v>
+        <v>0.002029518596827984</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.42596816457808e-05</v>
+        <v>0.000742850941605866</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.000123345889733173</v>
+        <v>0.004609912168234587</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.550502388970926e-05</v>
+        <v>0.0006250374717637897</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0002900019462686032</v>
+        <v>0.003163773799315095</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0001039276030496694</v>
+        <v>0.004294182173907757</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0008149207569658756</v>
+        <v>0.002371931681409478</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.0006622924120165408</v>
+        <v>0.02328421734273434</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.001584214041940868</v>
+        <v>0.002975113224238157</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0006219160277396441</v>
+        <v>0.002401631092652678</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0004628052702173591</v>
+        <v>0.006219160277396441</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0008364557870663702</v>
+        <v>0.01276369486004114</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.0002846259740181267</v>
+        <v>0.001130530377849936</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0009093220578506589</v>
+        <v>0.007725917734205723</v>
       </c>
       <c r="BB17" t="n">
-        <v>5.253070048638619e-05</v>
+        <v>0.001742888707667589</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0004606602597050369</v>
+        <v>0.00117568951100111</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.00025241743423976</v>
+        <v>0.005137959029525518</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.001079155365005136</v>
+        <v>0.004956343676894903</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0002844396221917123</v>
+        <v>0.006182212848216295</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0004678617988247424</v>
+        <v>0.01438376866281033</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0002588020579423755</v>
+        <v>0.002934315009042621</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0007077588234096766</v>
+        <v>0.00639435974881053</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0003908424114342779</v>
+        <v>0.005247815046459436</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0003274393093306571</v>
+        <v>0.002175224013626575</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0002275922888657078</v>
+        <v>0.003739029169082642</v>
       </c>
       <c r="BM17" t="n">
-        <v>9.008064080262557e-05</v>
+        <v>0.006851437035948038</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.0006186407990753651</v>
+        <v>0.003655557986348867</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0001421858614776284</v>
+        <v>0.0004345861962065101</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0005082297720946372</v>
+        <v>0.001425317954272032</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.0001205860025947914</v>
+        <v>0.003329742467030883</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0001681601570453495</v>
+        <v>0.007374019362032413</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.0006639572093263268</v>
+        <v>0.0006645384710282087</v>
       </c>
       <c r="BT17" t="n">
-        <v>2.850810778909363e-05</v>
+        <v>0.003549619577825069</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0007668397156521678</v>
+        <v>0.002470785519108176</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.0001678656262811273</v>
+        <v>0.01377809047698975</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0005759540945291519</v>
+        <v>0.007243089377880096</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.0005317229661159217</v>
+        <v>0.00266575813293457</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.0007370208040811121</v>
+        <v>0.004991321824491024</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.0004607211158145219</v>
+        <v>0.001525407191365957</v>
       </c>
       <c r="CA17" t="n">
-        <v>9.893372043734416e-05</v>
+        <v>0.002128583146259189</v>
       </c>
       <c r="CB17" t="n">
-        <v>8.701893239049241e-05</v>
+        <v>0.001974644372239709</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0003459764120634645</v>
+        <v>0.002164200413972139</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.0004387518856674433</v>
+        <v>0.0002962659345939755</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0005411147722043097</v>
+        <v>0.005198362283408642</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.0007345848134718835</v>
+        <v>0.00233805738389492</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0002541336871217936</v>
+        <v>0.002013359218835831</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0002741107309702784</v>
+        <v>0.0007904777303338051</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0003246557316742837</v>
+        <v>0.003573440946638584</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.0001158759696409106</v>
+        <v>0.003181030042469501</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.000297090009553358</v>
+        <v>0.002374810166656971</v>
       </c>
       <c r="CL17" t="n">
-        <v>3.012501474586315e-05</v>
+        <v>0.00127364310901612</v>
       </c>
       <c r="CM17" t="n">
-        <v>4.697206532000564e-05</v>
+        <v>0.005298368632793427</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.001226570922881365</v>
+        <v>0.001347425626590848</v>
       </c>
       <c r="CO17" t="n">
-        <v>8.523776341462508e-05</v>
+        <v>0.0009106002980843186</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.0001939087960636243</v>
+        <v>0.005396724678575993</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0005711634294129908</v>
+        <v>0.0003968812525272369</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0002068922622129321</v>
+        <v>0.001142933848313987</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.0001849798718467355</v>
+        <v>0.006429056636989117</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0003242123057134449</v>
+        <v>0.004309173673391342</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.0004081892257090658</v>
+        <v>0.0008437167853116989</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0004193760396447033</v>
+        <v>0.0004352822143118829</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.000533522164914757</v>
+        <v>0.003848807653412223</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0007418004097416997</v>
+        <v>0.002891112817451358</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.0001052272418746725</v>
+        <v>0.00363480718806386</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0006098331068642437</v>
+        <v>0.0001679408887866884</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0002646695065777749</v>
+        <v>0.004278830718249083</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.0001279656717088073</v>
+        <v>0.002946668770164251</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.000201530012418516</v>
+        <v>0.00312467385083437</v>
       </c>
       <c r="DD17" t="n">
-        <v>3.84675913664978e-05</v>
+        <v>9.167846292257309e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>7.534639007644728e-05</v>
+        <v>0.004267334472388029</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0008385108667425811</v>
+        <v>0.002560286317020655</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.0002899033133871853</v>
+        <v>0.0008172300877049565</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.0001688290212769061</v>
+        <v>0.0155047420412302</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0007256061653606594</v>
+        <v>0.0008868160075508058</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0004112652968615294</v>
+        <v>0.0009178534965030849</v>
       </c>
       <c r="DK17" t="n">
-        <v>6.252055754885077e-05</v>
+        <v>0.004493433516472578</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0002203126350650564</v>
+        <v>0.003957700915634632</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.000159713439643383</v>
+        <v>0.003158959560096264</v>
       </c>
       <c r="DN17" t="n">
-        <v>3.167940303683281e-05</v>
+        <v>0.0002783759264275432</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0007661461713723838</v>
+        <v>0.0006724775303155184</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.0003590164124034345</v>
+        <v>0.001095839077606797</v>
       </c>
       <c r="DQ17" t="n">
-        <v>4.873749276157469e-05</v>
+        <v>0.004295134916901588</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0001152138211182319</v>
+        <v>0.001280661439523101</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0004026915121357888</v>
+        <v>0.004423314705491066</v>
       </c>
       <c r="DT17" t="n">
-        <v>1.128570875152946e-05</v>
+        <v>0.001218249904923141</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0002405571431154385</v>
+        <v>0.0009747186559252441</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.0005002033431082964</v>
+        <v>0.001004169462248683</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.0002137749688699841</v>
+        <v>0.001405076938681304</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0002206207427661866</v>
+        <v>0.0002432115143164992</v>
       </c>
       <c r="DY17" t="n">
-        <v>7.842093327781186e-05</v>
+        <v>0.004571765195578337</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.000109031461761333</v>
+        <v>0.001863565063104033</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.000270598306087777</v>
+        <v>0.00281078414991498</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.0004792642721440643</v>
+        <v>0.001625244738534093</v>
       </c>
       <c r="EC17" t="n">
-        <v>7.859431934775785e-05</v>
+        <v>0.002223071875050664</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0004246082389727235</v>
+        <v>0.001248568296432495</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0002136084076482803</v>
+        <v>0.0003122653579339385</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0006947808433324099</v>
+        <v>0.001642562914639711</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.0004271714715287089</v>
+        <v>0.00494448421522975</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.0006537692970596254</v>
+        <v>0.002053396543487906</v>
       </c>
       <c r="EI17" t="n">
-        <v>2.466356090735644e-05</v>
+        <v>0.002994611393660307</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0003891909727826715</v>
+        <v>0.004463952034711838</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0007914152811281383</v>
+        <v>0.001526825129985809</v>
       </c>
       <c r="EL17" t="n">
-        <v>3.813554940279573e-06</v>
+        <v>0.005285266786813736</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.0006691398448310792</v>
+        <v>0.0005790558061562479</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.0004542545648291707</v>
+        <v>4.867900861427188e-05</v>
       </c>
       <c r="EO17" t="n">
-        <v>5.958240217296407e-05</v>
+        <v>0.0005575019167736173</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.0004153655609115958</v>
+        <v>6.808076432207599e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.0002281654451508075</v>
+        <v>0.005564062856137753</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0001010994019452482</v>
+        <v>0.003330509178340435</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0001990627933992073</v>
+        <v>0.0008007044671103358</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0003499801096040756</v>
+        <v>0.00551263615489006</v>
       </c>
       <c r="EU17" t="n">
-        <v>9.480728476773947e-05</v>
+        <v>0.003277468029409647</v>
       </c>
       <c r="EV17" t="n">
-        <v>9.454842802369967e-05</v>
+        <v>0.006153156980872154</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.0003344302822370082</v>
+        <v>0.0007009640103206038</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.0004268429765943438</v>
+        <v>0.0002450029132887721</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0004457913455553353</v>
+        <v>0.003483354346826673</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.0007784879417158663</v>
+        <v>0.002077571349218488</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0001314747787546366</v>
+        <v>0.003071960061788559</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.0004130880697630346</v>
+        <v>0.0005967302713543177</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.000112480265670456</v>
+        <v>0.003726623021066189</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.0001450535783078521</v>
+        <v>0.003874916350468993</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0003002333105541766</v>
+        <v>0.003303063334897161</v>
       </c>
       <c r="FF17" t="n">
-        <v>9.18543228181079e-05</v>
+        <v>0.001581275020726025</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.0003517754666972905</v>
+        <v>0.0009064105688594282</v>
       </c>
       <c r="FH17" t="n">
-        <v>1.196743687614799e-05</v>
+        <v>0.003694281913340092</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.0004263780429027975</v>
+        <v>0.004952961578965187</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0007593749323859811</v>
+        <v>0.006218309979885817</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.000502106617204845</v>
+        <v>0.001470986753702164</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0001957519707502797</v>
+        <v>0.002221320755779743</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.0001979364606086165</v>
+        <v>0.002240182599052787</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.0001042526491801254</v>
+        <v>0.001920191920362413</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0004389396053738892</v>
+        <v>0.002868086099624634</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0002850330492947251</v>
+        <v>0.002223776653409004</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.001465055393055081</v>
+        <v>0.004326937720179558</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.0004254517843946815</v>
+        <v>0.001872768276371062</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0004410344699863344</v>
+        <v>0.002724850084632635</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0004946113331243396</v>
+        <v>0.003809133777394891</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0004949516733177006</v>
+        <v>0.002721362747251987</v>
       </c>
       <c r="FV17" t="n">
-        <v>7.624739373568445e-05</v>
+        <v>0.005993733182549477</v>
       </c>
       <c r="FW17" t="n">
-        <v>3.827096588793211e-05</v>
+        <v>0.0006562276976183057</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0001229096960742027</v>
+        <v>0.0004730259533971548</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.0004546576528809965</v>
+        <v>0.005487458780407906</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.0001368730154354125</v>
+        <v>0.00141804083250463</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.000195391767192632</v>
+        <v>0.002181224059313536</v>
       </c>
       <c r="GB17" t="n">
-        <v>4.624186840374023e-05</v>
+        <v>0.00338148744776845</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.0002702397177927196</v>
+        <v>0.00237049488350749</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0006689862348139286</v>
+        <v>0.00478374445810914</v>
       </c>
       <c r="GE17" t="n">
-        <v>5.159286956768483e-05</v>
+        <v>0.01491521019488573</v>
       </c>
       <c r="GF17" t="n">
-        <v>9.877479169517756e-05</v>
+        <v>0.0007837166776880622</v>
       </c>
       <c r="GG17" t="n">
-        <v>9.673260501585901e-05</v>
+        <v>0.0007229852490127087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0005677212029695511</v>
+        <v>0.001868358114734292</v>
       </c>
       <c r="B18" t="n">
-        <v>8.048702875385061e-05</v>
+        <v>0.01907926984131336</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005631739622913301</v>
+        <v>0.001540365628898144</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000242396752582863</v>
+        <v>0.005545707419514656</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001587222213856876</v>
+        <v>0.01875437796115875</v>
       </c>
       <c r="F18" t="n">
-        <v>4.5448359742295e-05</v>
+        <v>0.001704735681414604</v>
       </c>
       <c r="G18" t="n">
-        <v>4.981311940355226e-05</v>
+        <v>0.002544384682551026</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001016831229208037</v>
+        <v>0.003813860239461064</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001943093520822003</v>
+        <v>0.001195999444462359</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0005822419770993292</v>
+        <v>0.003179162042215466</v>
       </c>
       <c r="K18" t="n">
-        <v>7.93488507042639e-05</v>
+        <v>0.01758156158030033</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006119442405179143</v>
+        <v>0.003441810607910156</v>
       </c>
       <c r="M18" t="n">
-        <v>4.790432649315335e-05</v>
+        <v>0.0007711196085438132</v>
       </c>
       <c r="N18" t="n">
-        <v>2.680074248928577e-05</v>
+        <v>0.01468040607869625</v>
       </c>
       <c r="O18" t="n">
-        <v>7.740312139503658e-05</v>
+        <v>0.001914982218295336</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0001341817987849936</v>
+        <v>0.001269083237275481</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.148930257651955e-05</v>
+        <v>0.0001265883765881881</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0003122998168691993</v>
+        <v>0.0004998292424716055</v>
       </c>
       <c r="S18" t="n">
-        <v>4.842949419980869e-05</v>
+        <v>0.001223323866724968</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0001836535811889917</v>
+        <v>0.003872070927172899</v>
       </c>
       <c r="U18" t="n">
-        <v>3.37767050950788e-05</v>
+        <v>0.001956816762685776</v>
       </c>
       <c r="V18" t="n">
-        <v>2.180749470426235e-05</v>
+        <v>0.002261254470795393</v>
       </c>
       <c r="W18" t="n">
-        <v>9.662043157732114e-05</v>
+        <v>0.002729518339037895</v>
       </c>
       <c r="X18" t="n">
-        <v>3.745867434190586e-05</v>
+        <v>0.003765742992982268</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.793728632852435e-06</v>
+        <v>0.0007509642746299505</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0001343653275398538</v>
+        <v>0.001144548412412405</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.461176675045863e-05</v>
+        <v>0.0007156524807214737</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.705275826680008e-05</v>
+        <v>0.0002434845082461834</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.142359178629704e-05</v>
+        <v>0.0006420168210752308</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.945394539390691e-05</v>
+        <v>0.003964074421674013</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.95041084731929e-05</v>
+        <v>0.0005710539408028126</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.689999958733097e-05</v>
+        <v>4.431046545505524e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.466532350808848e-05</v>
+        <v>0.001242653816007078</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.250846202718094e-05</v>
+        <v>0.004183072131127119</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0001935391192091629</v>
+        <v>0.002972678979858756</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0001526207634015009</v>
+        <v>0.002130237873643637</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0001007691898848861</v>
+        <v>0.001233736169524491</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0002004509588005021</v>
+        <v>0.005390484817326069</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.964608862996101e-05</v>
+        <v>0.002614794299006462</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.000139789903187193</v>
+        <v>0.001309618353843689</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.316884198691696e-05</v>
+        <v>0.001073931576684117</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.288893615012057e-05</v>
+        <v>0.001637896755710244</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.926507684402168e-05</v>
+        <v>0.0003366887103766203</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.584450365044177e-05</v>
+        <v>0.001334401895292103</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.589451681473292e-06</v>
+        <v>0.001240673009306192</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0002019611129071563</v>
+        <v>0.001622179406695068</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.000129139400087297</v>
+        <v>0.01248898357152939</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0002983114682137966</v>
+        <v>0.0005090758786536753</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0001009521656669676</v>
+        <v>0.001867626560851932</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.704808477777988e-07</v>
+        <v>0.004530047066509724</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.0001671933860052377</v>
+        <v>0.004436714574694633</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7.799165905453265e-05</v>
+        <v>0.002429546788334846</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.000140981370350346</v>
+        <v>0.0015127242077142</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.033225897932425e-05</v>
+        <v>0.003176409751176834</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0001115192062570713</v>
+        <v>0.003282630816102028</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.359191264782567e-05</v>
+        <v>0.004506552126258612</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.0001505982509115711</v>
+        <v>0.001254680682905018</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.065440250793472e-05</v>
+        <v>0.002897637896239758</v>
       </c>
       <c r="BG18" t="n">
-        <v>8.786629769019783e-05</v>
+        <v>0.01049045938998461</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0001135120110120624</v>
+        <v>0.0008755550952628255</v>
       </c>
       <c r="BI18" t="n">
-        <v>6.119000317994505e-05</v>
+        <v>0.002423177473247051</v>
       </c>
       <c r="BJ18" t="n">
-        <v>8.53507372085005e-05</v>
+        <v>0.0005545111489482224</v>
       </c>
       <c r="BK18" t="n">
-        <v>6.571801350219175e-05</v>
+        <v>0.001593811437487602</v>
       </c>
       <c r="BL18" t="n">
-        <v>6.356252561090514e-05</v>
+        <v>0.004907042253762484</v>
       </c>
       <c r="BM18" t="n">
-        <v>5.84767185500823e-05</v>
+        <v>0.001859112526290119</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0001137710059992969</v>
+        <v>0.001763645326718688</v>
       </c>
       <c r="BO18" t="n">
-        <v>5.632588727166876e-05</v>
+        <v>0.001652334467507899</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0001804034545784816</v>
+        <v>0.0003839405253529549</v>
       </c>
       <c r="BQ18" t="n">
-        <v>6.811384810134768e-05</v>
+        <v>0.001525735249742866</v>
       </c>
       <c r="BR18" t="n">
-        <v>2.265606781293172e-05</v>
+        <v>0.0006914493860676885</v>
       </c>
       <c r="BS18" t="n">
-        <v>7.925227691885084e-05</v>
+        <v>0.0006117835291661322</v>
       </c>
       <c r="BT18" t="n">
-        <v>4.422751953825355e-05</v>
+        <v>0.001518276520073414</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0002076577948173508</v>
+        <v>0.002235827269032598</v>
       </c>
       <c r="BV18" t="n">
-        <v>5.338017217582092e-05</v>
+        <v>0.009703360497951508</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.00012719735968858</v>
+        <v>0.0025981564540416</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0001616332301637158</v>
+        <v>0.0003139548352919519</v>
       </c>
       <c r="BY18" t="n">
-        <v>5.016255090595223e-05</v>
+        <v>0.002343738451600075</v>
       </c>
       <c r="BZ18" t="n">
-        <v>5.06082724314183e-05</v>
+        <v>0.003129023592919111</v>
       </c>
       <c r="CA18" t="n">
-        <v>3.805985033977777e-05</v>
+        <v>0.001650654128752649</v>
       </c>
       <c r="CB18" t="n">
-        <v>5.053276981925592e-05</v>
+        <v>0.000248376396484673</v>
       </c>
       <c r="CC18" t="n">
-        <v>6.658551137661561e-05</v>
+        <v>0.0002418282383587211</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0001088582866941579</v>
+        <v>0.0002340218925382942</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.0001407653617206961</v>
+        <v>0.003489542519673705</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.0001107529678847641</v>
+        <v>0.0007564617553725839</v>
       </c>
       <c r="CG18" t="n">
-        <v>2.544620110711548e-05</v>
+        <v>0.001388922333717346</v>
       </c>
       <c r="CH18" t="n">
-        <v>1.257259646081366e-05</v>
+        <v>0.00222389679402113</v>
       </c>
       <c r="CI18" t="n">
-        <v>3.648262281785719e-05</v>
+        <v>0.0004985008854418993</v>
       </c>
       <c r="CJ18" t="n">
-        <v>3.044940967811272e-05</v>
+        <v>0.001971443183720112</v>
       </c>
       <c r="CK18" t="n">
-        <v>3.896409907611087e-05</v>
+        <v>0.0002120517892763019</v>
       </c>
       <c r="CL18" t="n">
-        <v>2.189189581258688e-05</v>
+        <v>0.0004625782603397965</v>
       </c>
       <c r="CM18" t="n">
-        <v>4.668059773393907e-05</v>
+        <v>0.003190324641764164</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.0001127654686570168</v>
+        <v>0.002711273496970534</v>
       </c>
       <c r="CO18" t="n">
-        <v>1.699430504231714e-05</v>
+        <v>0.0004508609999902546</v>
       </c>
       <c r="CP18" t="n">
-        <v>4.384979547467083e-06</v>
+        <v>0.0008500164840370417</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.000130382482893765</v>
+        <v>0.001230893423780799</v>
       </c>
       <c r="CR18" t="n">
-        <v>5.512585630640388e-06</v>
+        <v>0.0006437713745981455</v>
       </c>
       <c r="CS18" t="n">
-        <v>2.486403354851063e-05</v>
+        <v>0.005598620977252722</v>
       </c>
       <c r="CT18" t="n">
-        <v>5.860309465788305e-05</v>
+        <v>0.003902738681063056</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0001130653618020006</v>
+        <v>0.001275037531740963</v>
       </c>
       <c r="CV18" t="n">
-        <v>9.012436203192919e-05</v>
+        <v>0.0002848667500074953</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0001357939036097378</v>
+        <v>0.002794575178995728</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.0001243233273271471</v>
+        <v>0.0001696334948064759</v>
       </c>
       <c r="CY18" t="n">
-        <v>3.729265245056013e-06</v>
+        <v>0.001752035808749497</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0001008200706564821</v>
+        <v>0.001855366746895015</v>
       </c>
       <c r="DA18" t="n">
-        <v>3.558147363946773e-05</v>
+        <v>0.001440905150957406</v>
       </c>
       <c r="DB18" t="n">
-        <v>4.188429011264816e-05</v>
+        <v>0.001382732763886452</v>
       </c>
       <c r="DC18" t="n">
-        <v>2.579277133918367e-05</v>
+        <v>0.0001245869207195938</v>
       </c>
       <c r="DD18" t="n">
-        <v>1.006900401989697e-05</v>
+        <v>0.0007110086735337973</v>
       </c>
       <c r="DE18" t="n">
-        <v>2.721600685617886e-05</v>
+        <v>0.002575914142653346</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0002866688882932067</v>
+        <v>0.002715694718062878</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.0001253012160304934</v>
+        <v>0.0008399218204431236</v>
       </c>
       <c r="DH18" t="n">
-        <v>1.159329258371145e-06</v>
+        <v>0.005661932751536369</v>
       </c>
       <c r="DI18" t="n">
-        <v>2.946262793557253e-05</v>
+        <v>0.00400746101513505</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2.948057954199612e-06</v>
+        <v>0.0001636820961721241</v>
       </c>
       <c r="DK18" t="n">
-        <v>7.424698560498655e-05</v>
+        <v>0.002980534918606281</v>
       </c>
       <c r="DL18" t="n">
-        <v>7.938974158605561e-05</v>
+        <v>0.0001085316762328148</v>
       </c>
       <c r="DM18" t="n">
-        <v>6.438307173084468e-05</v>
+        <v>0.0008909180760383606</v>
       </c>
       <c r="DN18" t="n">
-        <v>1.756436904543079e-05</v>
+        <v>0.0001516244083177298</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.000134094909299165</v>
+        <v>0.001379713416099548</v>
       </c>
       <c r="DP18" t="n">
-        <v>3.884671605192125e-05</v>
+        <v>0.0003288424341008067</v>
       </c>
       <c r="DQ18" t="n">
-        <v>1.575334681547247e-05</v>
+        <v>0.003225723747164011</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.614180837350432e-05</v>
+        <v>0.002017799997702241</v>
       </c>
       <c r="DS18" t="n">
-        <v>1.861796954472084e-05</v>
+        <v>0.00425548292696476</v>
       </c>
       <c r="DT18" t="n">
-        <v>8.269762474810705e-05</v>
+        <v>0.0001662315626163036</v>
       </c>
       <c r="DU18" t="n">
-        <v>9.401046554557979e-06</v>
+        <v>0.0003000286815222353</v>
       </c>
       <c r="DV18" t="n">
-        <v>2.754727029241621e-05</v>
+        <v>0.0003852151276078075</v>
       </c>
       <c r="DW18" t="n">
-        <v>6.229904829524457e-05</v>
+        <v>0.0001111176388803869</v>
       </c>
       <c r="DX18" t="n">
-        <v>2.74549747700803e-05</v>
+        <v>0.00114134477917105</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.407817399012856e-05</v>
+        <v>0.001403310219757259</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.652380160521716e-05</v>
+        <v>0.0009590404806658626</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0001068079363903962</v>
+        <v>0.001283169258385897</v>
       </c>
       <c r="EB18" t="n">
-        <v>2.77202925644815e-05</v>
+        <v>0.002241955371573567</v>
       </c>
       <c r="EC18" t="n">
-        <v>4.521434675552882e-05</v>
+        <v>0.002312714233994484</v>
       </c>
       <c r="ED18" t="n">
-        <v>9.485759073868394e-05</v>
+        <v>0.001938973786309361</v>
       </c>
       <c r="EE18" t="n">
-        <v>9.372435670229606e-06</v>
+        <v>0.000496039807330817</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0001969074364751577</v>
+        <v>0.000356737116817385</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0001017085742205381</v>
+        <v>0.003650984959676862</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0001044674791046418</v>
+        <v>0.0002333156880922616</v>
       </c>
       <c r="EI18" t="n">
-        <v>5.501200575963594e-06</v>
+        <v>0.001847562496550381</v>
       </c>
       <c r="EJ18" t="n">
-        <v>1.262698788195848e-06</v>
+        <v>0.002236375352367759</v>
       </c>
       <c r="EK18" t="n">
-        <v>9.712203609524295e-05</v>
+        <v>0.001241148915141821</v>
       </c>
       <c r="EL18" t="n">
-        <v>2.780877002805937e-05</v>
+        <v>0.00110229616984725</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.0001000023767119274</v>
+        <v>0.0002713389112614095</v>
       </c>
       <c r="EN18" t="n">
-        <v>7.509964052587748e-05</v>
+        <v>0.000481784634757787</v>
       </c>
       <c r="EO18" t="n">
-        <v>3.314354216854554e-06</v>
+        <v>0.000754836481064558</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.0001785523782018572</v>
+        <v>0.0006734998896718025</v>
       </c>
       <c r="EQ18" t="n">
-        <v>4.68232756247744e-05</v>
+        <v>0.002472878433763981</v>
       </c>
       <c r="ER18" t="n">
-        <v>5.388832505559549e-05</v>
+        <v>0.001730471849441528</v>
       </c>
       <c r="ES18" t="n">
-        <v>2.586163282103371e-05</v>
+        <v>0.0002202798204962164</v>
       </c>
       <c r="ET18" t="n">
-        <v>8.212386455852538e-05</v>
+        <v>0.003377736313268542</v>
       </c>
       <c r="EU18" t="n">
-        <v>3.232475501135923e-05</v>
+        <v>0.0005079705151729286</v>
       </c>
       <c r="EV18" t="n">
-        <v>4.052508302265778e-05</v>
+        <v>0.001298381481319666</v>
       </c>
       <c r="EW18" t="n">
-        <v>4.882125722360797e-05</v>
+        <v>0.0004585630376823246</v>
       </c>
       <c r="EX18" t="n">
-        <v>9.942356700776145e-05</v>
+        <v>7.880007615312934e-05</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.0001111683159251697</v>
+        <v>0.002546495059505105</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.0001271732326131314</v>
+        <v>0.0003716435167007148</v>
       </c>
       <c r="FA18" t="n">
-        <v>1.741896448947955e-05</v>
+        <v>0.001394887804053724</v>
       </c>
       <c r="FB18" t="n">
-        <v>6.216944166226313e-05</v>
+        <v>0.001969685778021812</v>
       </c>
       <c r="FC18" t="n">
-        <v>1.934140527737327e-07</v>
+        <v>0.001478738151490688</v>
       </c>
       <c r="FD18" t="n">
-        <v>2.322061482118443e-05</v>
+        <v>0.001683633192442358</v>
       </c>
       <c r="FE18" t="n">
-        <v>3.570144326658919e-05</v>
+        <v>0.00017637072596699</v>
       </c>
       <c r="FF18" t="n">
-        <v>1.98595389520051e-05</v>
+        <v>0.0001272141234949231</v>
       </c>
       <c r="FG18" t="n">
-        <v>5.755721213063225e-05</v>
+        <v>0.0007217630045488477</v>
       </c>
       <c r="FH18" t="n">
-        <v>3.200842184014618e-05</v>
+        <v>0.003387715667486191</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0001001165364868939</v>
+        <v>0.001245611230842769</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.000114535418106243</v>
+        <v>0.003398572327569127</v>
       </c>
       <c r="FK18" t="n">
-        <v>4.551019810605794e-05</v>
+        <v>0.0003287341096438468</v>
       </c>
       <c r="FL18" t="n">
-        <v>5.648103979183361e-05</v>
+        <v>0.0003838349948637187</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.0001231150235980749</v>
+        <v>4.455746238818392e-05</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.0001125375783885829</v>
+        <v>0.0005159616703167558</v>
       </c>
       <c r="FO18" t="n">
-        <v>8.86609559529461e-05</v>
+        <v>0.0001732304226607084</v>
       </c>
       <c r="FP18" t="n">
-        <v>7.932518929010257e-05</v>
+        <v>0.001934519968926907</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0003007061895914376</v>
+        <v>0.001903286203742027</v>
       </c>
       <c r="FR18" t="n">
-        <v>8.364490349777043e-05</v>
+        <v>0.0005562585429288447</v>
       </c>
       <c r="FS18" t="n">
-        <v>3.941871909773909e-05</v>
+        <v>0.002330770483240485</v>
       </c>
       <c r="FT18" t="n">
-        <v>6.523935735458508e-05</v>
+        <v>0.002587532624602318</v>
       </c>
       <c r="FU18" t="n">
-        <v>5.5768083257135e-05</v>
+        <v>0.0007147063734009862</v>
       </c>
       <c r="FV18" t="n">
-        <v>1.475328281230759e-05</v>
+        <v>0.002111323177814484</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.0001050037972163409</v>
+        <v>0.001663683331571519</v>
       </c>
       <c r="FX18" t="n">
-        <v>5.498319751495728e-06</v>
+        <v>0.002482863608747721</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.0001120643137255684</v>
+        <v>0.0006232368759810925</v>
       </c>
       <c r="FZ18" t="n">
-        <v>1.873998189694248e-05</v>
+        <v>0.0009500138112343848</v>
       </c>
       <c r="GA18" t="n">
-        <v>1.111127676267643e-05</v>
+        <v>0.004998625256121159</v>
       </c>
       <c r="GB18" t="n">
-        <v>1.376296495436691e-06</v>
+        <v>0.001920207170769572</v>
       </c>
       <c r="GC18" t="n">
-        <v>6.836020475020632e-06</v>
+        <v>0.0004966847482137382</v>
       </c>
       <c r="GD18" t="n">
-        <v>8.233828702941537e-05</v>
+        <v>0.003765806322917342</v>
       </c>
       <c r="GE18" t="n">
-        <v>4.292288213036954e-05</v>
+        <v>0.003828572109341621</v>
       </c>
       <c r="GF18" t="n">
-        <v>4.892240758636035e-05</v>
+        <v>0.001328870072029531</v>
       </c>
       <c r="GG18" t="n">
-        <v>7.107488272595219e-06</v>
+        <v>0.0002225809148512781</v>
       </c>
     </row>
     <row r="19">
